--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IN4"/>
+  <dimension ref="A1:ACT4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1178,1692 +1178,6648 @@
       <c r="IN1" s="1" t="n">
         <v>247</v>
       </c>
+      <c r="IO1" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="NN1" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="NO1" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="NP1" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="NQ1" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="NR1" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="NS1" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="NT1" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="NU1" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="NV1" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="NW1" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="NX1" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="NY1" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="NZ1" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="OA1" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="OB1" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="OC1" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="OD1" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="OE1" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="OF1" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="OG1" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="OH1" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="OI1" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="OJ1" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="OK1" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="OL1" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="OM1" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="ON1" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="OO1" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="OP1" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="OQ1" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="OR1" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="OS1" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="OT1" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="OU1" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="OV1" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="OW1" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="OX1" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="OY1" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="OZ1" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="PA1" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="PB1" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="PC1" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="PD1" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="PE1" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="PF1" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="PG1" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="PH1" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="PI1" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="PJ1" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="PK1" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="PL1" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="PM1" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="PN1" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="PO1" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="PP1" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="PQ1" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="PR1" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="PS1" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="PT1" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="PU1" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="PV1" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="PW1" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="PX1" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="PY1" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="PZ1" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="QA1" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="QB1" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="QC1" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="QD1" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="QE1" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="QF1" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="QG1" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="QH1" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="QI1" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="QJ1" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="QK1" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="QL1" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="QM1" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="QN1" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="QO1" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="QP1" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="QQ1" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="QR1" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="QS1" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="QT1" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="QU1" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="QV1" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="QW1" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="QX1" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="QY1" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="QZ1" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="RA1" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="RB1" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="RC1" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="RD1" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="RE1" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="RF1" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="RG1" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="RH1" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="RI1" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="RJ1" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="RK1" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="RL1" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="RM1" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="RN1" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="RO1" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="RP1" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="RQ1" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="RR1" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="RS1" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="RT1" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="RU1" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="RV1" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="RW1" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="RX1" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="RY1" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="RZ1" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="SA1" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="SB1" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="SC1" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="SD1" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="SE1" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="SF1" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="SG1" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="SH1" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="SI1" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="SJ1" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="SK1" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="SL1" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="SM1" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="SN1" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="SO1" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="SP1" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="SQ1" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="SR1" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="SS1" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="ST1" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="SU1" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="SV1" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="SW1" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="SX1" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="SY1" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="SZ1" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="TA1" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="TB1" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="TC1" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="TD1" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="TE1" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="TF1" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="TG1" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="TH1" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="TI1" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="TJ1" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="TK1" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="TL1" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="TM1" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="TN1" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="TO1" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="TP1" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="TQ1" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="TR1" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="TS1" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="TT1" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="TU1" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="TV1" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="TW1" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="TX1" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="TY1" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="TZ1" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="UA1" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="UB1" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="UC1" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="UD1" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="UE1" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="UF1" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="UG1" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="UH1" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="UI1" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="UJ1" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="UK1" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="UL1" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="UM1" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="UN1" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="UO1" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="UP1" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="UQ1" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="UR1" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="US1" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="UT1" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="UU1" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="UV1" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="UW1" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="UX1" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="UY1" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="UZ1" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="VA1" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="VB1" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="VC1" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="VD1" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="VE1" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="VF1" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="VG1" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="VH1" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="VI1" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="VJ1" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="VK1" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="VL1" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="VM1" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="VN1" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="VO1" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="VP1" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="VQ1" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="VR1" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="VS1" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="VT1" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="VU1" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="VV1" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="VW1" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="VX1" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="VY1" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="VZ1" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="WA1" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="WB1" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="WC1" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="WD1" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="WE1" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="WF1" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="WG1" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="WH1" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="WI1" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="WJ1" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="WK1" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="WL1" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="WM1" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="WN1" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="WO1" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="WP1" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="WQ1" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="WR1" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="WS1" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="WT1" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="WU1" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="WV1" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="WW1" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="WX1" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="WY1" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="WZ1" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="XA1" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="XB1" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="XC1" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="XD1" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="XE1" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="XF1" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="XG1" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="XH1" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="XI1" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="XJ1" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="XK1" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="XL1" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="XM1" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="XN1" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="XO1" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="XP1" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="XQ1" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="XR1" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="XS1" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="XT1" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="XU1" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="XV1" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="XW1" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="XX1" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="XY1" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="XZ1" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="YA1" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="YB1" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="YC1" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="YD1" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="YE1" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="YF1" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="YG1" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="YH1" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="YI1" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="YJ1" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="YK1" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="YL1" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="YM1" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="YN1" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="YO1" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="YP1" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="YQ1" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="YR1" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="YS1" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="YT1" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="YU1" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="YV1" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="YW1" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="YX1" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="YY1" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="YZ1" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="ZA1" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="ZB1" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="ZC1" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="ZD1" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="ZE1" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="ZF1" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="ZG1" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="ZH1" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="ZI1" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="ZJ1" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="ZK1" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="ZL1" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="ZM1" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="ZN1" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="ZO1" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="ZP1" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="ZQ1" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="ZR1" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="ZS1" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="ZT1" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="ZU1" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="ZV1" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="ZW1" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="ZX1" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="ZY1" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="ZZ1" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="AAA1" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="AAB1" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="AAC1" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="AAD1" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="AAE1" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="AAF1" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="AAG1" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="AAH1" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="AAI1" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="AAJ1" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="AAK1" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="AAL1" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="AAM1" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="AAN1" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="AAO1" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="AAP1" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="AAQ1" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="AAR1" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="AAS1" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="AAT1" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="AAU1" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="AAV1" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="AAW1" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="AAX1" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="AAY1" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="AAZ1" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="ABA1" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="ABB1" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="ABC1" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="ABD1" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="ABE1" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="ABF1" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="ABG1" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="ABH1" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="ABI1" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="ABJ1" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="ABK1" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="ABL1" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="ABM1" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="ABN1" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="ABO1" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="ABP1" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="ABQ1" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="ABR1" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="ABS1" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="ABT1" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="ABU1" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="ABV1" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="ABW1" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="ABX1" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="ABY1" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="ABZ1" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="ACA1" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="ACB1" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="ACC1" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="ACD1" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="ACE1" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="ACF1" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="ACG1" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="ACH1" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="ACI1" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="ACJ1" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="ACK1" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="ACL1" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="ACM1" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="ACN1" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="ACO1" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="ACP1" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="ACQ1" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="ACR1" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="ACS1" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="ACT1" s="1" t="n">
+        <v>773</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-89.46295166015625</v>
+        <v>-47.52996826171875</v>
       </c>
       <c r="B2" t="n">
-        <v>-88.41201782226562</v>
+        <v>-47.6845703125</v>
       </c>
       <c r="C2" t="n">
-        <v>-87.34712219238281</v>
+        <v>-41.33880615234375</v>
       </c>
       <c r="D2" t="n">
-        <v>-83.1553955078125</v>
+        <v>-35.31976318359375</v>
       </c>
       <c r="E2" t="n">
-        <v>-82.75942993164062</v>
+        <v>-33.569580078125</v>
       </c>
       <c r="F2" t="n">
-        <v>-69.92019653320312</v>
+        <v>-30.0260009765625</v>
       </c>
       <c r="G2" t="n">
-        <v>-63.71723937988281</v>
+        <v>-23.86798095703125</v>
       </c>
       <c r="H2" t="n">
-        <v>-54.71310424804688</v>
+        <v>-22.2650146484375</v>
       </c>
       <c r="I2" t="n">
-        <v>-45.35111999511719</v>
+        <v>-21.26904296875</v>
       </c>
       <c r="J2" t="n">
-        <v>-42.46916198730469</v>
+        <v>-18.97686767578125</v>
       </c>
       <c r="K2" t="n">
-        <v>-39.15919494628906</v>
+        <v>-16.9376220703125</v>
       </c>
       <c r="L2" t="n">
-        <v>-36.82664489746094</v>
+        <v>-16.01116943359375</v>
       </c>
       <c r="M2" t="n">
-        <v>-33.78443908691406</v>
+        <v>-15.953125</v>
       </c>
       <c r="N2" t="n">
-        <v>-26.12174987792969</v>
+        <v>-14.369873046875</v>
       </c>
       <c r="O2" t="n">
-        <v>-26.95185852050781</v>
+        <v>-14.350341796875</v>
       </c>
       <c r="P2" t="n">
-        <v>-20.04153442382812</v>
+        <v>-12.24359130859375</v>
       </c>
       <c r="Q2" t="n">
-        <v>-18.8785400390625</v>
+        <v>-11.222900390625</v>
       </c>
       <c r="R2" t="n">
-        <v>-21.89906311035156</v>
+        <v>-10.9005126953125</v>
       </c>
       <c r="S2" t="n">
-        <v>-12.0087890625</v>
+        <v>-10.1279296875</v>
       </c>
       <c r="T2" t="n">
-        <v>-12.82421875</v>
+        <v>-8.4886474609375</v>
       </c>
       <c r="U2" t="n">
-        <v>-11.5985107421875</v>
+        <v>-7.7864990234375</v>
       </c>
       <c r="V2" t="n">
-        <v>-12.78471374511719</v>
+        <v>-4.7994384765625</v>
       </c>
       <c r="W2" t="n">
-        <v>-12.73014831542969</v>
+        <v>-5.43096923828125</v>
       </c>
       <c r="X2" t="n">
-        <v>-13.56161499023438</v>
+        <v>-4.42462158203125</v>
       </c>
       <c r="Y2" t="n">
-        <v>-14.41078186035156</v>
+        <v>-3.9287109375</v>
       </c>
       <c r="Z2" t="n">
-        <v>-10.45103454589844</v>
+        <v>-2.773681640625</v>
       </c>
       <c r="AA2" t="n">
-        <v>-5.549102783203125</v>
+        <v>-2.85888671875</v>
       </c>
       <c r="AB2" t="n">
-        <v>-8.039443969726562</v>
+        <v>-2.58648681640625</v>
       </c>
       <c r="AC2" t="n">
-        <v>-8.386871337890625</v>
+        <v>-3.15863037109375</v>
       </c>
       <c r="AD2" t="n">
-        <v>-2.799407958984375</v>
+        <v>-2.1361083984375</v>
       </c>
       <c r="AE2" t="n">
-        <v>-5.09649658203125</v>
+        <v>-1.35296630859375</v>
       </c>
       <c r="AF2" t="n">
-        <v>-4.246368408203125</v>
+        <v>0.941162109375</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1.765243530273438</v>
+        <v>2.22344970703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>-6.272048950195312</v>
+        <v>5.98388671875</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.6044769287109375</v>
+        <v>7.65435791015625</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.666473388671875</v>
+        <v>4.462646484375</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.55279541015625</v>
+        <v>7.62042236328125</v>
       </c>
       <c r="AL2" t="n">
-        <v>6.368087768554688</v>
+        <v>9.44488525390625</v>
       </c>
       <c r="AM2" t="n">
-        <v>8.930038452148438</v>
+        <v>8.74383544921875</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.478302001953125</v>
+        <v>5.7860107421875</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.376174926757812</v>
+        <v>6.85150146484375</v>
       </c>
       <c r="AP2" t="n">
-        <v>6.6717529296875</v>
+        <v>4.83502197265625</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-2.395477294921875</v>
+        <v>3.33514404296875</v>
       </c>
       <c r="AR2" t="n">
-        <v>4.481109619140625</v>
+        <v>2.73150634765625</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.522048950195312</v>
+        <v>2.7071533203125</v>
       </c>
       <c r="AT2" t="n">
-        <v>4.404586791992188</v>
+        <v>2.52801513671875</v>
       </c>
       <c r="AU2" t="n">
-        <v>4.883148193359375</v>
+        <v>2.753173828125</v>
       </c>
       <c r="AV2" t="n">
-        <v>5.606582641601562</v>
+        <v>2.57843017578125</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.3305816650390625</v>
+        <v>2.19512939453125</v>
       </c>
       <c r="AX2" t="n">
-        <v>3.398574829101562</v>
+        <v>3.7896728515625</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.639083862304688</v>
+        <v>3.6912841796875</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7.672073364257812</v>
+        <v>3.83477783203125</v>
       </c>
       <c r="BA2" t="n">
-        <v>4.178115844726562</v>
+        <v>3.749755859375</v>
       </c>
       <c r="BB2" t="n">
-        <v>5.865097045898438</v>
+        <v>3.9844970703125</v>
       </c>
       <c r="BC2" t="n">
-        <v>7.455886840820312</v>
+        <v>3.43707275390625</v>
       </c>
       <c r="BD2" t="n">
-        <v>4.596176147460938</v>
+        <v>1.92266845703125</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.5386810302734375</v>
+        <v>1.9033203125</v>
       </c>
       <c r="BF2" t="n">
-        <v>3.1978759765625</v>
+        <v>3.5025634765625</v>
       </c>
       <c r="BG2" t="n">
-        <v>6.050247192382812</v>
+        <v>3.5784912109375</v>
       </c>
       <c r="BH2" t="n">
-        <v>6.559158325195312</v>
+        <v>3.5972900390625</v>
       </c>
       <c r="BI2" t="n">
-        <v>10.61477661132812</v>
+        <v>3.18170166015625</v>
       </c>
       <c r="BJ2" t="n">
-        <v>9.624832153320312</v>
+        <v>3.318115234375</v>
       </c>
       <c r="BK2" t="n">
-        <v>11.26246643066406</v>
+        <v>2.61083984375</v>
       </c>
       <c r="BL2" t="n">
-        <v>3.87188720703125</v>
+        <v>2.59222412109375</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.834884643554688</v>
+        <v>3.2254638671875</v>
       </c>
       <c r="BN2" t="n">
-        <v>8.524917602539062</v>
+        <v>2.007080078125</v>
       </c>
       <c r="BO2" t="n">
-        <v>6.492034912109375</v>
+        <v>3.56256103515625</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.512161254882812</v>
+        <v>2.3807373046875</v>
       </c>
       <c r="BQ2" t="n">
-        <v>8.614776611328125</v>
+        <v>2.6903076171875</v>
       </c>
       <c r="BR2" t="n">
-        <v>8.1768798828125</v>
+        <v>3.403076171875</v>
       </c>
       <c r="BS2" t="n">
-        <v>10.24980163574219</v>
+        <v>3.5242919921875</v>
       </c>
       <c r="BT2" t="n">
-        <v>9.358123779296875</v>
+        <v>4.183349609375</v>
       </c>
       <c r="BU2" t="n">
-        <v>3.214340209960938</v>
+        <v>5.77099609375</v>
       </c>
       <c r="BV2" t="n">
-        <v>8.033355712890625</v>
+        <v>6.27935791015625</v>
       </c>
       <c r="BW2" t="n">
-        <v>15.03158569335938</v>
+        <v>10.0811767578125</v>
       </c>
       <c r="BX2" t="n">
-        <v>-1.04486083984375</v>
+        <v>11.12591552734375</v>
       </c>
       <c r="BY2" t="n">
-        <v>-11.43843078613281</v>
+        <v>12.01690673828125</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-4.182281494140625</v>
+        <v>7.9139404296875</v>
       </c>
       <c r="CA2" t="n">
-        <v>-8.60992431640625</v>
+        <v>6.378662109375</v>
       </c>
       <c r="CB2" t="n">
-        <v>-15.7972412109375</v>
+        <v>6.260009765625</v>
       </c>
       <c r="CC2" t="n">
-        <v>8.525222778320312</v>
+        <v>4.72967529296875</v>
       </c>
       <c r="CD2" t="n">
-        <v>8.270950317382812</v>
+        <v>2.77081298828125</v>
       </c>
       <c r="CE2" t="n">
-        <v>10.83547973632812</v>
+        <v>2.366455078125</v>
       </c>
       <c r="CF2" t="n">
-        <v>12.42488098144531</v>
+        <v>2.67718505859375</v>
       </c>
       <c r="CG2" t="n">
-        <v>10.466064453125</v>
+        <v>2.18585205078125</v>
       </c>
       <c r="CH2" t="n">
-        <v>12.14862060546875</v>
+        <v>2.32769775390625</v>
       </c>
       <c r="CI2" t="n">
-        <v>10.15194702148438</v>
+        <v>3.55206298828125</v>
       </c>
       <c r="CJ2" t="n">
-        <v>11.13418579101562</v>
+        <v>5.1666259765625</v>
       </c>
       <c r="CK2" t="n">
-        <v>-12.05302429199219</v>
+        <v>4.70556640625</v>
       </c>
       <c r="CL2" t="n">
-        <v>-14.02146911621094</v>
+        <v>4.88250732421875</v>
       </c>
       <c r="CM2" t="n">
-        <v>-13.18280029296875</v>
+        <v>4.98077392578125</v>
       </c>
       <c r="CN2" t="n">
-        <v>-4.328109741210938</v>
+        <v>4.93072509765625</v>
       </c>
       <c r="CO2" t="n">
-        <v>-4.509475708007812</v>
+        <v>4.54937744140625</v>
       </c>
       <c r="CP2" t="n">
-        <v>-4.302078247070312</v>
+        <v>4.6025390625</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-2.355850219726562</v>
+        <v>4.7308349609375</v>
       </c>
       <c r="CR2" t="n">
-        <v>-2.50384521484375</v>
+        <v>4.98187255859375</v>
       </c>
       <c r="CS2" t="n">
-        <v>-2.215591430664062</v>
+        <v>5.19659423828125</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.15985107421875</v>
+        <v>5.08245849609375</v>
       </c>
       <c r="CU2" t="n">
-        <v>9.600997924804688</v>
+        <v>5.3067626953125</v>
       </c>
       <c r="CV2" t="n">
-        <v>11.86862182617188</v>
+        <v>5.38311767578125</v>
       </c>
       <c r="CW2" t="n">
-        <v>10.24191284179688</v>
+        <v>5.482421875</v>
       </c>
       <c r="CX2" t="n">
-        <v>11.58917236328125</v>
+        <v>4.5579833984375</v>
       </c>
       <c r="CY2" t="n">
-        <v>10.6060791015625</v>
+        <v>4.2042236328125</v>
       </c>
       <c r="CZ2" t="n">
-        <v>15.10891723632812</v>
+        <v>4.86358642578125</v>
       </c>
       <c r="DA2" t="n">
-        <v>14.04457092285156</v>
+        <v>3.45550537109375</v>
       </c>
       <c r="DB2" t="n">
-        <v>11.54197692871094</v>
+        <v>1.3917236328125</v>
       </c>
       <c r="DC2" t="n">
-        <v>11.06767272949219</v>
+        <v>2.04815673828125</v>
       </c>
       <c r="DD2" t="n">
-        <v>3.573944091796875</v>
+        <v>2.36651611328125</v>
       </c>
       <c r="DE2" t="n">
-        <v>-8.899642944335938</v>
+        <v>2.207763671875</v>
       </c>
       <c r="DF2" t="n">
-        <v>3.07781982421875</v>
-      </c>
-      <c r="DG2" t="inlineStr"/>
-      <c r="DH2" t="inlineStr"/>
-      <c r="DI2" t="inlineStr"/>
-      <c r="DJ2" t="inlineStr"/>
-      <c r="DK2" t="inlineStr"/>
-      <c r="DL2" t="inlineStr"/>
-      <c r="DM2" t="inlineStr"/>
-      <c r="DN2" t="inlineStr"/>
-      <c r="DO2" t="inlineStr"/>
-      <c r="DP2" t="inlineStr"/>
-      <c r="DQ2" t="inlineStr"/>
-      <c r="DR2" t="inlineStr"/>
-      <c r="DS2" t="inlineStr"/>
-      <c r="DT2" t="inlineStr"/>
-      <c r="DU2" t="inlineStr"/>
-      <c r="DV2" t="inlineStr"/>
-      <c r="DW2" t="inlineStr"/>
-      <c r="DX2" t="inlineStr"/>
-      <c r="DY2" t="inlineStr"/>
-      <c r="DZ2" t="inlineStr"/>
-      <c r="EA2" t="inlineStr"/>
-      <c r="EB2" t="inlineStr"/>
-      <c r="EC2" t="inlineStr"/>
-      <c r="ED2" t="inlineStr"/>
-      <c r="EE2" t="inlineStr"/>
-      <c r="EF2" t="inlineStr"/>
-      <c r="EG2" t="inlineStr"/>
-      <c r="EH2" t="inlineStr"/>
-      <c r="EI2" t="inlineStr"/>
-      <c r="EJ2" t="inlineStr"/>
-      <c r="EK2" t="inlineStr"/>
-      <c r="EL2" t="inlineStr"/>
-      <c r="EM2" t="inlineStr"/>
-      <c r="EN2" t="inlineStr"/>
-      <c r="EO2" t="inlineStr"/>
-      <c r="EP2" t="inlineStr"/>
-      <c r="EQ2" t="inlineStr"/>
-      <c r="ER2" t="inlineStr"/>
-      <c r="ES2" t="inlineStr"/>
-      <c r="ET2" t="inlineStr"/>
-      <c r="EU2" t="inlineStr"/>
-      <c r="EV2" t="inlineStr"/>
-      <c r="EW2" t="inlineStr"/>
-      <c r="EX2" t="inlineStr"/>
-      <c r="EY2" t="inlineStr"/>
-      <c r="EZ2" t="inlineStr"/>
-      <c r="FA2" t="inlineStr"/>
-      <c r="FB2" t="inlineStr"/>
-      <c r="FC2" t="inlineStr"/>
-      <c r="FD2" t="inlineStr"/>
-      <c r="FE2" t="inlineStr"/>
-      <c r="FF2" t="inlineStr"/>
-      <c r="FG2" t="inlineStr"/>
-      <c r="FH2" t="inlineStr"/>
-      <c r="FI2" t="inlineStr"/>
-      <c r="FJ2" t="inlineStr"/>
-      <c r="FK2" t="inlineStr"/>
-      <c r="FL2" t="inlineStr"/>
-      <c r="FM2" t="inlineStr"/>
-      <c r="FN2" t="inlineStr"/>
-      <c r="FO2" t="inlineStr"/>
-      <c r="FP2" t="inlineStr"/>
-      <c r="FQ2" t="inlineStr"/>
-      <c r="FR2" t="inlineStr"/>
-      <c r="FS2" t="inlineStr"/>
-      <c r="FT2" t="inlineStr"/>
-      <c r="FU2" t="inlineStr"/>
-      <c r="FV2" t="inlineStr"/>
-      <c r="FW2" t="inlineStr"/>
-      <c r="FX2" t="inlineStr"/>
-      <c r="FY2" t="inlineStr"/>
-      <c r="FZ2" t="inlineStr"/>
-      <c r="GA2" t="inlineStr"/>
-      <c r="GB2" t="inlineStr"/>
-      <c r="GC2" t="inlineStr"/>
-      <c r="GD2" t="inlineStr"/>
-      <c r="GE2" t="inlineStr"/>
-      <c r="GF2" t="inlineStr"/>
-      <c r="GG2" t="inlineStr"/>
-      <c r="GH2" t="inlineStr"/>
-      <c r="GI2" t="inlineStr"/>
-      <c r="GJ2" t="inlineStr"/>
-      <c r="GK2" t="inlineStr"/>
-      <c r="GL2" t="inlineStr"/>
-      <c r="GM2" t="inlineStr"/>
-      <c r="GN2" t="inlineStr"/>
-      <c r="GO2" t="inlineStr"/>
-      <c r="GP2" t="inlineStr"/>
-      <c r="GQ2" t="inlineStr"/>
-      <c r="GR2" t="inlineStr"/>
-      <c r="GS2" t="inlineStr"/>
-      <c r="GT2" t="inlineStr"/>
-      <c r="GU2" t="inlineStr"/>
-      <c r="GV2" t="inlineStr"/>
-      <c r="GW2" t="inlineStr"/>
-      <c r="GX2" t="inlineStr"/>
-      <c r="GY2" t="inlineStr"/>
-      <c r="GZ2" t="inlineStr"/>
-      <c r="HA2" t="inlineStr"/>
-      <c r="HB2" t="inlineStr"/>
-      <c r="HC2" t="inlineStr"/>
-      <c r="HD2" t="inlineStr"/>
-      <c r="HE2" t="inlineStr"/>
-      <c r="HF2" t="inlineStr"/>
-      <c r="HG2" t="inlineStr"/>
-      <c r="HH2" t="inlineStr"/>
-      <c r="HI2" t="inlineStr"/>
-      <c r="HJ2" t="inlineStr"/>
-      <c r="HK2" t="inlineStr"/>
-      <c r="HL2" t="inlineStr"/>
-      <c r="HM2" t="inlineStr"/>
-      <c r="HN2" t="inlineStr"/>
-      <c r="HO2" t="inlineStr"/>
-      <c r="HP2" t="inlineStr"/>
-      <c r="HQ2" t="inlineStr"/>
-      <c r="HR2" t="inlineStr"/>
-      <c r="HS2" t="inlineStr"/>
-      <c r="HT2" t="inlineStr"/>
-      <c r="HU2" t="inlineStr"/>
-      <c r="HV2" t="inlineStr"/>
-      <c r="HW2" t="inlineStr"/>
-      <c r="HX2" t="inlineStr"/>
-      <c r="HY2" t="inlineStr"/>
-      <c r="HZ2" t="inlineStr"/>
-      <c r="IA2" t="inlineStr"/>
-      <c r="IB2" t="inlineStr"/>
-      <c r="IC2" t="inlineStr"/>
-      <c r="ID2" t="inlineStr"/>
-      <c r="IE2" t="inlineStr"/>
-      <c r="IF2" t="inlineStr"/>
-      <c r="IG2" t="inlineStr"/>
-      <c r="IH2" t="inlineStr"/>
-      <c r="II2" t="inlineStr"/>
-      <c r="IJ2" t="inlineStr"/>
-      <c r="IK2" t="inlineStr"/>
-      <c r="IL2" t="inlineStr"/>
-      <c r="IM2" t="inlineStr"/>
-      <c r="IN2" t="inlineStr"/>
+        <v>1.49920654296875</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>5.30181884765625</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>4.8629150390625</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>5.23870849609375</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>5.22747802734375</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>4.41204833984375</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>4.68731689453125</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>4.41888427734375</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>4.54534912109375</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>4.9000244140625</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>4.51531982421875</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>4.64959716796875</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>4.26666259765625</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>5.289794921875</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>4.03582763671875</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>4.132080078125</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>4.688232421875</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>4.51025390625</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>4.06365966796875</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>4.86395263671875</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>5.96368408203125</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>4.79443359375</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1.9420166015625</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>2.9625244140625</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>4.796875</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>4.21783447265625</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>5.388671875</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>5.48040771484375</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>5.1810302734375</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>4.290771484375</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>3.68603515625</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1.327880859375</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>2.857666015625</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>3.12884521484375</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>3.36517333984375</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>2.448974609375</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>2.39520263671875</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>2.75006103515625</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>3.9197998046875</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>4.5760498046875</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>6.67987060546875</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>6.4483642578125</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>6.662353515625</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>6.79864501953125</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>6.3507080078125</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>6.0181884765625</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>5.34002685546875</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>5.1007080078125</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>5.36474609375</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>5.30572509765625</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>5.3046875</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>4.25732421875</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>4.22845458984375</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>1.936767578125</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1.41241455078125</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>1.7664794921875</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1.8697509765625</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>2.83154296875</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>3.8868408203125</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>5.269287109375</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>5.25482177734375</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>5.07550048828125</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>5.3966064453125</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>5.57965087890625</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>5.447509765625</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>5.52764892578125</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>4.28057861328125</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1.24444580078125</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0.218994140625</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>2.10784912109375</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1.787109375</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>2.14642333984375</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>2.4752197265625</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>2.67626953125</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>2.02716064453125</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>2.247314453125</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>2.823974609375</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>3.14166259765625</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>4.525634765625</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>4.9267578125</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>5.50531005859375</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>6.7027587890625</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>6.88836669921875</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>5.24566650390625</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>7.97900390625</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>8.07635498046875</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>7.063232421875</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>7.984130859375</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>7.1854248046875</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>6.15863037109375</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>5.864501953125</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>2.37139892578125</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>-2.28753662109375</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>-3.06005859375</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>-4.662353515625</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>-3.1162109375</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>-0.12445068359375</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>0.52978515625</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>0.40289306640625</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1.66680908203125</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>0.478271484375</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>5.021240234375</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>2.06280517578125</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1.7052001953125</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>4.95806884765625</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>2.45147705078125</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1.862548828125</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>6.71673583984375</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>2.4483642578125</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>6.8790283203125</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1.86053466796875</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>2.6580810546875</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>7.2283935546875</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>2.14935302734375</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>6.718505859375</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>1.9744873046875</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>6.75738525390625</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>2.06427001953125</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>7.19158935546875</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>2.015869140625</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>3.63165283203125</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>3.90631103515625</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>4.0369873046875</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>3.89971923828125</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>3.87249755859375</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>0.3603515625</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>1.16546630859375</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>0.6734619140625</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>2.09368896484375</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1.93328857421875</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>2.5794677734375</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>2.56390380859375</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>4.029052734375</v>
+      </c>
+      <c r="II2" t="n">
+        <v>7.12945556640625</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>3.47564697265625</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>3.149169921875</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>0.91632080078125</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>1.13604736328125</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>5.86004638671875</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>6.064697265625</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1.932373046875</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>1.6370849609375</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>1.011474609375</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>7.25445556640625</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>1.50787353515625</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>5.50970458984375</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>0.50555419921875</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>-0.2047119140625</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>-0.46539306640625</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>5.21795654296875</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>5.001220703125</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>5.70928955078125</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>1.03131103515625</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>-0.307373046875</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>2.43963623046875</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>-1.56719970703125</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>-2.70721435546875</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>4.88177490234375</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>-0.7069091796875</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>5.1478271484375</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>6.03314208984375</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>5.56622314453125</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>1.0631103515625</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>2.5419921875</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>0.18914794921875</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>3.7889404296875</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>-1.21905517578125</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>-3.44775390625</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>-2.7989501953125</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>-4.03741455078125</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>-5.79913330078125</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>-0.76715087890625</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>-2.17266845703125</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>-3.78759765625</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>1.66351318359375</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>-0.63067626953125</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>1.66387939453125</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>1.1417236328125</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>0.599609375</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>-0.08050537109375</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>0.176025390625</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>6.37158203125</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>1.1177978515625</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>1.20916748046875</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>3.07818603515625</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>0.8463134765625</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>3.79779052734375</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>-7.5987548828125</v>
+      </c>
+      <c r="KL2" t="inlineStr"/>
+      <c r="KM2" t="inlineStr"/>
+      <c r="KN2" t="inlineStr"/>
+      <c r="KO2" t="inlineStr"/>
+      <c r="KP2" t="inlineStr"/>
+      <c r="KQ2" t="inlineStr"/>
+      <c r="KR2" t="inlineStr"/>
+      <c r="KS2" t="inlineStr"/>
+      <c r="KT2" t="inlineStr"/>
+      <c r="KU2" t="inlineStr"/>
+      <c r="KV2" t="inlineStr"/>
+      <c r="KW2" t="inlineStr"/>
+      <c r="KX2" t="inlineStr"/>
+      <c r="KY2" t="inlineStr"/>
+      <c r="KZ2" t="inlineStr"/>
+      <c r="LA2" t="inlineStr"/>
+      <c r="LB2" t="inlineStr"/>
+      <c r="LC2" t="inlineStr"/>
+      <c r="LD2" t="inlineStr"/>
+      <c r="LE2" t="inlineStr"/>
+      <c r="LF2" t="inlineStr"/>
+      <c r="LG2" t="inlineStr"/>
+      <c r="LH2" t="inlineStr"/>
+      <c r="LI2" t="inlineStr"/>
+      <c r="LJ2" t="inlineStr"/>
+      <c r="LK2" t="inlineStr"/>
+      <c r="LL2" t="inlineStr"/>
+      <c r="LM2" t="inlineStr"/>
+      <c r="LN2" t="inlineStr"/>
+      <c r="LO2" t="inlineStr"/>
+      <c r="LP2" t="inlineStr"/>
+      <c r="LQ2" t="inlineStr"/>
+      <c r="LR2" t="inlineStr"/>
+      <c r="LS2" t="inlineStr"/>
+      <c r="LT2" t="inlineStr"/>
+      <c r="LU2" t="inlineStr"/>
+      <c r="LV2" t="inlineStr"/>
+      <c r="LW2" t="inlineStr"/>
+      <c r="LX2" t="inlineStr"/>
+      <c r="LY2" t="inlineStr"/>
+      <c r="LZ2" t="inlineStr"/>
+      <c r="MA2" t="inlineStr"/>
+      <c r="MB2" t="inlineStr"/>
+      <c r="MC2" t="inlineStr"/>
+      <c r="MD2" t="inlineStr"/>
+      <c r="ME2" t="inlineStr"/>
+      <c r="MF2" t="inlineStr"/>
+      <c r="MG2" t="inlineStr"/>
+      <c r="MH2" t="inlineStr"/>
+      <c r="MI2" t="inlineStr"/>
+      <c r="MJ2" t="inlineStr"/>
+      <c r="MK2" t="inlineStr"/>
+      <c r="ML2" t="inlineStr"/>
+      <c r="MM2" t="inlineStr"/>
+      <c r="MN2" t="inlineStr"/>
+      <c r="MO2" t="inlineStr"/>
+      <c r="MP2" t="inlineStr"/>
+      <c r="MQ2" t="inlineStr"/>
+      <c r="MR2" t="inlineStr"/>
+      <c r="MS2" t="inlineStr"/>
+      <c r="MT2" t="inlineStr"/>
+      <c r="MU2" t="inlineStr"/>
+      <c r="MV2" t="inlineStr"/>
+      <c r="MW2" t="inlineStr"/>
+      <c r="MX2" t="inlineStr"/>
+      <c r="MY2" t="inlineStr"/>
+      <c r="MZ2" t="inlineStr"/>
+      <c r="NA2" t="inlineStr"/>
+      <c r="NB2" t="inlineStr"/>
+      <c r="NC2" t="inlineStr"/>
+      <c r="ND2" t="inlineStr"/>
+      <c r="NE2" t="inlineStr"/>
+      <c r="NF2" t="inlineStr"/>
+      <c r="NG2" t="inlineStr"/>
+      <c r="NH2" t="inlineStr"/>
+      <c r="NI2" t="inlineStr"/>
+      <c r="NJ2" t="inlineStr"/>
+      <c r="NK2" t="inlineStr"/>
+      <c r="NL2" t="inlineStr"/>
+      <c r="NM2" t="inlineStr"/>
+      <c r="NN2" t="inlineStr"/>
+      <c r="NO2" t="inlineStr"/>
+      <c r="NP2" t="inlineStr"/>
+      <c r="NQ2" t="inlineStr"/>
+      <c r="NR2" t="inlineStr"/>
+      <c r="NS2" t="inlineStr"/>
+      <c r="NT2" t="inlineStr"/>
+      <c r="NU2" t="inlineStr"/>
+      <c r="NV2" t="inlineStr"/>
+      <c r="NW2" t="inlineStr"/>
+      <c r="NX2" t="inlineStr"/>
+      <c r="NY2" t="inlineStr"/>
+      <c r="NZ2" t="inlineStr"/>
+      <c r="OA2" t="inlineStr"/>
+      <c r="OB2" t="inlineStr"/>
+      <c r="OC2" t="inlineStr"/>
+      <c r="OD2" t="inlineStr"/>
+      <c r="OE2" t="inlineStr"/>
+      <c r="OF2" t="inlineStr"/>
+      <c r="OG2" t="inlineStr"/>
+      <c r="OH2" t="inlineStr"/>
+      <c r="OI2" t="inlineStr"/>
+      <c r="OJ2" t="inlineStr"/>
+      <c r="OK2" t="inlineStr"/>
+      <c r="OL2" t="inlineStr"/>
+      <c r="OM2" t="inlineStr"/>
+      <c r="ON2" t="inlineStr"/>
+      <c r="OO2" t="inlineStr"/>
+      <c r="OP2" t="inlineStr"/>
+      <c r="OQ2" t="inlineStr"/>
+      <c r="OR2" t="inlineStr"/>
+      <c r="OS2" t="inlineStr"/>
+      <c r="OT2" t="inlineStr"/>
+      <c r="OU2" t="inlineStr"/>
+      <c r="OV2" t="inlineStr"/>
+      <c r="OW2" t="inlineStr"/>
+      <c r="OX2" t="inlineStr"/>
+      <c r="OY2" t="inlineStr"/>
+      <c r="OZ2" t="inlineStr"/>
+      <c r="PA2" t="inlineStr"/>
+      <c r="PB2" t="inlineStr"/>
+      <c r="PC2" t="inlineStr"/>
+      <c r="PD2" t="inlineStr"/>
+      <c r="PE2" t="inlineStr"/>
+      <c r="PF2" t="inlineStr"/>
+      <c r="PG2" t="inlineStr"/>
+      <c r="PH2" t="inlineStr"/>
+      <c r="PI2" t="inlineStr"/>
+      <c r="PJ2" t="inlineStr"/>
+      <c r="PK2" t="inlineStr"/>
+      <c r="PL2" t="inlineStr"/>
+      <c r="PM2" t="inlineStr"/>
+      <c r="PN2" t="inlineStr"/>
+      <c r="PO2" t="inlineStr"/>
+      <c r="PP2" t="inlineStr"/>
+      <c r="PQ2" t="inlineStr"/>
+      <c r="PR2" t="inlineStr"/>
+      <c r="PS2" t="inlineStr"/>
+      <c r="PT2" t="inlineStr"/>
+      <c r="PU2" t="inlineStr"/>
+      <c r="PV2" t="inlineStr"/>
+      <c r="PW2" t="inlineStr"/>
+      <c r="PX2" t="inlineStr"/>
+      <c r="PY2" t="inlineStr"/>
+      <c r="PZ2" t="inlineStr"/>
+      <c r="QA2" t="inlineStr"/>
+      <c r="QB2" t="inlineStr"/>
+      <c r="QC2" t="inlineStr"/>
+      <c r="QD2" t="inlineStr"/>
+      <c r="QE2" t="inlineStr"/>
+      <c r="QF2" t="inlineStr"/>
+      <c r="QG2" t="inlineStr"/>
+      <c r="QH2" t="inlineStr"/>
+      <c r="QI2" t="inlineStr"/>
+      <c r="QJ2" t="inlineStr"/>
+      <c r="QK2" t="inlineStr"/>
+      <c r="QL2" t="inlineStr"/>
+      <c r="QM2" t="inlineStr"/>
+      <c r="QN2" t="inlineStr"/>
+      <c r="QO2" t="inlineStr"/>
+      <c r="QP2" t="inlineStr"/>
+      <c r="QQ2" t="inlineStr"/>
+      <c r="QR2" t="inlineStr"/>
+      <c r="QS2" t="inlineStr"/>
+      <c r="QT2" t="inlineStr"/>
+      <c r="QU2" t="inlineStr"/>
+      <c r="QV2" t="inlineStr"/>
+      <c r="QW2" t="inlineStr"/>
+      <c r="QX2" t="inlineStr"/>
+      <c r="QY2" t="inlineStr"/>
+      <c r="QZ2" t="inlineStr"/>
+      <c r="RA2" t="inlineStr"/>
+      <c r="RB2" t="inlineStr"/>
+      <c r="RC2" t="inlineStr"/>
+      <c r="RD2" t="inlineStr"/>
+      <c r="RE2" t="inlineStr"/>
+      <c r="RF2" t="inlineStr"/>
+      <c r="RG2" t="inlineStr"/>
+      <c r="RH2" t="inlineStr"/>
+      <c r="RI2" t="inlineStr"/>
+      <c r="RJ2" t="inlineStr"/>
+      <c r="RK2" t="inlineStr"/>
+      <c r="RL2" t="inlineStr"/>
+      <c r="RM2" t="inlineStr"/>
+      <c r="RN2" t="inlineStr"/>
+      <c r="RO2" t="inlineStr"/>
+      <c r="RP2" t="inlineStr"/>
+      <c r="RQ2" t="inlineStr"/>
+      <c r="RR2" t="inlineStr"/>
+      <c r="RS2" t="inlineStr"/>
+      <c r="RT2" t="inlineStr"/>
+      <c r="RU2" t="inlineStr"/>
+      <c r="RV2" t="inlineStr"/>
+      <c r="RW2" t="inlineStr"/>
+      <c r="RX2" t="inlineStr"/>
+      <c r="RY2" t="inlineStr"/>
+      <c r="RZ2" t="inlineStr"/>
+      <c r="SA2" t="inlineStr"/>
+      <c r="SB2" t="inlineStr"/>
+      <c r="SC2" t="inlineStr"/>
+      <c r="SD2" t="inlineStr"/>
+      <c r="SE2" t="inlineStr"/>
+      <c r="SF2" t="inlineStr"/>
+      <c r="SG2" t="inlineStr"/>
+      <c r="SH2" t="inlineStr"/>
+      <c r="SI2" t="inlineStr"/>
+      <c r="SJ2" t="inlineStr"/>
+      <c r="SK2" t="inlineStr"/>
+      <c r="SL2" t="inlineStr"/>
+      <c r="SM2" t="inlineStr"/>
+      <c r="SN2" t="inlineStr"/>
+      <c r="SO2" t="inlineStr"/>
+      <c r="SP2" t="inlineStr"/>
+      <c r="SQ2" t="inlineStr"/>
+      <c r="SR2" t="inlineStr"/>
+      <c r="SS2" t="inlineStr"/>
+      <c r="ST2" t="inlineStr"/>
+      <c r="SU2" t="inlineStr"/>
+      <c r="SV2" t="inlineStr"/>
+      <c r="SW2" t="inlineStr"/>
+      <c r="SX2" t="inlineStr"/>
+      <c r="SY2" t="inlineStr"/>
+      <c r="SZ2" t="inlineStr"/>
+      <c r="TA2" t="inlineStr"/>
+      <c r="TB2" t="inlineStr"/>
+      <c r="TC2" t="inlineStr"/>
+      <c r="TD2" t="inlineStr"/>
+      <c r="TE2" t="inlineStr"/>
+      <c r="TF2" t="inlineStr"/>
+      <c r="TG2" t="inlineStr"/>
+      <c r="TH2" t="inlineStr"/>
+      <c r="TI2" t="inlineStr"/>
+      <c r="TJ2" t="inlineStr"/>
+      <c r="TK2" t="inlineStr"/>
+      <c r="TL2" t="inlineStr"/>
+      <c r="TM2" t="inlineStr"/>
+      <c r="TN2" t="inlineStr"/>
+      <c r="TO2" t="inlineStr"/>
+      <c r="TP2" t="inlineStr"/>
+      <c r="TQ2" t="inlineStr"/>
+      <c r="TR2" t="inlineStr"/>
+      <c r="TS2" t="inlineStr"/>
+      <c r="TT2" t="inlineStr"/>
+      <c r="TU2" t="inlineStr"/>
+      <c r="TV2" t="inlineStr"/>
+      <c r="TW2" t="inlineStr"/>
+      <c r="TX2" t="inlineStr"/>
+      <c r="TY2" t="inlineStr"/>
+      <c r="TZ2" t="inlineStr"/>
+      <c r="UA2" t="inlineStr"/>
+      <c r="UB2" t="inlineStr"/>
+      <c r="UC2" t="inlineStr"/>
+      <c r="UD2" t="inlineStr"/>
+      <c r="UE2" t="inlineStr"/>
+      <c r="UF2" t="inlineStr"/>
+      <c r="UG2" t="inlineStr"/>
+      <c r="UH2" t="inlineStr"/>
+      <c r="UI2" t="inlineStr"/>
+      <c r="UJ2" t="inlineStr"/>
+      <c r="UK2" t="inlineStr"/>
+      <c r="UL2" t="inlineStr"/>
+      <c r="UM2" t="inlineStr"/>
+      <c r="UN2" t="inlineStr"/>
+      <c r="UO2" t="inlineStr"/>
+      <c r="UP2" t="inlineStr"/>
+      <c r="UQ2" t="inlineStr"/>
+      <c r="UR2" t="inlineStr"/>
+      <c r="US2" t="inlineStr"/>
+      <c r="UT2" t="inlineStr"/>
+      <c r="UU2" t="inlineStr"/>
+      <c r="UV2" t="inlineStr"/>
+      <c r="UW2" t="inlineStr"/>
+      <c r="UX2" t="inlineStr"/>
+      <c r="UY2" t="inlineStr"/>
+      <c r="UZ2" t="inlineStr"/>
+      <c r="VA2" t="inlineStr"/>
+      <c r="VB2" t="inlineStr"/>
+      <c r="VC2" t="inlineStr"/>
+      <c r="VD2" t="inlineStr"/>
+      <c r="VE2" t="inlineStr"/>
+      <c r="VF2" t="inlineStr"/>
+      <c r="VG2" t="inlineStr"/>
+      <c r="VH2" t="inlineStr"/>
+      <c r="VI2" t="inlineStr"/>
+      <c r="VJ2" t="inlineStr"/>
+      <c r="VK2" t="inlineStr"/>
+      <c r="VL2" t="inlineStr"/>
+      <c r="VM2" t="inlineStr"/>
+      <c r="VN2" t="inlineStr"/>
+      <c r="VO2" t="inlineStr"/>
+      <c r="VP2" t="inlineStr"/>
+      <c r="VQ2" t="inlineStr"/>
+      <c r="VR2" t="inlineStr"/>
+      <c r="VS2" t="inlineStr"/>
+      <c r="VT2" t="inlineStr"/>
+      <c r="VU2" t="inlineStr"/>
+      <c r="VV2" t="inlineStr"/>
+      <c r="VW2" t="inlineStr"/>
+      <c r="VX2" t="inlineStr"/>
+      <c r="VY2" t="inlineStr"/>
+      <c r="VZ2" t="inlineStr"/>
+      <c r="WA2" t="inlineStr"/>
+      <c r="WB2" t="inlineStr"/>
+      <c r="WC2" t="inlineStr"/>
+      <c r="WD2" t="inlineStr"/>
+      <c r="WE2" t="inlineStr"/>
+      <c r="WF2" t="inlineStr"/>
+      <c r="WG2" t="inlineStr"/>
+      <c r="WH2" t="inlineStr"/>
+      <c r="WI2" t="inlineStr"/>
+      <c r="WJ2" t="inlineStr"/>
+      <c r="WK2" t="inlineStr"/>
+      <c r="WL2" t="inlineStr"/>
+      <c r="WM2" t="inlineStr"/>
+      <c r="WN2" t="inlineStr"/>
+      <c r="WO2" t="inlineStr"/>
+      <c r="WP2" t="inlineStr"/>
+      <c r="WQ2" t="inlineStr"/>
+      <c r="WR2" t="inlineStr"/>
+      <c r="WS2" t="inlineStr"/>
+      <c r="WT2" t="inlineStr"/>
+      <c r="WU2" t="inlineStr"/>
+      <c r="WV2" t="inlineStr"/>
+      <c r="WW2" t="inlineStr"/>
+      <c r="WX2" t="inlineStr"/>
+      <c r="WY2" t="inlineStr"/>
+      <c r="WZ2" t="inlineStr"/>
+      <c r="XA2" t="inlineStr"/>
+      <c r="XB2" t="inlineStr"/>
+      <c r="XC2" t="inlineStr"/>
+      <c r="XD2" t="inlineStr"/>
+      <c r="XE2" t="inlineStr"/>
+      <c r="XF2" t="inlineStr"/>
+      <c r="XG2" t="inlineStr"/>
+      <c r="XH2" t="inlineStr"/>
+      <c r="XI2" t="inlineStr"/>
+      <c r="XJ2" t="inlineStr"/>
+      <c r="XK2" t="inlineStr"/>
+      <c r="XL2" t="inlineStr"/>
+      <c r="XM2" t="inlineStr"/>
+      <c r="XN2" t="inlineStr"/>
+      <c r="XO2" t="inlineStr"/>
+      <c r="XP2" t="inlineStr"/>
+      <c r="XQ2" t="inlineStr"/>
+      <c r="XR2" t="inlineStr"/>
+      <c r="XS2" t="inlineStr"/>
+      <c r="XT2" t="inlineStr"/>
+      <c r="XU2" t="inlineStr"/>
+      <c r="XV2" t="inlineStr"/>
+      <c r="XW2" t="inlineStr"/>
+      <c r="XX2" t="inlineStr"/>
+      <c r="XY2" t="inlineStr"/>
+      <c r="XZ2" t="inlineStr"/>
+      <c r="YA2" t="inlineStr"/>
+      <c r="YB2" t="inlineStr"/>
+      <c r="YC2" t="inlineStr"/>
+      <c r="YD2" t="inlineStr"/>
+      <c r="YE2" t="inlineStr"/>
+      <c r="YF2" t="inlineStr"/>
+      <c r="YG2" t="inlineStr"/>
+      <c r="YH2" t="inlineStr"/>
+      <c r="YI2" t="inlineStr"/>
+      <c r="YJ2" t="inlineStr"/>
+      <c r="YK2" t="inlineStr"/>
+      <c r="YL2" t="inlineStr"/>
+      <c r="YM2" t="inlineStr"/>
+      <c r="YN2" t="inlineStr"/>
+      <c r="YO2" t="inlineStr"/>
+      <c r="YP2" t="inlineStr"/>
+      <c r="YQ2" t="inlineStr"/>
+      <c r="YR2" t="inlineStr"/>
+      <c r="YS2" t="inlineStr"/>
+      <c r="YT2" t="inlineStr"/>
+      <c r="YU2" t="inlineStr"/>
+      <c r="YV2" t="inlineStr"/>
+      <c r="YW2" t="inlineStr"/>
+      <c r="YX2" t="inlineStr"/>
+      <c r="YY2" t="inlineStr"/>
+      <c r="YZ2" t="inlineStr"/>
+      <c r="ZA2" t="inlineStr"/>
+      <c r="ZB2" t="inlineStr"/>
+      <c r="ZC2" t="inlineStr"/>
+      <c r="ZD2" t="inlineStr"/>
+      <c r="ZE2" t="inlineStr"/>
+      <c r="ZF2" t="inlineStr"/>
+      <c r="ZG2" t="inlineStr"/>
+      <c r="ZH2" t="inlineStr"/>
+      <c r="ZI2" t="inlineStr"/>
+      <c r="ZJ2" t="inlineStr"/>
+      <c r="ZK2" t="inlineStr"/>
+      <c r="ZL2" t="inlineStr"/>
+      <c r="ZM2" t="inlineStr"/>
+      <c r="ZN2" t="inlineStr"/>
+      <c r="ZO2" t="inlineStr"/>
+      <c r="ZP2" t="inlineStr"/>
+      <c r="ZQ2" t="inlineStr"/>
+      <c r="ZR2" t="inlineStr"/>
+      <c r="ZS2" t="inlineStr"/>
+      <c r="ZT2" t="inlineStr"/>
+      <c r="ZU2" t="inlineStr"/>
+      <c r="ZV2" t="inlineStr"/>
+      <c r="ZW2" t="inlineStr"/>
+      <c r="ZX2" t="inlineStr"/>
+      <c r="ZY2" t="inlineStr"/>
+      <c r="ZZ2" t="inlineStr"/>
+      <c r="AAA2" t="inlineStr"/>
+      <c r="AAB2" t="inlineStr"/>
+      <c r="AAC2" t="inlineStr"/>
+      <c r="AAD2" t="inlineStr"/>
+      <c r="AAE2" t="inlineStr"/>
+      <c r="AAF2" t="inlineStr"/>
+      <c r="AAG2" t="inlineStr"/>
+      <c r="AAH2" t="inlineStr"/>
+      <c r="AAI2" t="inlineStr"/>
+      <c r="AAJ2" t="inlineStr"/>
+      <c r="AAK2" t="inlineStr"/>
+      <c r="AAL2" t="inlineStr"/>
+      <c r="AAM2" t="inlineStr"/>
+      <c r="AAN2" t="inlineStr"/>
+      <c r="AAO2" t="inlineStr"/>
+      <c r="AAP2" t="inlineStr"/>
+      <c r="AAQ2" t="inlineStr"/>
+      <c r="AAR2" t="inlineStr"/>
+      <c r="AAS2" t="inlineStr"/>
+      <c r="AAT2" t="inlineStr"/>
+      <c r="AAU2" t="inlineStr"/>
+      <c r="AAV2" t="inlineStr"/>
+      <c r="AAW2" t="inlineStr"/>
+      <c r="AAX2" t="inlineStr"/>
+      <c r="AAY2" t="inlineStr"/>
+      <c r="AAZ2" t="inlineStr"/>
+      <c r="ABA2" t="inlineStr"/>
+      <c r="ABB2" t="inlineStr"/>
+      <c r="ABC2" t="inlineStr"/>
+      <c r="ABD2" t="inlineStr"/>
+      <c r="ABE2" t="inlineStr"/>
+      <c r="ABF2" t="inlineStr"/>
+      <c r="ABG2" t="inlineStr"/>
+      <c r="ABH2" t="inlineStr"/>
+      <c r="ABI2" t="inlineStr"/>
+      <c r="ABJ2" t="inlineStr"/>
+      <c r="ABK2" t="inlineStr"/>
+      <c r="ABL2" t="inlineStr"/>
+      <c r="ABM2" t="inlineStr"/>
+      <c r="ABN2" t="inlineStr"/>
+      <c r="ABO2" t="inlineStr"/>
+      <c r="ABP2" t="inlineStr"/>
+      <c r="ABQ2" t="inlineStr"/>
+      <c r="ABR2" t="inlineStr"/>
+      <c r="ABS2" t="inlineStr"/>
+      <c r="ABT2" t="inlineStr"/>
+      <c r="ABU2" t="inlineStr"/>
+      <c r="ABV2" t="inlineStr"/>
+      <c r="ABW2" t="inlineStr"/>
+      <c r="ABX2" t="inlineStr"/>
+      <c r="ABY2" t="inlineStr"/>
+      <c r="ABZ2" t="inlineStr"/>
+      <c r="ACA2" t="inlineStr"/>
+      <c r="ACB2" t="inlineStr"/>
+      <c r="ACC2" t="inlineStr"/>
+      <c r="ACD2" t="inlineStr"/>
+      <c r="ACE2" t="inlineStr"/>
+      <c r="ACF2" t="inlineStr"/>
+      <c r="ACG2" t="inlineStr"/>
+      <c r="ACH2" t="inlineStr"/>
+      <c r="ACI2" t="inlineStr"/>
+      <c r="ACJ2" t="inlineStr"/>
+      <c r="ACK2" t="inlineStr"/>
+      <c r="ACL2" t="inlineStr"/>
+      <c r="ACM2" t="inlineStr"/>
+      <c r="ACN2" t="inlineStr"/>
+      <c r="ACO2" t="inlineStr"/>
+      <c r="ACP2" t="inlineStr"/>
+      <c r="ACQ2" t="inlineStr"/>
+      <c r="ACR2" t="inlineStr"/>
+      <c r="ACS2" t="inlineStr"/>
+      <c r="ACT2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-53.29299163818359</v>
+        <v>17444034800</v>
       </c>
       <c r="B3" t="n">
-        <v>-51.75508117675781</v>
+        <v>17444034800</v>
       </c>
       <c r="C3" t="n">
-        <v>-51.84709548950195</v>
+        <v>20705729600</v>
       </c>
       <c r="D3" t="n">
-        <v>-42.62676620483398</v>
+        <v>20705729600</v>
       </c>
       <c r="E3" t="n">
-        <v>-37.48455429077148</v>
+        <v>21082267300</v>
       </c>
       <c r="F3" t="n">
-        <v>-26.19955825805664</v>
+        <v>21082267300</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.591495513916016</v>
+        <v>21153403900</v>
       </c>
       <c r="H3" t="n">
-        <v>4.551559448242188</v>
+        <v>21153403900</v>
       </c>
       <c r="I3" t="n">
-        <v>15.10227966308594</v>
+        <v>21227132800</v>
       </c>
       <c r="J3" t="n">
-        <v>25.40760803222656</v>
+        <v>21227132800</v>
       </c>
       <c r="K3" t="n">
-        <v>28.71391296386719</v>
+        <v>21303748800</v>
       </c>
       <c r="L3" t="n">
-        <v>33.21120452880859</v>
+        <v>21303748800</v>
       </c>
       <c r="M3" t="n">
-        <v>38.63629913330078</v>
+        <v>21379514900</v>
       </c>
       <c r="N3" t="n">
-        <v>39.40699005126953</v>
+        <v>21379514900</v>
       </c>
       <c r="O3" t="n">
-        <v>42.53459930419922</v>
+        <v>21452956100</v>
       </c>
       <c r="P3" t="n">
-        <v>58.30790710449219</v>
+        <v>21452956100</v>
       </c>
       <c r="Q3" t="n">
-        <v>67.24549865722656</v>
+        <v>21529557000</v>
       </c>
       <c r="R3" t="n">
-        <v>71.72853088378906</v>
+        <v>21529557000</v>
       </c>
       <c r="S3" t="n">
-        <v>68.71154022216797</v>
+        <v>21602262000</v>
       </c>
       <c r="T3" t="n">
-        <v>74.24280548095703</v>
+        <v>21602262000</v>
       </c>
       <c r="U3" t="n">
-        <v>75.78668975830078</v>
+        <v>21676291400</v>
       </c>
       <c r="V3" t="n">
-        <v>76.85016632080078</v>
+        <v>21676291400</v>
       </c>
       <c r="W3" t="n">
-        <v>73.26927947998047</v>
+        <v>21719130100</v>
       </c>
       <c r="X3" t="n">
-        <v>79.412841796875</v>
+        <v>21719130100</v>
       </c>
       <c r="Y3" t="n">
-        <v>78.38749694824219</v>
+        <v>21771644500</v>
       </c>
       <c r="Z3" t="n">
-        <v>74.38205718994141</v>
+        <v>21771644500</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.62441253662109</v>
+        <v>21825170100</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.17105102539062</v>
+        <v>21825170100</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.97641754150391</v>
+        <v>21872316900</v>
       </c>
       <c r="AD3" t="n">
-        <v>89.08579254150391</v>
+        <v>21872316900</v>
       </c>
       <c r="AE3" t="n">
-        <v>85.92000579833984</v>
+        <v>21926835000</v>
       </c>
       <c r="AF3" t="n">
-        <v>88.35018920898438</v>
+        <v>21926835000</v>
       </c>
       <c r="AG3" t="n">
-        <v>91.12448883056641</v>
+        <v>22002301600</v>
       </c>
       <c r="AH3" t="n">
-        <v>93.19901275634766</v>
+        <v>22002301600</v>
       </c>
       <c r="AI3" t="n">
-        <v>96.95571136474609</v>
+        <v>22046219600</v>
       </c>
       <c r="AJ3" t="n">
-        <v>99.13173675537109</v>
+        <v>22046219600</v>
       </c>
       <c r="AK3" t="n">
-        <v>97.06300354003906</v>
+        <v>22098658700</v>
       </c>
       <c r="AL3" t="n">
-        <v>104.3509826660156</v>
+        <v>22098658700</v>
       </c>
       <c r="AM3" t="n">
-        <v>105.8948211669922</v>
+        <v>22154077700</v>
       </c>
       <c r="AN3" t="n">
-        <v>102.5574493408203</v>
+        <v>22154077700</v>
       </c>
       <c r="AO3" t="n">
-        <v>103.6993408203125</v>
+        <v>22226913400</v>
       </c>
       <c r="AP3" t="n">
-        <v>103.8735580444336</v>
+        <v>22226913400</v>
       </c>
       <c r="AQ3" t="n">
-        <v>109.4334411621094</v>
+        <v>22278095800</v>
       </c>
       <c r="AR3" t="n">
-        <v>115.3810653686523</v>
+        <v>22278095800</v>
       </c>
       <c r="AS3" t="n">
-        <v>115.2915267944336</v>
+        <v>22352173800</v>
       </c>
       <c r="AT3" t="n">
-        <v>114.6912689208984</v>
+        <v>22352173800</v>
       </c>
       <c r="AU3" t="n">
-        <v>104.3574600219727</v>
+        <v>22427562400</v>
       </c>
       <c r="AV3" t="n">
-        <v>106.7090148925781</v>
+        <v>22427562400</v>
       </c>
       <c r="AW3" t="n">
-        <v>96.04219055175781</v>
+        <v>22472007900</v>
       </c>
       <c r="AX3" t="n">
-        <v>95.97322082519531</v>
+        <v>22472007900</v>
       </c>
       <c r="AY3" t="n">
-        <v>100.6463623046875</v>
+        <v>22525082200</v>
       </c>
       <c r="AZ3" t="n">
-        <v>102.0240936279297</v>
+        <v>22525082200</v>
       </c>
       <c r="BA3" t="n">
-        <v>103.0139846801758</v>
+        <v>22573568900</v>
       </c>
       <c r="BB3" t="n">
-        <v>110.8669967651367</v>
+        <v>22573568900</v>
       </c>
       <c r="BC3" t="n">
-        <v>114.3431015014648</v>
+        <v>22626362600</v>
       </c>
       <c r="BD3" t="n">
-        <v>97.855712890625</v>
+        <v>22626362600</v>
       </c>
       <c r="BE3" t="n">
-        <v>94.19729614257812</v>
+        <v>22676767700</v>
       </c>
       <c r="BF3" t="n">
-        <v>97.29263305664062</v>
+        <v>22676767700</v>
       </c>
       <c r="BG3" t="n">
-        <v>96.84938049316406</v>
+        <v>22752104500</v>
       </c>
       <c r="BH3" t="n">
-        <v>99.48627471923828</v>
+        <v>22752104500</v>
       </c>
       <c r="BI3" t="n">
-        <v>100.7292404174805</v>
+        <v>22798800100</v>
       </c>
       <c r="BJ3" t="n">
-        <v>100.5512771606445</v>
+        <v>22798800100</v>
       </c>
       <c r="BK3" t="n">
-        <v>101.3228530883789</v>
+        <v>22851366600</v>
       </c>
       <c r="BL3" t="n">
-        <v>99.24310302734375</v>
+        <v>22851366600</v>
       </c>
       <c r="BM3" t="n">
-        <v>98.81375885009766</v>
+        <v>22894212900</v>
       </c>
       <c r="BN3" t="n">
-        <v>111.1832275390625</v>
+        <v>22894212900</v>
       </c>
       <c r="BO3" t="n">
-        <v>100.9882049560547</v>
+        <v>22951675500</v>
       </c>
       <c r="BP3" t="n">
-        <v>106.6162490844727</v>
+        <v>22951675500</v>
       </c>
       <c r="BQ3" t="n">
-        <v>109.1145095825195</v>
+        <v>23027453500</v>
       </c>
       <c r="BR3" t="n">
-        <v>109.2094039916992</v>
+        <v>23027453500</v>
       </c>
       <c r="BS3" t="n">
-        <v>109.4108734130859</v>
+        <v>23102587800</v>
       </c>
       <c r="BT3" t="n">
-        <v>100.5443572998047</v>
+        <v>23102587800</v>
       </c>
       <c r="BU3" t="n">
-        <v>95.77976226806641</v>
+        <v>23175069500</v>
       </c>
       <c r="BV3" t="n">
-        <v>110.7888641357422</v>
+        <v>23175069500</v>
       </c>
       <c r="BW3" t="n">
-        <v>109.0289840698242</v>
+        <v>23224792900</v>
       </c>
       <c r="BX3" t="n">
-        <v>115.4315032958984</v>
+        <v>23224792900</v>
       </c>
       <c r="BY3" t="n">
-        <v>114.0618438720703</v>
+        <v>23298301700</v>
       </c>
       <c r="BZ3" t="n">
-        <v>110.5512084960938</v>
+        <v>23298301700</v>
       </c>
       <c r="CA3" t="n">
-        <v>109.4936294555664</v>
+        <v>23348382100</v>
       </c>
       <c r="CB3" t="n">
-        <v>89.43601226806641</v>
+        <v>23348382100</v>
       </c>
       <c r="CC3" t="n">
-        <v>96.74939727783203</v>
+        <v>23402891800</v>
       </c>
       <c r="CD3" t="n">
-        <v>95.82282257080078</v>
+        <v>23402891800</v>
       </c>
       <c r="CE3" t="n">
-        <v>100.0420227050781</v>
+        <v>23476823300</v>
       </c>
       <c r="CF3" t="n">
-        <v>102.1704483032227</v>
+        <v>23476823300</v>
       </c>
       <c r="CG3" t="n">
-        <v>100.9825973510742</v>
+        <v>23521824300</v>
       </c>
       <c r="CH3" t="n">
-        <v>100.8462753295898</v>
+        <v>23521824300</v>
       </c>
       <c r="CI3" t="n">
-        <v>98.51852416992188</v>
+        <v>23578244700</v>
       </c>
       <c r="CJ3" t="n">
-        <v>104.2329864501953</v>
+        <v>23578244700</v>
       </c>
       <c r="CK3" t="n">
-        <v>94.75430297851562</v>
+        <v>23654910300</v>
       </c>
       <c r="CL3" t="n">
-        <v>94.56095123291016</v>
+        <v>23654910300</v>
       </c>
       <c r="CM3" t="n">
-        <v>93.35908508300781</v>
+        <v>23692479700</v>
       </c>
       <c r="CN3" t="n">
-        <v>93.62191772460938</v>
+        <v>23692479700</v>
       </c>
       <c r="CO3" t="n">
-        <v>93.82225036621094</v>
+        <v>23751754900</v>
       </c>
       <c r="CP3" t="n">
-        <v>93.03830718994141</v>
+        <v>23751754900</v>
       </c>
       <c r="CQ3" t="n">
-        <v>96.20988464355469</v>
+        <v>23792598500</v>
       </c>
       <c r="CR3" t="n">
-        <v>94.43317413330078</v>
+        <v>23792598500</v>
       </c>
       <c r="CS3" t="n">
-        <v>94.47177886962891</v>
+        <v>23848706100</v>
       </c>
       <c r="CT3" t="n">
-        <v>97.31317138671875</v>
+        <v>23848706100</v>
       </c>
       <c r="CU3" t="n">
-        <v>101.8596267700195</v>
+        <v>23902463500</v>
       </c>
       <c r="CV3" t="n">
-        <v>111.8402481079102</v>
+        <v>23902463500</v>
       </c>
       <c r="CW3" t="n">
-        <v>109.6595611572266</v>
+        <v>23977116200</v>
       </c>
       <c r="CX3" t="n">
-        <v>109.3650360107422</v>
+        <v>23977116200</v>
       </c>
       <c r="CY3" t="n">
-        <v>110.1099243164062</v>
+        <v>24053143700</v>
       </c>
       <c r="CZ3" t="n">
-        <v>111.2560272216797</v>
+        <v>24053143700</v>
       </c>
       <c r="DA3" t="n">
-        <v>98.15785980224609</v>
+        <v>24128872300</v>
       </c>
       <c r="DB3" t="n">
-        <v>97.84746551513672</v>
+        <v>24128872300</v>
       </c>
       <c r="DC3" t="n">
-        <v>97.60747528076172</v>
+        <v>24202380400</v>
       </c>
       <c r="DD3" t="n">
-        <v>113.0364837646484</v>
+        <v>24202380400</v>
       </c>
       <c r="DE3" t="n">
-        <v>109.5396270751953</v>
+        <v>24277770200</v>
       </c>
       <c r="DF3" t="n">
-        <v>100.4939498901367</v>
-      </c>
-      <c r="DG3" t="inlineStr"/>
-      <c r="DH3" t="inlineStr"/>
-      <c r="DI3" t="inlineStr"/>
-      <c r="DJ3" t="inlineStr"/>
-      <c r="DK3" t="inlineStr"/>
-      <c r="DL3" t="inlineStr"/>
-      <c r="DM3" t="inlineStr"/>
-      <c r="DN3" t="inlineStr"/>
-      <c r="DO3" t="inlineStr"/>
-      <c r="DP3" t="inlineStr"/>
-      <c r="DQ3" t="inlineStr"/>
-      <c r="DR3" t="inlineStr"/>
-      <c r="DS3" t="inlineStr"/>
-      <c r="DT3" t="inlineStr"/>
-      <c r="DU3" t="inlineStr"/>
-      <c r="DV3" t="inlineStr"/>
-      <c r="DW3" t="inlineStr"/>
-      <c r="DX3" t="inlineStr"/>
-      <c r="DY3" t="inlineStr"/>
-      <c r="DZ3" t="inlineStr"/>
-      <c r="EA3" t="inlineStr"/>
-      <c r="EB3" t="inlineStr"/>
-      <c r="EC3" t="inlineStr"/>
-      <c r="ED3" t="inlineStr"/>
-      <c r="EE3" t="inlineStr"/>
-      <c r="EF3" t="inlineStr"/>
-      <c r="EG3" t="inlineStr"/>
-      <c r="EH3" t="inlineStr"/>
-      <c r="EI3" t="inlineStr"/>
-      <c r="EJ3" t="inlineStr"/>
-      <c r="EK3" t="inlineStr"/>
-      <c r="EL3" t="inlineStr"/>
-      <c r="EM3" t="inlineStr"/>
-      <c r="EN3" t="inlineStr"/>
-      <c r="EO3" t="inlineStr"/>
-      <c r="EP3" t="inlineStr"/>
-      <c r="EQ3" t="inlineStr"/>
-      <c r="ER3" t="inlineStr"/>
-      <c r="ES3" t="inlineStr"/>
-      <c r="ET3" t="inlineStr"/>
-      <c r="EU3" t="inlineStr"/>
-      <c r="EV3" t="inlineStr"/>
-      <c r="EW3" t="inlineStr"/>
-      <c r="EX3" t="inlineStr"/>
-      <c r="EY3" t="inlineStr"/>
-      <c r="EZ3" t="inlineStr"/>
-      <c r="FA3" t="inlineStr"/>
-      <c r="FB3" t="inlineStr"/>
-      <c r="FC3" t="inlineStr"/>
-      <c r="FD3" t="inlineStr"/>
-      <c r="FE3" t="inlineStr"/>
-      <c r="FF3" t="inlineStr"/>
-      <c r="FG3" t="inlineStr"/>
-      <c r="FH3" t="inlineStr"/>
-      <c r="FI3" t="inlineStr"/>
-      <c r="FJ3" t="inlineStr"/>
-      <c r="FK3" t="inlineStr"/>
-      <c r="FL3" t="inlineStr"/>
-      <c r="FM3" t="inlineStr"/>
-      <c r="FN3" t="inlineStr"/>
-      <c r="FO3" t="inlineStr"/>
-      <c r="FP3" t="inlineStr"/>
-      <c r="FQ3" t="inlineStr"/>
-      <c r="FR3" t="inlineStr"/>
-      <c r="FS3" t="inlineStr"/>
-      <c r="FT3" t="inlineStr"/>
-      <c r="FU3" t="inlineStr"/>
-      <c r="FV3" t="inlineStr"/>
-      <c r="FW3" t="inlineStr"/>
-      <c r="FX3" t="inlineStr"/>
-      <c r="FY3" t="inlineStr"/>
-      <c r="FZ3" t="inlineStr"/>
-      <c r="GA3" t="inlineStr"/>
-      <c r="GB3" t="inlineStr"/>
-      <c r="GC3" t="inlineStr"/>
-      <c r="GD3" t="inlineStr"/>
-      <c r="GE3" t="inlineStr"/>
-      <c r="GF3" t="inlineStr"/>
-      <c r="GG3" t="inlineStr"/>
-      <c r="GH3" t="inlineStr"/>
-      <c r="GI3" t="inlineStr"/>
-      <c r="GJ3" t="inlineStr"/>
-      <c r="GK3" t="inlineStr"/>
-      <c r="GL3" t="inlineStr"/>
-      <c r="GM3" t="inlineStr"/>
-      <c r="GN3" t="inlineStr"/>
-      <c r="GO3" t="inlineStr"/>
-      <c r="GP3" t="inlineStr"/>
-      <c r="GQ3" t="inlineStr"/>
-      <c r="GR3" t="inlineStr"/>
-      <c r="GS3" t="inlineStr"/>
-      <c r="GT3" t="inlineStr"/>
-      <c r="GU3" t="inlineStr"/>
-      <c r="GV3" t="inlineStr"/>
-      <c r="GW3" t="inlineStr"/>
-      <c r="GX3" t="inlineStr"/>
-      <c r="GY3" t="inlineStr"/>
-      <c r="GZ3" t="inlineStr"/>
-      <c r="HA3" t="inlineStr"/>
-      <c r="HB3" t="inlineStr"/>
-      <c r="HC3" t="inlineStr"/>
-      <c r="HD3" t="inlineStr"/>
-      <c r="HE3" t="inlineStr"/>
-      <c r="HF3" t="inlineStr"/>
-      <c r="HG3" t="inlineStr"/>
-      <c r="HH3" t="inlineStr"/>
-      <c r="HI3" t="inlineStr"/>
-      <c r="HJ3" t="inlineStr"/>
-      <c r="HK3" t="inlineStr"/>
-      <c r="HL3" t="inlineStr"/>
-      <c r="HM3" t="inlineStr"/>
-      <c r="HN3" t="inlineStr"/>
-      <c r="HO3" t="inlineStr"/>
-      <c r="HP3" t="inlineStr"/>
-      <c r="HQ3" t="inlineStr"/>
-      <c r="HR3" t="inlineStr"/>
-      <c r="HS3" t="inlineStr"/>
-      <c r="HT3" t="inlineStr"/>
-      <c r="HU3" t="inlineStr"/>
-      <c r="HV3" t="inlineStr"/>
-      <c r="HW3" t="inlineStr"/>
-      <c r="HX3" t="inlineStr"/>
-      <c r="HY3" t="inlineStr"/>
-      <c r="HZ3" t="inlineStr"/>
-      <c r="IA3" t="inlineStr"/>
-      <c r="IB3" t="inlineStr"/>
-      <c r="IC3" t="inlineStr"/>
-      <c r="ID3" t="inlineStr"/>
-      <c r="IE3" t="inlineStr"/>
-      <c r="IF3" t="inlineStr"/>
-      <c r="IG3" t="inlineStr"/>
-      <c r="IH3" t="inlineStr"/>
-      <c r="II3" t="inlineStr"/>
-      <c r="IJ3" t="inlineStr"/>
-      <c r="IK3" t="inlineStr"/>
-      <c r="IL3" t="inlineStr"/>
-      <c r="IM3" t="inlineStr"/>
-      <c r="IN3" t="inlineStr"/>
+        <v>24277770200</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>24354423500</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>24354423500</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>24428455500</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>24428455500</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>24502066000</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>24502066000</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>24580704500</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>24580704500</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>24652240400</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>24652240400</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>24727845500</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>24727845500</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>24802488100</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>24802488100</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>24879245500</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>24879245500</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>24950879800</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>24950879800</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>24997202100</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>24997202100</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>25042275600</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>25042275600</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>25098481200</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>25098481200</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>25151295200</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>25151295200</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>25229944900</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>25229944900</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>25328585800</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>25328585800</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>25401652900</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>25401652900</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>25476350700</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>25476350700</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>25551649100</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>25551649100</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>25622762300</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>25622762300</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>25668739800</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>25668739800</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>25727144200</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>25727144200</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>25802177900</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>25802177900</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>25851335000</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>25851335000</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>25927223100</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>25927223100</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>26002675700</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>26002675700</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>26077002600</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>26077002600</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>26154073000</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>26154073000</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>26228507300</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>26228507300</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>26297259600</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>26297259600</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>26348931900</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>26348931900</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>26400239800</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>26400239800</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>26477645200</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>26477645200</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>26552845200</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>26552845200</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>26628401300</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>26628401300</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>26703093100</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>26703093100</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>26777863000</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>26777863000</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>26853229200</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>26853229200</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>26926709100</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>26926709100</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>27002808300</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>27002808300</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>27078129500</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>27078129500</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>27152434800</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>27152434800</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>27227301800</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>27227301800</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>27302617100</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>27302617100</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>27376695800</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>27376695800</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>27425542600</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>27425542600</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>27501421000</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>27501421000</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>27573970200</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>27573970200</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>27653458300</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>27653458300</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>27729608200</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>27729608200</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>27826425200</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>27826425200</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>27876276700</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>27876276700</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>27952294900</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>27952294900</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>28029773900</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>28029773900</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>28105012300</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>28105012300</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>28180622300</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>28180622300</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>28252536400</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>28252536400</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>28328601100</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>28328601100</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>28395375700</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>28395375700</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>28450658600</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>28450658600</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>28528595500</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>28528595500</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>28602511400</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>28602511400</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>28642518600</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>28642518600</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>28696269300</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>28696269300</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>28747581100</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>28747581100</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>28827149100</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>28827149100</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>28868354500</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>28868354500</v>
+      </c>
+      <c r="II3" t="n">
+        <v>28925465200</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>28925465200</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>28975505000</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>28975505000</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>29026862100</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>29026862100</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>29103690800</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>29103690800</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>29177519800</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>29177519800</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>29252967400</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>29252967400</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>29329141700</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>29329141700</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>29403781500</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>29403781500</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>29473520600</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>29473520600</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>29553659200</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>29553659200</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>29625692400</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>29625692400</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>29705921400</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>29705921400</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>29777984500</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>29777984500</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>29853316200</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>29853316200</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>29927012100</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>29927012100</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>30002617900</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>30002617900</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>30079295500</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>30079295500</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>30152851000</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>30152851000</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>30226996200</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>30226996200</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>30304913000</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>30304913000</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>30376021600</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>30376021600</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>30451873500</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>30451873500</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>30529031200</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>30529031200</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>30603972400</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>30603972400</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>30642269400</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>30642269400</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>30694300100</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>30694300100</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>30750662100</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>30750662100</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>30798376200</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>30798376200</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>30878538000</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>30878538000</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>30952699500</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>30952699500</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>31029261400</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>31029261400</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>31103049100</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>31103049100</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>31178260300</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>31178260300</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>31227531000</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>31227531000</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>31297514100</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>31297514100</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>31347130800</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>31347130800</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>31397854800</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>31397854800</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>31452325400</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>31452325400</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>31528369000</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>31528369000</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>31596846000</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>31596846000</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>31678014300</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>31678014300</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>31749474800</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>31749474800</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>31829301000</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>31829301000</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>31903379400</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>31903379400</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>31977060800</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>31977060800</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>32054310500</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>32054310500</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>32128981200</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>32128981200</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>32199058900</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>32199058900</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>32243304800</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>32243304800</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>32297681000</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>32297681000</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>32351296900</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>32351296900</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>32427438800</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>32427438800</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>32502974400</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>32502974400</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>32579646400</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>32579646400</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>32652752400</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>32652752400</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>32729217900</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>32729217900</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>32804901000</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>32804901000</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>32878774000</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>32878774000</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>32951022500</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>32951022500</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>32993868600</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>32993868600</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>33052233400</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>33052233400</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>33124568800</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>33124568800</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>33174980400</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>33174980400</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>33218926200</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>33218926200</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>33272909400</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>33272909400</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>33327567700</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>33327567700</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>33406078900</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>33406078900</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>33478206800</v>
+      </c>
+      <c r="NN3" t="n">
+        <v>33478206800</v>
+      </c>
+      <c r="NO3" t="n">
+        <v>33553465500</v>
+      </c>
+      <c r="NP3" t="n">
+        <v>33553465500</v>
+      </c>
+      <c r="NQ3" t="n">
+        <v>33627652100</v>
+      </c>
+      <c r="NR3" t="n">
+        <v>33627652100</v>
+      </c>
+      <c r="NS3" t="n">
+        <v>33668632500</v>
+      </c>
+      <c r="NT3" t="n">
+        <v>33668632500</v>
+      </c>
+      <c r="NU3" t="n">
+        <v>33723686600</v>
+      </c>
+      <c r="NV3" t="n">
+        <v>33723686600</v>
+      </c>
+      <c r="NW3" t="n">
+        <v>33776999600</v>
+      </c>
+      <c r="NX3" t="n">
+        <v>33776999600</v>
+      </c>
+      <c r="NY3" t="n">
+        <v>33852730500</v>
+      </c>
+      <c r="NZ3" t="n">
+        <v>33852730500</v>
+      </c>
+      <c r="OA3" t="n">
+        <v>33926531300</v>
+      </c>
+      <c r="OB3" t="n">
+        <v>33926531300</v>
+      </c>
+      <c r="OC3" t="n">
+        <v>34002940900</v>
+      </c>
+      <c r="OD3" t="n">
+        <v>34002940900</v>
+      </c>
+      <c r="OE3" t="n">
+        <v>34076425900</v>
+      </c>
+      <c r="OF3" t="n">
+        <v>34076425900</v>
+      </c>
+      <c r="OG3" t="n">
+        <v>34151752000</v>
+      </c>
+      <c r="OH3" t="n">
+        <v>34151752000</v>
+      </c>
+      <c r="OI3" t="n">
+        <v>34226001600</v>
+      </c>
+      <c r="OJ3" t="n">
+        <v>34226001600</v>
+      </c>
+      <c r="OK3" t="n">
+        <v>34304173600</v>
+      </c>
+      <c r="OL3" t="n">
+        <v>34304173600</v>
+      </c>
+      <c r="OM3" t="n">
+        <v>34378793200</v>
+      </c>
+      <c r="ON3" t="n">
+        <v>34378793200</v>
+      </c>
+      <c r="OO3" t="n">
+        <v>34453232700</v>
+      </c>
+      <c r="OP3" t="n">
+        <v>34453232700</v>
+      </c>
+      <c r="OQ3" t="n">
+        <v>34528912800</v>
+      </c>
+      <c r="OR3" t="n">
+        <v>34528912800</v>
+      </c>
+      <c r="OS3" t="n">
+        <v>34605506300</v>
+      </c>
+      <c r="OT3" t="n">
+        <v>34605506300</v>
+      </c>
+      <c r="OU3" t="n">
+        <v>34677090600</v>
+      </c>
+      <c r="OV3" t="n">
+        <v>34677090600</v>
+      </c>
+      <c r="OW3" t="n">
+        <v>34752439500</v>
+      </c>
+      <c r="OX3" t="n">
+        <v>34752439500</v>
+      </c>
+      <c r="OY3" t="n">
+        <v>34828336200</v>
+      </c>
+      <c r="OZ3" t="n">
+        <v>34828336200</v>
+      </c>
+      <c r="PA3" t="n">
+        <v>34903544000</v>
+      </c>
+      <c r="PB3" t="n">
+        <v>34903544000</v>
+      </c>
+      <c r="PC3" t="n">
+        <v>34976245900</v>
+      </c>
+      <c r="PD3" t="n">
+        <v>34976245900</v>
+      </c>
+      <c r="PE3" t="n">
+        <v>35054994600</v>
+      </c>
+      <c r="PF3" t="n">
+        <v>35054994600</v>
+      </c>
+      <c r="PG3" t="n">
+        <v>35131972800</v>
+      </c>
+      <c r="PH3" t="n">
+        <v>35131972800</v>
+      </c>
+      <c r="PI3" t="n">
+        <v>35203849900</v>
+      </c>
+      <c r="PJ3" t="n">
+        <v>35203849900</v>
+      </c>
+      <c r="PK3" t="n">
+        <v>35246345200</v>
+      </c>
+      <c r="PL3" t="n">
+        <v>35246345200</v>
+      </c>
+      <c r="PM3" t="n">
+        <v>35328755700</v>
+      </c>
+      <c r="PN3" t="n">
+        <v>35328755700</v>
+      </c>
+      <c r="PO3" t="n">
+        <v>35368787400</v>
+      </c>
+      <c r="PP3" t="n">
+        <v>35368787400</v>
+      </c>
+      <c r="PQ3" t="n">
+        <v>35425526900</v>
+      </c>
+      <c r="PR3" t="n">
+        <v>35425526900</v>
+      </c>
+      <c r="PS3" t="n">
+        <v>35468707600</v>
+      </c>
+      <c r="PT3" t="n">
+        <v>35468707600</v>
+      </c>
+      <c r="PU3" t="n">
+        <v>35531000900</v>
+      </c>
+      <c r="PV3" t="n">
+        <v>35531000900</v>
+      </c>
+      <c r="PW3" t="n">
+        <v>35604637500</v>
+      </c>
+      <c r="PX3" t="n">
+        <v>35604637500</v>
+      </c>
+      <c r="PY3" t="n">
+        <v>35677643400</v>
+      </c>
+      <c r="PZ3" t="n">
+        <v>35677643400</v>
+      </c>
+      <c r="QA3" t="n">
+        <v>35752932600</v>
+      </c>
+      <c r="QB3" t="n">
+        <v>35752932600</v>
+      </c>
+      <c r="QC3" t="n">
+        <v>35826901700</v>
+      </c>
+      <c r="QD3" t="n">
+        <v>35826901700</v>
+      </c>
+      <c r="QE3" t="n">
+        <v>35903084400</v>
+      </c>
+      <c r="QF3" t="n">
+        <v>35903084400</v>
+      </c>
+      <c r="QG3" t="n">
+        <v>35978219300</v>
+      </c>
+      <c r="QH3" t="n">
+        <v>35978219300</v>
+      </c>
+      <c r="QI3" t="n">
+        <v>36053678200</v>
+      </c>
+      <c r="QJ3" t="n">
+        <v>36053678200</v>
+      </c>
+      <c r="QK3" t="n">
+        <v>36126955700</v>
+      </c>
+      <c r="QL3" t="n">
+        <v>36126955700</v>
+      </c>
+      <c r="QM3" t="n">
+        <v>36200418600</v>
+      </c>
+      <c r="QN3" t="n">
+        <v>36200418600</v>
+      </c>
+      <c r="QO3" t="n">
+        <v>36278299600</v>
+      </c>
+      <c r="QP3" t="n">
+        <v>36278299600</v>
+      </c>
+      <c r="QQ3" t="n">
+        <v>36322581300</v>
+      </c>
+      <c r="QR3" t="n">
+        <v>36322581300</v>
+      </c>
+      <c r="QS3" t="n">
+        <v>36405330000</v>
+      </c>
+      <c r="QT3" t="n">
+        <v>36405330000</v>
+      </c>
+      <c r="QU3" t="n">
+        <v>36478728800</v>
+      </c>
+      <c r="QV3" t="n">
+        <v>36478728800</v>
+      </c>
+      <c r="QW3" t="n">
+        <v>36552415700</v>
+      </c>
+      <c r="QX3" t="n">
+        <v>36552415700</v>
+      </c>
+      <c r="QY3" t="n">
+        <v>36628980300</v>
+      </c>
+      <c r="QZ3" t="n">
+        <v>36628980300</v>
+      </c>
+      <c r="RA3" t="n">
+        <v>36705191600</v>
+      </c>
+      <c r="RB3" t="n">
+        <v>36777107000</v>
+      </c>
+      <c r="RC3" t="n">
+        <v>36825215700</v>
+      </c>
+      <c r="RD3" t="n">
+        <v>36873522700</v>
+      </c>
+      <c r="RE3" t="n">
+        <v>36873522700</v>
+      </c>
+      <c r="RF3" t="n">
+        <v>36928985200</v>
+      </c>
+      <c r="RG3" t="n">
+        <v>36928985200</v>
+      </c>
+      <c r="RH3" t="n">
+        <v>37003872200</v>
+      </c>
+      <c r="RI3" t="n">
+        <v>37003872200</v>
+      </c>
+      <c r="RJ3" t="n">
+        <v>37044187900</v>
+      </c>
+      <c r="RK3" t="n">
+        <v>37044187900</v>
+      </c>
+      <c r="RL3" t="n">
+        <v>37102977300</v>
+      </c>
+      <c r="RM3" t="n">
+        <v>37102977300</v>
+      </c>
+      <c r="RN3" t="n">
+        <v>37177393100</v>
+      </c>
+      <c r="RO3" t="n">
+        <v>37222783300</v>
+      </c>
+      <c r="RP3" t="n">
+        <v>37222783300</v>
+      </c>
+      <c r="RQ3" t="n">
+        <v>37276711000</v>
+      </c>
+      <c r="RR3" t="n">
+        <v>37354099500</v>
+      </c>
+      <c r="RS3" t="n">
+        <v>37354099500</v>
+      </c>
+      <c r="RT3" t="n">
+        <v>37429009600</v>
+      </c>
+      <c r="RU3" t="n">
+        <v>37429009600</v>
+      </c>
+      <c r="RV3" t="n">
+        <v>37505519900</v>
+      </c>
+      <c r="RW3" t="n">
+        <v>37505519900</v>
+      </c>
+      <c r="RX3" t="n">
+        <v>37578940400</v>
+      </c>
+      <c r="RY3" t="n">
+        <v>37578940400</v>
+      </c>
+      <c r="RZ3" t="n">
+        <v>37655390500</v>
+      </c>
+      <c r="SA3" t="n">
+        <v>37655390500</v>
+      </c>
+      <c r="SB3" t="n">
+        <v>37729721900</v>
+      </c>
+      <c r="SC3" t="n">
+        <v>37729721900</v>
+      </c>
+      <c r="SD3" t="n">
+        <v>37801516600</v>
+      </c>
+      <c r="SE3" t="n">
+        <v>37801516600</v>
+      </c>
+      <c r="SF3" t="n">
+        <v>37848644300</v>
+      </c>
+      <c r="SG3" t="n">
+        <v>37900554900</v>
+      </c>
+      <c r="SH3" t="n">
+        <v>37900554900</v>
+      </c>
+      <c r="SI3" t="n">
+        <v>37952332100</v>
+      </c>
+      <c r="SJ3" t="n">
+        <v>37952332100</v>
+      </c>
+      <c r="SK3" t="n">
+        <v>38030747600</v>
+      </c>
+      <c r="SL3" t="n">
+        <v>38068631300</v>
+      </c>
+      <c r="SM3" t="n">
+        <v>38068631300</v>
+      </c>
+      <c r="SN3" t="n">
+        <v>38127845000</v>
+      </c>
+      <c r="SO3" t="n">
+        <v>38127845000</v>
+      </c>
+      <c r="SP3" t="n">
+        <v>38203621800</v>
+      </c>
+      <c r="SQ3" t="n">
+        <v>38249724500</v>
+      </c>
+      <c r="SR3" t="n">
+        <v>38249724500</v>
+      </c>
+      <c r="SS3" t="n">
+        <v>38298319000</v>
+      </c>
+      <c r="ST3" t="n">
+        <v>38298319000</v>
+      </c>
+      <c r="SU3" t="n">
+        <v>38348115700</v>
+      </c>
+      <c r="SV3" t="n">
+        <v>38348115700</v>
+      </c>
+      <c r="SW3" t="n">
+        <v>38395338300</v>
+      </c>
+      <c r="SX3" t="n">
+        <v>38478805600</v>
+      </c>
+      <c r="SY3" t="n">
+        <v>38543614300</v>
+      </c>
+      <c r="SZ3" t="n">
+        <v>38627622500</v>
+      </c>
+      <c r="TA3" t="n">
+        <v>38627622500</v>
+      </c>
+      <c r="TB3" t="n">
+        <v>38702889500</v>
+      </c>
+      <c r="TC3" t="n">
+        <v>38702889500</v>
+      </c>
+      <c r="TD3" t="n">
+        <v>38779134000</v>
+      </c>
+      <c r="TE3" t="n">
+        <v>38779134000</v>
+      </c>
+      <c r="TF3" t="n">
+        <v>38853606400</v>
+      </c>
+      <c r="TG3" t="n">
+        <v>38926779400</v>
+      </c>
+      <c r="TH3" t="n">
+        <v>38999908900</v>
+      </c>
+      <c r="TI3" t="n">
+        <v>39052226200</v>
+      </c>
+      <c r="TJ3" t="n">
+        <v>39052226200</v>
+      </c>
+      <c r="TK3" t="n">
+        <v>39100601800</v>
+      </c>
+      <c r="TL3" t="n">
+        <v>39151538800</v>
+      </c>
+      <c r="TM3" t="n">
+        <v>39201283200</v>
+      </c>
+      <c r="TN3" t="n">
+        <v>39254574100</v>
+      </c>
+      <c r="TO3" t="n">
+        <v>39254574100</v>
+      </c>
+      <c r="TP3" t="n">
+        <v>39330542400</v>
+      </c>
+      <c r="TQ3" t="n">
+        <v>39330542400</v>
+      </c>
+      <c r="TR3" t="n">
+        <v>39404639300</v>
+      </c>
+      <c r="TS3" t="n">
+        <v>39477047200</v>
+      </c>
+      <c r="TT3" t="n">
+        <v>39523427900</v>
+      </c>
+      <c r="TU3" t="n">
+        <v>39577996000</v>
+      </c>
+      <c r="TV3" t="n">
+        <v>39577996000</v>
+      </c>
+      <c r="TW3" t="n">
+        <v>39618952600</v>
+      </c>
+      <c r="TX3" t="n">
+        <v>39676173600</v>
+      </c>
+      <c r="TY3" t="n">
+        <v>39676173600</v>
+      </c>
+      <c r="TZ3" t="n">
+        <v>39728960800</v>
+      </c>
+      <c r="UA3" t="n">
+        <v>39728960800</v>
+      </c>
+      <c r="UB3" t="n">
+        <v>39804497300</v>
+      </c>
+      <c r="UC3" t="n">
+        <v>39849617300</v>
+      </c>
+      <c r="UD3" t="n">
+        <v>39849617300</v>
+      </c>
+      <c r="UE3" t="n">
+        <v>39903328900</v>
+      </c>
+      <c r="UF3" t="n">
+        <v>39903328900</v>
+      </c>
+      <c r="UG3" t="n">
+        <v>39947912000</v>
+      </c>
+      <c r="UH3" t="n">
+        <v>40001202700</v>
+      </c>
+      <c r="UI3" t="n">
+        <v>40074191800</v>
+      </c>
+      <c r="UJ3" t="n">
+        <v>40074191800</v>
+      </c>
+      <c r="UK3" t="n">
+        <v>40123106200</v>
+      </c>
+      <c r="UL3" t="n">
+        <v>40177087800</v>
+      </c>
+      <c r="UM3" t="n">
+        <v>40221323600</v>
+      </c>
+      <c r="UN3" t="n">
+        <v>40277340400</v>
+      </c>
+      <c r="UO3" t="n">
+        <v>40277340400</v>
+      </c>
+      <c r="UP3" t="n">
+        <v>40353186700</v>
+      </c>
+      <c r="UQ3" t="n">
+        <v>40399050300</v>
+      </c>
+      <c r="UR3" t="n">
+        <v>40451313700</v>
+      </c>
+      <c r="US3" t="n">
+        <v>40500734400</v>
+      </c>
+      <c r="UT3" t="n">
+        <v>40578186300</v>
+      </c>
+      <c r="UU3" t="n">
+        <v>40654657200</v>
+      </c>
+      <c r="UV3" t="n">
+        <v>40727625000</v>
+      </c>
+      <c r="UW3" t="n">
+        <v>40801730700</v>
+      </c>
+      <c r="UX3" t="n">
+        <v>40876565600</v>
+      </c>
+      <c r="UY3" t="n">
+        <v>40924506800</v>
+      </c>
+      <c r="UZ3" t="n">
+        <v>40970234300</v>
+      </c>
+      <c r="VA3" t="n">
+        <v>41027839600</v>
+      </c>
+      <c r="VB3" t="n">
+        <v>41101577700</v>
+      </c>
+      <c r="VC3" t="n">
+        <v>41149900600</v>
+      </c>
+      <c r="VD3" t="n">
+        <v>41196921700</v>
+      </c>
+      <c r="VE3" t="n">
+        <v>41254615600</v>
+      </c>
+      <c r="VF3" t="n">
+        <v>41254615600</v>
+      </c>
+      <c r="VG3" t="n">
+        <v>41302622600</v>
+      </c>
+      <c r="VH3" t="n">
+        <v>41353279000</v>
+      </c>
+      <c r="VI3" t="n">
+        <v>41400595600</v>
+      </c>
+      <c r="VJ3" t="n">
+        <v>41450802400</v>
+      </c>
+      <c r="VK3" t="n">
+        <v>41498098500</v>
+      </c>
+      <c r="VL3" t="n">
+        <v>41552580900</v>
+      </c>
+      <c r="VM3" t="n">
+        <v>41625561800</v>
+      </c>
+      <c r="VN3" t="n">
+        <v>41704019400</v>
+      </c>
+      <c r="VO3" t="n">
+        <v>41777581700</v>
+      </c>
+      <c r="VP3" t="n">
+        <v>41851090100</v>
+      </c>
+      <c r="VQ3" t="n">
+        <v>41922427300</v>
+      </c>
+      <c r="VR3" t="n">
+        <v>42000527900</v>
+      </c>
+      <c r="VS3" t="n">
+        <v>42076428100</v>
+      </c>
+      <c r="VT3" t="n">
+        <v>42124641500</v>
+      </c>
+      <c r="VU3" t="n">
+        <v>42167969900</v>
+      </c>
+      <c r="VV3" t="n">
+        <v>42226055900</v>
+      </c>
+      <c r="VW3" t="n">
+        <v>42271998200</v>
+      </c>
+      <c r="VX3" t="n">
+        <v>42325313700</v>
+      </c>
+      <c r="VY3" t="n">
+        <v>42375551800</v>
+      </c>
+      <c r="VZ3" t="n">
+        <v>42428280200</v>
+      </c>
+      <c r="WA3" t="n">
+        <v>42474755600</v>
+      </c>
+      <c r="WB3" t="n">
+        <v>42522907500</v>
+      </c>
+      <c r="WC3" t="n">
+        <v>42576975100</v>
+      </c>
+      <c r="WD3" t="n">
+        <v>42652859400</v>
+      </c>
+      <c r="WE3" t="n">
+        <v>42727788200</v>
+      </c>
+      <c r="WF3" t="n">
+        <v>42800794800</v>
+      </c>
+      <c r="WG3" t="n">
+        <v>42873034400</v>
+      </c>
+      <c r="WH3" t="n">
+        <v>42921225400</v>
+      </c>
+      <c r="WI3" t="n">
+        <v>42978380900</v>
+      </c>
+      <c r="WJ3" t="n">
+        <v>43023835600</v>
+      </c>
+      <c r="WK3" t="n">
+        <v>43077129300</v>
+      </c>
+      <c r="WL3" t="n">
+        <v>43121775900</v>
+      </c>
+      <c r="WM3" t="n">
+        <v>43179287800</v>
+      </c>
+      <c r="WN3" t="n">
+        <v>43253754600</v>
+      </c>
+      <c r="WO3" t="n">
+        <v>43253754600</v>
+      </c>
+      <c r="WP3" t="n">
+        <v>43329344100</v>
+      </c>
+      <c r="WQ3" t="n">
+        <v>43402314000</v>
+      </c>
+      <c r="WR3" t="n">
+        <v>43447455400</v>
+      </c>
+      <c r="WS3" t="n">
+        <v>43498619100</v>
+      </c>
+      <c r="WT3" t="n">
+        <v>43552372700</v>
+      </c>
+      <c r="WU3" t="n">
+        <v>43627233200</v>
+      </c>
+      <c r="WV3" t="n">
+        <v>43703325900</v>
+      </c>
+      <c r="WW3" t="n">
+        <v>43751482100</v>
+      </c>
+      <c r="WX3" t="n">
+        <v>43800405500</v>
+      </c>
+      <c r="WY3" t="n">
+        <v>43851897600</v>
+      </c>
+      <c r="WZ3" t="n">
+        <v>43894684300</v>
+      </c>
+      <c r="XA3" t="n">
+        <v>43951176900</v>
+      </c>
+      <c r="XB3" t="n">
+        <v>44024495500</v>
+      </c>
+      <c r="XC3" t="n">
+        <v>44024495500</v>
+      </c>
+      <c r="XD3" t="n">
+        <v>44076765500</v>
+      </c>
+      <c r="XE3" t="n">
+        <v>44153815800</v>
+      </c>
+      <c r="XF3" t="n">
+        <v>44193583100</v>
+      </c>
+      <c r="XG3" t="n">
+        <v>44269787400</v>
+      </c>
+      <c r="XH3" t="n">
+        <v>44352693800</v>
+      </c>
+      <c r="XI3" t="n">
+        <v>44352693800</v>
+      </c>
+      <c r="XJ3" t="n">
+        <v>44430353500</v>
+      </c>
+      <c r="XK3" t="n">
+        <v>44501951000</v>
+      </c>
+      <c r="XL3" t="n">
+        <v>44577697200</v>
+      </c>
+      <c r="XM3" t="n">
+        <v>44628019100</v>
+      </c>
+      <c r="XN3" t="n">
+        <v>44677169000</v>
+      </c>
+      <c r="XO3" t="n">
+        <v>44753871200</v>
+      </c>
+      <c r="XP3" t="n">
+        <v>44829629100</v>
+      </c>
+      <c r="XQ3" t="n">
+        <v>44902826900</v>
+      </c>
+      <c r="XR3" t="n">
+        <v>44976534800</v>
+      </c>
+      <c r="XS3" t="n">
+        <v>45026649000</v>
+      </c>
+      <c r="XT3" t="n">
+        <v>45077812400</v>
+      </c>
+      <c r="XU3" t="n">
+        <v>45150953000</v>
+      </c>
+      <c r="XV3" t="n">
+        <v>45201866700</v>
+      </c>
+      <c r="XW3" t="n">
+        <v>45251014300</v>
+      </c>
+      <c r="XX3" t="n">
+        <v>45251014300</v>
+      </c>
+      <c r="XY3" t="n">
+        <v>45295392200</v>
+      </c>
+      <c r="XZ3" t="n">
+        <v>45353562500</v>
+      </c>
+      <c r="YA3" t="n">
+        <v>45427694200</v>
+      </c>
+      <c r="YB3" t="n">
+        <v>45502884400</v>
+      </c>
+      <c r="YC3" t="n">
+        <v>45577124300</v>
+      </c>
+      <c r="YD3" t="n">
+        <v>45628313200</v>
+      </c>
+      <c r="YE3" t="n">
+        <v>45703036000</v>
+      </c>
+      <c r="YF3" t="n">
+        <v>45779190900</v>
+      </c>
+      <c r="YG3" t="n">
+        <v>45856454100</v>
+      </c>
+      <c r="YH3" t="n">
+        <v>45925717500</v>
+      </c>
+      <c r="YI3" t="n">
+        <v>45925717500</v>
+      </c>
+      <c r="YJ3" t="n">
+        <v>45977132600</v>
+      </c>
+      <c r="YK3" t="n">
+        <v>46051542200</v>
+      </c>
+      <c r="YL3" t="n">
+        <v>46051542200</v>
+      </c>
+      <c r="YM3" t="n">
+        <v>46103641800</v>
+      </c>
+      <c r="YN3" t="n">
+        <v>46176239900</v>
+      </c>
+      <c r="YO3" t="n">
+        <v>46251003900</v>
+      </c>
+      <c r="YP3" t="n">
+        <v>46328904800</v>
+      </c>
+      <c r="YQ3" t="n">
+        <v>46397566600</v>
+      </c>
+      <c r="YR3" t="n">
+        <v>46454159500</v>
+      </c>
+      <c r="YS3" t="n">
+        <v>46527432100</v>
+      </c>
+      <c r="YT3" t="n">
+        <v>46570685600</v>
+      </c>
+      <c r="YU3" t="n">
+        <v>46627785200</v>
+      </c>
+      <c r="YV3" t="n">
+        <v>46678899800</v>
+      </c>
+      <c r="YW3" t="n">
+        <v>46754735800</v>
+      </c>
+      <c r="YX3" t="n">
+        <v>46802266100</v>
+      </c>
+      <c r="YY3" t="n">
+        <v>46852516700</v>
+      </c>
+      <c r="YZ3" t="n">
+        <v>46901021400</v>
+      </c>
+      <c r="ZA3" t="n">
+        <v>46949283900</v>
+      </c>
+      <c r="ZB3" t="n">
+        <v>46994292300</v>
+      </c>
+      <c r="ZC3" t="n">
+        <v>47051417800</v>
+      </c>
+      <c r="ZD3" t="n">
+        <v>47129513900</v>
+      </c>
+      <c r="ZE3" t="n">
+        <v>47204122600</v>
+      </c>
+      <c r="ZF3" t="n">
+        <v>47281213800</v>
+      </c>
+      <c r="ZG3" t="n">
+        <v>47352996600</v>
+      </c>
+      <c r="ZH3" t="n">
+        <v>47397237100</v>
+      </c>
+      <c r="ZI3" t="n">
+        <v>47449944900</v>
+      </c>
+      <c r="ZJ3" t="n">
+        <v>47496672600</v>
+      </c>
+      <c r="ZK3" t="n">
+        <v>47554849500</v>
+      </c>
+      <c r="ZL3" t="n">
+        <v>47628345000</v>
+      </c>
+      <c r="ZM3" t="n">
+        <v>47674545000</v>
+      </c>
+      <c r="ZN3" t="n">
+        <v>47723630800</v>
+      </c>
+      <c r="ZO3" t="n">
+        <v>47772980300</v>
+      </c>
+      <c r="ZP3" t="n">
+        <v>47826807100</v>
+      </c>
+      <c r="ZQ3" t="n">
+        <v>47874547500</v>
+      </c>
+      <c r="ZR3" t="n">
+        <v>47931340900</v>
+      </c>
+      <c r="ZS3" t="n">
+        <v>48002437600</v>
+      </c>
+      <c r="ZT3" t="n">
+        <v>48046866400</v>
+      </c>
+      <c r="ZU3" t="n">
+        <v>48102110100</v>
+      </c>
+      <c r="ZV3" t="n">
+        <v>48151631900</v>
+      </c>
+      <c r="ZW3" t="n">
+        <v>48205820000</v>
+      </c>
+      <c r="ZX3" t="n">
+        <v>48248814900</v>
+      </c>
+      <c r="ZY3" t="n">
+        <v>48301441200</v>
+      </c>
+      <c r="ZZ3" t="n">
+        <v>48351344100</v>
+      </c>
+      <c r="AAA3" t="n">
+        <v>48397656300</v>
+      </c>
+      <c r="AAB3" t="n">
+        <v>48453016200</v>
+      </c>
+      <c r="AAC3" t="n">
+        <v>48528046900</v>
+      </c>
+      <c r="AAD3" t="n">
+        <v>48573932500</v>
+      </c>
+      <c r="AAE3" t="n">
+        <v>48623409900</v>
+      </c>
+      <c r="AAF3" t="n">
+        <v>48704155100</v>
+      </c>
+      <c r="AAG3" t="n">
+        <v>48780590700</v>
+      </c>
+      <c r="AAH3" t="n">
+        <v>48820003100</v>
+      </c>
+      <c r="AAI3" t="n">
+        <v>48876945200</v>
+      </c>
+      <c r="AAJ3" t="n">
+        <v>48926171800</v>
+      </c>
+      <c r="AAK3" t="n">
+        <v>48975531200</v>
+      </c>
+      <c r="AAL3" t="n">
+        <v>49025185800</v>
+      </c>
+      <c r="AAM3" t="n">
+        <v>49076997600</v>
+      </c>
+      <c r="AAN3" t="n">
+        <v>49151442800</v>
+      </c>
+      <c r="AAO3" t="n">
+        <v>49201439400</v>
+      </c>
+      <c r="AAP3" t="n">
+        <v>49201439400</v>
+      </c>
+      <c r="AAQ3" t="n">
+        <v>49250040100</v>
+      </c>
+      <c r="AAR3" t="n">
+        <v>49304806100</v>
+      </c>
+      <c r="AAS3" t="n">
+        <v>49378253500</v>
+      </c>
+      <c r="AAT3" t="n">
+        <v>49451362300</v>
+      </c>
+      <c r="AAU3" t="n">
+        <v>49505352600</v>
+      </c>
+      <c r="AAV3" t="n">
+        <v>49580455900</v>
+      </c>
+      <c r="AAW3" t="n">
+        <v>49624788500</v>
+      </c>
+      <c r="AAX3" t="n">
+        <v>49678232200</v>
+      </c>
+      <c r="AAY3" t="n">
+        <v>49723783100</v>
+      </c>
+      <c r="AAZ3" t="n">
+        <v>49777116800</v>
+      </c>
+      <c r="ABA3" t="n">
+        <v>49777116800</v>
+      </c>
+      <c r="ABB3" t="n">
+        <v>49820012400</v>
+      </c>
+      <c r="ABC3" t="n">
+        <v>49820012400</v>
+      </c>
+      <c r="ABD3" t="n">
+        <v>49878825100</v>
+      </c>
+      <c r="ABE3" t="n">
+        <v>49878825100</v>
+      </c>
+      <c r="ABF3" t="n">
+        <v>49948465200</v>
+      </c>
+      <c r="ABG3" t="n">
+        <v>49948465200</v>
+      </c>
+      <c r="ABH3" t="n">
+        <v>49997354000</v>
+      </c>
+      <c r="ABI3" t="n">
+        <v>49997354000</v>
+      </c>
+      <c r="ABJ3" t="n">
+        <v>50053211500</v>
+      </c>
+      <c r="ABK3" t="n">
+        <v>50053211500</v>
+      </c>
+      <c r="ABL3" t="n">
+        <v>50128184200</v>
+      </c>
+      <c r="ABM3" t="n">
+        <v>50128184200</v>
+      </c>
+      <c r="ABN3" t="n">
+        <v>50204043600</v>
+      </c>
+      <c r="ABO3" t="n">
+        <v>50204043600</v>
+      </c>
+      <c r="ABP3" t="n">
+        <v>50279584200</v>
+      </c>
+      <c r="ABQ3" t="n">
+        <v>50279584200</v>
+      </c>
+      <c r="ABR3" t="n">
+        <v>50319151400</v>
+      </c>
+      <c r="ABS3" t="n">
+        <v>50319151400</v>
+      </c>
+      <c r="ABT3" t="n">
+        <v>50376077900</v>
+      </c>
+      <c r="ABU3" t="n">
+        <v>50376077900</v>
+      </c>
+      <c r="ABV3" t="n">
+        <v>50453973200</v>
+      </c>
+      <c r="ABW3" t="n">
+        <v>50453973200</v>
+      </c>
+      <c r="ABX3" t="n">
+        <v>50494826800</v>
+      </c>
+      <c r="ABY3" t="n">
+        <v>50494826800</v>
+      </c>
+      <c r="ABZ3" t="n">
+        <v>50553962800</v>
+      </c>
+      <c r="ACA3" t="n">
+        <v>50630783300</v>
+      </c>
+      <c r="ACB3" t="n">
+        <v>50630783300</v>
+      </c>
+      <c r="ACC3" t="n">
+        <v>50702824900</v>
+      </c>
+      <c r="ACD3" t="n">
+        <v>50702824900</v>
+      </c>
+      <c r="ACE3" t="n">
+        <v>50779425600</v>
+      </c>
+      <c r="ACF3" t="n">
+        <v>50779425600</v>
+      </c>
+      <c r="ACG3" t="n">
+        <v>50854220400</v>
+      </c>
+      <c r="ACH3" t="n">
+        <v>50854220400</v>
+      </c>
+      <c r="ACI3" t="n">
+        <v>50926639100</v>
+      </c>
+      <c r="ACJ3" t="n">
+        <v>51002510500</v>
+      </c>
+      <c r="ACK3" t="n">
+        <v>51002510500</v>
+      </c>
+      <c r="ACL3" t="n">
+        <v>51078646600</v>
+      </c>
+      <c r="ACM3" t="n">
+        <v>51078646600</v>
+      </c>
+      <c r="ACN3" t="n">
+        <v>51119093300</v>
+      </c>
+      <c r="ACO3" t="n">
+        <v>51119093300</v>
+      </c>
+      <c r="ACP3" t="n">
+        <v>51179879700</v>
+      </c>
+      <c r="ACQ3" t="n">
+        <v>51179879700</v>
+      </c>
+      <c r="ACR3" t="n">
+        <v>51254077500</v>
+      </c>
+      <c r="ACS3" t="n">
+        <v>51254077500</v>
+      </c>
+      <c r="ACT3" t="n">
+        <v>109634269500</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14586106500</v>
+        <v>123.3723754882812</v>
       </c>
       <c r="B4" t="n">
-        <v>14586106500</v>
+        <v>122.9854125976562</v>
       </c>
       <c r="C4" t="n">
-        <v>14835372900</v>
+        <v>132.6298828125</v>
       </c>
       <c r="D4" t="n">
-        <v>14835372900</v>
+        <v>136.3043212890625</v>
       </c>
       <c r="E4" t="n">
-        <v>15005910100</v>
+        <v>139.9143676757812</v>
       </c>
       <c r="F4" t="n">
-        <v>15005910100</v>
+        <v>139.0435943603516</v>
       </c>
       <c r="G4" t="n">
-        <v>15207559900</v>
+        <v>144.5678863525391</v>
       </c>
       <c r="H4" t="n">
-        <v>15207559900</v>
+        <v>145.3867340087891</v>
       </c>
       <c r="I4" t="n">
-        <v>15356225400</v>
+        <v>152.2511444091797</v>
       </c>
       <c r="J4" t="n">
-        <v>15356225400</v>
+        <v>152.922119140625</v>
       </c>
       <c r="K4" t="n">
-        <v>15531038000</v>
+        <v>154.9510650634766</v>
       </c>
       <c r="L4" t="n">
-        <v>15531038000</v>
+        <v>156.2598266601562</v>
       </c>
       <c r="M4" t="n">
-        <v>15755748600</v>
+        <v>155.6451416015625</v>
       </c>
       <c r="N4" t="n">
-        <v>15755748600</v>
+        <v>156.2273559570312</v>
       </c>
       <c r="O4" t="n">
-        <v>15938884100</v>
+        <v>156.1591339111328</v>
       </c>
       <c r="P4" t="n">
-        <v>15938884100</v>
+        <v>157.8671264648438</v>
       </c>
       <c r="Q4" t="n">
-        <v>16131597900</v>
+        <v>159.786376953125</v>
       </c>
       <c r="R4" t="n">
-        <v>16131597900</v>
+        <v>159.5408325195312</v>
       </c>
       <c r="S4" t="n">
-        <v>16281236700</v>
+        <v>159.6075592041016</v>
       </c>
       <c r="T4" t="n">
-        <v>16281236700</v>
+        <v>161.7105102539062</v>
       </c>
       <c r="U4" t="n">
-        <v>16433602100</v>
+        <v>162.2302856445312</v>
       </c>
       <c r="V4" t="n">
-        <v>16433602100</v>
+        <v>162.014892578125</v>
       </c>
       <c r="W4" t="n">
-        <v>16631150700</v>
+        <v>161.7264556884766</v>
       </c>
       <c r="X4" t="n">
-        <v>16631150700</v>
+        <v>164.5660858154297</v>
       </c>
       <c r="Y4" t="n">
-        <v>16782747400</v>
+        <v>165.77783203125</v>
       </c>
       <c r="Z4" t="n">
-        <v>16782747400</v>
+        <v>166.4122924804688</v>
       </c>
       <c r="AA4" t="n">
-        <v>16983358400</v>
+        <v>165.7487335205078</v>
       </c>
       <c r="AB4" t="n">
-        <v>16983358400</v>
+        <v>167.6281280517578</v>
       </c>
       <c r="AC4" t="n">
-        <v>17131162500</v>
+        <v>166.21923828125</v>
       </c>
       <c r="AD4" t="n">
-        <v>17131162500</v>
+        <v>169.527099609375</v>
       </c>
       <c r="AE4" t="n">
-        <v>17282979500</v>
+        <v>169.6162567138672</v>
       </c>
       <c r="AF4" t="n">
-        <v>17282979500</v>
+        <v>171.1937713623047</v>
       </c>
       <c r="AG4" t="n">
-        <v>17430892200</v>
+        <v>172.6032867431641</v>
       </c>
       <c r="AH4" t="n">
-        <v>17430892200</v>
+        <v>173.16015625</v>
       </c>
       <c r="AI4" t="n">
-        <v>17583944300</v>
+        <v>176.4283447265625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17583944300</v>
+        <v>179.2685699462891</v>
       </c>
       <c r="AK4" t="n">
-        <v>17730831300</v>
+        <v>181.5074462890625</v>
       </c>
       <c r="AL4" t="n">
-        <v>17730831300</v>
+        <v>180.4048919677734</v>
       </c>
       <c r="AM4" t="n">
-        <v>17856555300</v>
+        <v>185.2534790039062</v>
       </c>
       <c r="AN4" t="n">
-        <v>17856555300</v>
+        <v>184.2996826171875</v>
       </c>
       <c r="AO4" t="n">
-        <v>18058713000</v>
+        <v>183.7975463867188</v>
       </c>
       <c r="AP4" t="n">
-        <v>18058713000</v>
+        <v>183.5160522460938</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18205488100</v>
+        <v>181.9259643554688</v>
       </c>
       <c r="AR4" t="n">
-        <v>18205488100</v>
+        <v>182.49267578125</v>
       </c>
       <c r="AS4" t="n">
-        <v>18355691400</v>
+        <v>182.0850067138672</v>
       </c>
       <c r="AT4" t="n">
-        <v>18355691400</v>
+        <v>183.2205810546875</v>
       </c>
       <c r="AU4" t="n">
-        <v>18507396700</v>
+        <v>182.5847778320312</v>
       </c>
       <c r="AV4" t="n">
-        <v>18507396700</v>
+        <v>181.9220581054688</v>
       </c>
       <c r="AW4" t="n">
-        <v>18656183700</v>
+        <v>181.5056762695312</v>
       </c>
       <c r="AX4" t="n">
-        <v>18656183700</v>
+        <v>180.1550140380859</v>
       </c>
       <c r="AY4" t="n">
-        <v>18806269700</v>
+        <v>180.3177490234375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>18806269700</v>
+        <v>179.2376251220703</v>
       </c>
       <c r="BA4" t="n">
-        <v>18956137200</v>
+        <v>178.2683715820312</v>
       </c>
       <c r="BB4" t="n">
-        <v>18956137200</v>
+        <v>179.5487823486328</v>
       </c>
       <c r="BC4" t="n">
-        <v>19180532400</v>
+        <v>178.7600860595703</v>
       </c>
       <c r="BD4" t="n">
-        <v>19180532400</v>
+        <v>177.4417114257812</v>
       </c>
       <c r="BE4" t="n">
-        <v>19359354300</v>
+        <v>176.8160400390625</v>
       </c>
       <c r="BF4" t="n">
-        <v>19359354300</v>
+        <v>176.9013214111328</v>
       </c>
       <c r="BG4" t="n">
-        <v>19505445700</v>
+        <v>177.0342407226562</v>
       </c>
       <c r="BH4" t="n">
-        <v>19505445700</v>
+        <v>176.6900024414062</v>
       </c>
       <c r="BI4" t="n">
-        <v>19656013800</v>
+        <v>176.4648590087891</v>
       </c>
       <c r="BJ4" t="n">
-        <v>19656013800</v>
+        <v>175.974365234375</v>
       </c>
       <c r="BK4" t="n">
-        <v>19805692700</v>
+        <v>175.6047973632812</v>
       </c>
       <c r="BL4" t="n">
-        <v>19805692700</v>
+        <v>174.6446380615234</v>
       </c>
       <c r="BM4" t="n">
-        <v>19955483600</v>
+        <v>175.6070404052734</v>
       </c>
       <c r="BN4" t="n">
-        <v>19955483600</v>
+        <v>175.7112579345703</v>
       </c>
       <c r="BO4" t="n">
-        <v>20105688600</v>
+        <v>176.2099609375</v>
       </c>
       <c r="BP4" t="n">
-        <v>20255556100</v>
+        <v>174.071533203125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>20255556100</v>
+        <v>171.924560546875</v>
       </c>
       <c r="BR4" t="n">
-        <v>20406040200</v>
+        <v>173.3040161132812</v>
       </c>
       <c r="BS4" t="n">
-        <v>20555322100</v>
+        <v>173.3851776123047</v>
       </c>
       <c r="BT4" t="n">
-        <v>20705994300</v>
+        <v>175.6236572265625</v>
       </c>
       <c r="BU4" t="n">
-        <v>20705994300</v>
+        <v>177.3738403320312</v>
       </c>
       <c r="BV4" t="n">
-        <v>20855433500</v>
+        <v>180.2260131835938</v>
       </c>
       <c r="BW4" t="n">
-        <v>20855433500</v>
+        <v>181.2868041992188</v>
       </c>
       <c r="BX4" t="n">
-        <v>21005820100</v>
+        <v>181.5133666992188</v>
       </c>
       <c r="BY4" t="n">
-        <v>21005820100</v>
+        <v>182.73193359375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>21157311200</v>
+        <v>181.8663177490234</v>
       </c>
       <c r="CA4" t="n">
-        <v>21157311200</v>
+        <v>183.6365966796875</v>
       </c>
       <c r="CB4" t="n">
-        <v>21331138400</v>
+        <v>181.6982421875</v>
       </c>
       <c r="CC4" t="n">
-        <v>21331138400</v>
+        <v>180.94189453125</v>
       </c>
       <c r="CD4" t="n">
-        <v>21455647800</v>
+        <v>181.8951873779297</v>
       </c>
       <c r="CE4" t="n">
-        <v>21455647800</v>
+        <v>181.5632476806641</v>
       </c>
       <c r="CF4" t="n">
-        <v>21606085100</v>
+        <v>180.5704956054688</v>
       </c>
       <c r="CG4" t="n">
-        <v>21606085100</v>
+        <v>180.7846069335938</v>
       </c>
       <c r="CH4" t="n">
-        <v>21756749500</v>
+        <v>180.3599243164062</v>
       </c>
       <c r="CI4" t="n">
-        <v>21756749500</v>
+        <v>178.3548583984375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>21905786000</v>
+        <v>178.4542846679688</v>
       </c>
       <c r="CK4" t="n">
-        <v>22055397800</v>
+        <v>177.4298706054688</v>
       </c>
       <c r="CL4" t="n">
-        <v>22206020100</v>
+        <v>176.4410400390625</v>
       </c>
       <c r="CM4" t="n">
-        <v>22206020100</v>
+        <v>176.9521636962891</v>
       </c>
       <c r="CN4" t="n">
-        <v>22362293000</v>
+        <v>176.7714996337891</v>
       </c>
       <c r="CO4" t="n">
-        <v>22555468300</v>
+        <v>176.65234375</v>
       </c>
       <c r="CP4" t="n">
-        <v>22555468300</v>
+        <v>175.9893951416016</v>
       </c>
       <c r="CQ4" t="n">
-        <v>22681113500</v>
+        <v>174.7322235107422</v>
       </c>
       <c r="CR4" t="n">
-        <v>22681113500</v>
+        <v>176.1970367431641</v>
       </c>
       <c r="CS4" t="n">
-        <v>22830927000</v>
+        <v>175.9191131591797</v>
       </c>
       <c r="CT4" t="n">
-        <v>22830927000</v>
+        <v>174.3435516357422</v>
       </c>
       <c r="CU4" t="n">
-        <v>23013284700</v>
+        <v>172.376708984375</v>
       </c>
       <c r="CV4" t="n">
-        <v>23206650800</v>
+        <v>170.5545654296875</v>
       </c>
       <c r="CW4" t="n">
-        <v>23206650800</v>
+        <v>172.0819091796875</v>
       </c>
       <c r="CX4" t="n">
-        <v>23356210300</v>
+        <v>171.1729583740234</v>
       </c>
       <c r="CY4" t="n">
-        <v>23356210300</v>
+        <v>172.8714752197266</v>
       </c>
       <c r="CZ4" t="n">
-        <v>23531149400</v>
+        <v>172.2286376953125</v>
       </c>
       <c r="DA4" t="n">
-        <v>23681114100</v>
+        <v>174.9267578125</v>
       </c>
       <c r="DB4" t="n">
-        <v>23681114100</v>
+        <v>175.3983154296875</v>
       </c>
       <c r="DC4" t="n">
-        <v>23831061700</v>
+        <v>174.9764404296875</v>
       </c>
       <c r="DD4" t="n">
-        <v>23831061700</v>
+        <v>176.0978240966797</v>
       </c>
       <c r="DE4" t="n">
-        <v>23981111800</v>
+        <v>176.5053100585938</v>
       </c>
       <c r="DF4" t="n">
-        <v>23981111800</v>
+        <v>181.0825958251953</v>
       </c>
       <c r="DG4" t="n">
-        <v>24181710900</v>
+        <v>183.1401214599609</v>
       </c>
       <c r="DH4" t="n">
-        <v>24181710900</v>
+        <v>183.881591796875</v>
       </c>
       <c r="DI4" t="n">
-        <v>24331897400</v>
+        <v>184.7409820556641</v>
       </c>
       <c r="DJ4" t="n">
-        <v>24331897400</v>
+        <v>184.6005401611328</v>
       </c>
       <c r="DK4" t="n">
-        <v>24480974500</v>
+        <v>179.3744506835938</v>
       </c>
       <c r="DL4" t="n">
-        <v>24480974500</v>
+        <v>179.8733062744141</v>
       </c>
       <c r="DM4" t="n">
-        <v>24631074800</v>
+        <v>180.1387176513672</v>
       </c>
       <c r="DN4" t="n">
-        <v>24806270500</v>
+        <v>178.8464202880859</v>
       </c>
       <c r="DO4" t="n">
-        <v>24806270500</v>
+        <v>178.0984039306641</v>
       </c>
       <c r="DP4" t="n">
-        <v>24956460100</v>
+        <v>178.2526245117188</v>
       </c>
       <c r="DQ4" t="n">
-        <v>24956460100</v>
+        <v>177.4292602539062</v>
       </c>
       <c r="DR4" t="n">
-        <v>25106039700</v>
+        <v>179.812744140625</v>
       </c>
       <c r="DS4" t="n">
-        <v>25106039700</v>
+        <v>178.6432495117188</v>
       </c>
       <c r="DT4" t="n">
-        <v>25256051900</v>
+        <v>175.55810546875</v>
       </c>
       <c r="DU4" t="n">
-        <v>25256051900</v>
+        <v>174.4467315673828</v>
       </c>
       <c r="DV4" t="n">
-        <v>25456777700</v>
+        <v>174.7486572265625</v>
       </c>
       <c r="DW4" t="n">
-        <v>25456777700</v>
+        <v>172.8072967529297</v>
       </c>
       <c r="DX4" t="n">
-        <v>25607041900</v>
+        <v>172.8563385009766</v>
       </c>
       <c r="DY4" t="n">
-        <v>25607041900</v>
+        <v>175.2513885498047</v>
       </c>
       <c r="DZ4" t="n">
-        <v>25781235300</v>
+        <v>173.8866577148438</v>
       </c>
       <c r="EA4" t="n">
-        <v>25781235300</v>
+        <v>173.5187377929688</v>
       </c>
       <c r="EB4" t="n">
-        <v>25935074100</v>
+        <v>175.6285400390625</v>
       </c>
       <c r="EC4" t="n">
-        <v>25935074100</v>
+        <v>177.276123046875</v>
       </c>
       <c r="ED4" t="n">
-        <v>26106082700</v>
+        <v>186.0170288085938</v>
       </c>
       <c r="EE4" t="n">
-        <v>26106082700</v>
+        <v>183.3459320068359</v>
       </c>
       <c r="EF4" t="n">
-        <v>26310839400</v>
+        <v>184.9402923583984</v>
       </c>
       <c r="EG4" t="n">
-        <v>26481212800</v>
+        <v>184.3507080078125</v>
       </c>
       <c r="EH4" t="n">
-        <v>26481212800</v>
+        <v>182.8215484619141</v>
       </c>
       <c r="EI4" t="n">
-        <v>26633692200</v>
+        <v>178.1947631835938</v>
       </c>
       <c r="EJ4" t="n">
-        <v>26633692200</v>
+        <v>178.2625732421875</v>
       </c>
       <c r="EK4" t="n">
-        <v>26806703100</v>
+        <v>175.3542327880859</v>
       </c>
       <c r="EL4" t="n">
-        <v>26806703100</v>
+        <v>174.513671875</v>
       </c>
       <c r="EM4" t="n">
-        <v>26981519500</v>
+        <v>173.239990234375</v>
       </c>
       <c r="EN4" t="n">
-        <v>26981519500</v>
+        <v>173.3663330078125</v>
       </c>
       <c r="EO4" t="n">
-        <v>27157061800</v>
+        <v>171.8966674804688</v>
       </c>
       <c r="EP4" t="n">
-        <v>27157061800</v>
+        <v>174.5876007080078</v>
       </c>
       <c r="EQ4" t="n">
-        <v>27333477000</v>
+        <v>177.6771850585938</v>
       </c>
       <c r="ER4" t="n">
-        <v>27333477000</v>
+        <v>174.7773895263672</v>
       </c>
       <c r="ES4" t="n">
-        <v>27507228400</v>
+        <v>177.0538940429688</v>
       </c>
       <c r="ET4" t="n">
-        <v>27507228400</v>
+        <v>181.8697509765625</v>
       </c>
       <c r="EU4" t="n">
-        <v>27706892200</v>
+        <v>181.0172729492188</v>
       </c>
       <c r="EV4" t="n">
-        <v>27706892200</v>
+        <v>185.1251220703125</v>
       </c>
       <c r="EW4" t="n">
-        <v>27882273900</v>
+        <v>183.7723999023438</v>
       </c>
       <c r="EX4" t="n">
-        <v>27882273900</v>
+        <v>181.3392333984375</v>
       </c>
       <c r="EY4" t="n">
-        <v>28082726500</v>
+        <v>183.3690338134766</v>
       </c>
       <c r="EZ4" t="n">
-        <v>28082726500</v>
+        <v>183.3297729492188</v>
       </c>
       <c r="FA4" t="n">
-        <v>28256532100</v>
+        <v>180.0087890625</v>
       </c>
       <c r="FB4" t="n">
-        <v>28256532100</v>
+        <v>181.9783935546875</v>
       </c>
       <c r="FC4" t="n">
-        <v>28467215900</v>
+        <v>179.5465698242188</v>
       </c>
       <c r="FD4" t="n">
-        <v>28467215900</v>
+        <v>177.8387451171875</v>
       </c>
       <c r="FE4" t="n">
-        <v>28944129100</v>
+        <v>176.0056762695312</v>
       </c>
       <c r="FF4" t="n">
-        <v>28944129100</v>
+        <v>174.8508453369141</v>
       </c>
       <c r="FG4" t="n">
-        <v>29444258700</v>
+        <v>174.7246704101562</v>
       </c>
       <c r="FH4" t="n">
-        <v>29444258700</v>
+        <v>174.7675628662109</v>
       </c>
       <c r="FI4" t="n">
-        <v>29942319000</v>
+        <v>173.984619140625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>30418597800</v>
+        <v>176.9110107421875</v>
       </c>
       <c r="FK4" t="n">
-        <v>30418597800</v>
+        <v>174.66650390625</v>
       </c>
       <c r="FL4" t="n">
-        <v>30885921900</v>
+        <v>175.5944213867188</v>
       </c>
       <c r="FM4" t="n">
-        <v>31287206100</v>
+        <v>176.935546875</v>
       </c>
       <c r="FN4" t="n">
-        <v>31287206100</v>
+        <v>174.9890594482422</v>
       </c>
       <c r="FO4" t="n">
-        <v>31745422700</v>
+        <v>178.1138305664062</v>
       </c>
       <c r="FP4" t="n">
-        <v>31745422700</v>
+        <v>177.4967651367188</v>
       </c>
       <c r="FQ4" t="n">
-        <v>32243526700</v>
+        <v>177.4937744140625</v>
       </c>
       <c r="FR4" t="n">
-        <v>32744141800</v>
+        <v>178.0092163085938</v>
       </c>
       <c r="FS4" t="n">
-        <v>32935655800</v>
+        <v>177.9548492431641</v>
       </c>
       <c r="FT4" t="n">
-        <v>32935655800</v>
+        <v>178.1228179931641</v>
       </c>
       <c r="FU4" t="n">
-        <v>33106620800</v>
+        <v>177.1192779541016</v>
       </c>
       <c r="FV4" t="n">
-        <v>33106620800</v>
+        <v>176.896484375</v>
       </c>
       <c r="FW4" t="n">
-        <v>33283656100</v>
+        <v>175.3534545898438</v>
       </c>
       <c r="FX4" t="n">
-        <v>33283656100</v>
+        <v>174.5382080078125</v>
       </c>
       <c r="FY4" t="n">
-        <v>33459353600</v>
+        <v>175.2056274414062</v>
       </c>
       <c r="FZ4" t="n">
-        <v>33459353600</v>
+        <v>175.48779296875</v>
       </c>
       <c r="GA4" t="n">
-        <v>33637047200</v>
+        <v>173.0401611328125</v>
       </c>
       <c r="GB4" t="n">
-        <v>33637047200</v>
+        <v>173.3569946289062</v>
       </c>
       <c r="GC4" t="n">
-        <v>33782800400</v>
+        <v>173.9760131835938</v>
       </c>
       <c r="GD4" t="n">
-        <v>33782800400</v>
+        <v>173.6978149414062</v>
       </c>
       <c r="GE4" t="n">
-        <v>33956973000</v>
+        <v>173.265625</v>
       </c>
       <c r="GF4" t="n">
-        <v>33956973000</v>
+        <v>173.4300537109375</v>
       </c>
       <c r="GG4" t="n">
-        <v>34107522700</v>
+        <v>174.95361328125</v>
       </c>
       <c r="GH4" t="n">
-        <v>34107522700</v>
+        <v>173.4172973632812</v>
       </c>
       <c r="GI4" t="n">
-        <v>34282666800</v>
+        <v>175.165771484375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>34432919000</v>
+        <v>174.5675506591797</v>
       </c>
       <c r="GK4" t="n">
-        <v>34581783200</v>
+        <v>176.8096313476562</v>
       </c>
       <c r="GL4" t="n">
-        <v>34581783200</v>
+        <v>174.4082641601562</v>
       </c>
       <c r="GM4" t="n">
-        <v>34733302100</v>
+        <v>174.8123321533203</v>
       </c>
       <c r="GN4" t="n">
-        <v>34733302100</v>
+        <v>177.512939453125</v>
       </c>
       <c r="GO4" t="n">
-        <v>34882915200</v>
+        <v>176.1037139892578</v>
       </c>
       <c r="GP4" t="n">
-        <v>34882915200</v>
+        <v>176.3062133789062</v>
       </c>
       <c r="GQ4" t="n">
-        <v>35032529300</v>
+        <v>177.7255249023438</v>
       </c>
       <c r="GR4" t="n">
-        <v>35032529300</v>
+        <v>177.4083251953125</v>
       </c>
       <c r="GS4" t="n">
-        <v>35206941300</v>
+        <v>176.3803253173828</v>
       </c>
       <c r="GT4" t="n">
-        <v>35206941300</v>
+        <v>175.4993896484375</v>
       </c>
       <c r="GU4" t="n">
-        <v>35384935400</v>
+        <v>175.48046875</v>
       </c>
       <c r="GV4" t="n">
-        <v>35384935400</v>
+        <v>175.1531982421875</v>
       </c>
       <c r="GW4" t="n">
-        <v>35582909900</v>
+        <v>174.5752563476562</v>
       </c>
       <c r="GX4" t="n">
-        <v>35582909900</v>
+        <v>172.6248779296875</v>
       </c>
       <c r="GY4" t="n">
-        <v>35707009700</v>
+        <v>172.9907836914062</v>
       </c>
       <c r="GZ4" t="n">
-        <v>35707009700</v>
+        <v>172.2493896484375</v>
       </c>
       <c r="HA4" t="n">
-        <v>35858457500</v>
+        <v>173.2619018554688</v>
       </c>
       <c r="HB4" t="n">
-        <v>35858457500</v>
+        <v>172.0756378173828</v>
       </c>
       <c r="HC4" t="n">
-        <v>36063795900</v>
+        <v>172.437744140625</v>
       </c>
       <c r="HD4" t="n">
-        <v>36063795900</v>
+        <v>173.9006958007812</v>
       </c>
       <c r="HE4" t="n">
-        <v>36257379000</v>
+        <v>172.8626708984375</v>
       </c>
       <c r="HF4" t="n">
-        <v>36257379000</v>
+        <v>177.0868530273438</v>
       </c>
       <c r="HG4" t="n">
-        <v>36407810800</v>
+        <v>175.651123046875</v>
       </c>
       <c r="HH4" t="n">
-        <v>36581995000</v>
+        <v>176.0187377929688</v>
       </c>
       <c r="HI4" t="n">
-        <v>36581995000</v>
+        <v>178.791748046875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>36731825900</v>
+        <v>177.5107879638672</v>
       </c>
       <c r="HK4" t="n">
-        <v>36731825900</v>
+        <v>176.5903930664062</v>
       </c>
       <c r="HL4" t="n">
-        <v>36884118800</v>
+        <v>178.6944580078125</v>
       </c>
       <c r="HM4" t="n">
-        <v>36884118800</v>
+        <v>176.6561279296875</v>
       </c>
       <c r="HN4" t="n">
-        <v>37082875000</v>
+        <v>176.2455902099609</v>
       </c>
       <c r="HO4" t="n">
-        <v>37082875000</v>
+        <v>176.1229858398438</v>
       </c>
       <c r="HP4" t="n">
-        <v>37256893800</v>
+        <v>173.8482666015625</v>
       </c>
       <c r="HQ4" t="n">
-        <v>37256893800</v>
+        <v>173.2257080078125</v>
       </c>
       <c r="HR4" t="n">
-        <v>37407458800</v>
+        <v>171.4248046875</v>
       </c>
       <c r="HS4" t="n">
-        <v>37407458800</v>
+        <v>172.3750610351562</v>
       </c>
       <c r="HT4" t="n">
-        <v>37557649000</v>
+        <v>170.5166015625</v>
       </c>
       <c r="HU4" t="n">
-        <v>37557649000</v>
+        <v>169.5189208984375</v>
       </c>
       <c r="HV4" t="n">
-        <v>37707891800</v>
+        <v>168.6271209716797</v>
       </c>
       <c r="HW4" t="n">
-        <v>37707891800</v>
+        <v>168.8754119873047</v>
       </c>
       <c r="HX4" t="n">
-        <v>37914763800</v>
+        <v>168.7391967773438</v>
       </c>
       <c r="HY4" t="n">
-        <v>37914763800</v>
+        <v>167.6571655273438</v>
       </c>
       <c r="HZ4" t="n">
-        <v>38082491500</v>
+        <v>168.9757080078125</v>
       </c>
       <c r="IA4" t="n">
-        <v>38082491500</v>
+        <v>169.3463745117188</v>
       </c>
       <c r="IB4" t="n">
-        <v>38240463500</v>
+        <v>172.6022338867188</v>
       </c>
       <c r="IC4" t="n">
-        <v>38240463500</v>
+        <v>170.4836578369141</v>
       </c>
       <c r="ID4" t="n">
-        <v>38434702900</v>
+        <v>172.1591186523438</v>
       </c>
       <c r="IE4" t="n">
-        <v>38661023400</v>
+        <v>169.1656494140625</v>
       </c>
       <c r="IF4" t="n">
-        <v>38831854400</v>
+        <v>166.9810333251953</v>
       </c>
       <c r="IG4" t="n">
-        <v>38982498100</v>
+        <v>167.2230987548828</v>
       </c>
       <c r="IH4" t="n">
-        <v>39132137100</v>
+        <v>164.9041137695312</v>
       </c>
       <c r="II4" t="n">
-        <v>39359851200</v>
+        <v>165.1418914794922</v>
       </c>
       <c r="IJ4" t="n">
-        <v>39506770000</v>
+        <v>165.5015869140625</v>
       </c>
       <c r="IK4" t="n">
-        <v>39682262700</v>
+        <v>166.04736328125</v>
       </c>
       <c r="IL4" t="n">
-        <v>39831630700</v>
+        <v>162.0140380859375</v>
       </c>
       <c r="IM4" t="n">
-        <v>39982562100</v>
+        <v>163.2789916992188</v>
       </c>
       <c r="IN4" t="n">
-        <v>49653598300</v>
-      </c>
+        <v>160.7919921875</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>159.4171142578125</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>163.0523681640625</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>162.3228759765625</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>164.1917724609375</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>161.171630859375</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>162.4061279296875</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>164.7563934326172</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>164.2345581054688</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>166.7714233398438</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>168.7146453857422</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>167.9417877197266</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>169.19921875</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>167.8177490234375</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>169.2244262695312</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>168.6281890869141</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>168.0393676757812</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>168.1630249023438</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>172.0167083740234</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>170.22021484375</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>167.8781890869141</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>167.36181640625</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>169.0264282226562</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>164.8190307617188</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>172.9984741210938</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>171.0578002929688</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>171.6024017333984</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>170.1690063476562</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>164.3812866210938</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>168.15087890625</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>173.1915893554688</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>170.2596435546875</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>174.6054840087891</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>172.3457641601562</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>166.89404296875</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>170.7044677734375</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>170.0672149658203</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>168.0555572509766</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>168.0520629882812</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>175.0938110351562</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>171.9983062744141</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>165.5123291015625</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>166.60009765625</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>171.1531982421875</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>171.0895538330078</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>174.327880859375</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>171.5267944335938</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>167.6954345703125</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>169.0181274414062</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>165.3643646240234</v>
+      </c>
+      <c r="KL4" t="inlineStr"/>
+      <c r="KM4" t="inlineStr"/>
+      <c r="KN4" t="inlineStr"/>
+      <c r="KO4" t="inlineStr"/>
+      <c r="KP4" t="inlineStr"/>
+      <c r="KQ4" t="inlineStr"/>
+      <c r="KR4" t="inlineStr"/>
+      <c r="KS4" t="inlineStr"/>
+      <c r="KT4" t="inlineStr"/>
+      <c r="KU4" t="inlineStr"/>
+      <c r="KV4" t="inlineStr"/>
+      <c r="KW4" t="inlineStr"/>
+      <c r="KX4" t="inlineStr"/>
+      <c r="KY4" t="inlineStr"/>
+      <c r="KZ4" t="inlineStr"/>
+      <c r="LA4" t="inlineStr"/>
+      <c r="LB4" t="inlineStr"/>
+      <c r="LC4" t="inlineStr"/>
+      <c r="LD4" t="inlineStr"/>
+      <c r="LE4" t="inlineStr"/>
+      <c r="LF4" t="inlineStr"/>
+      <c r="LG4" t="inlineStr"/>
+      <c r="LH4" t="inlineStr"/>
+      <c r="LI4" t="inlineStr"/>
+      <c r="LJ4" t="inlineStr"/>
+      <c r="LK4" t="inlineStr"/>
+      <c r="LL4" t="inlineStr"/>
+      <c r="LM4" t="inlineStr"/>
+      <c r="LN4" t="inlineStr"/>
+      <c r="LO4" t="inlineStr"/>
+      <c r="LP4" t="inlineStr"/>
+      <c r="LQ4" t="inlineStr"/>
+      <c r="LR4" t="inlineStr"/>
+      <c r="LS4" t="inlineStr"/>
+      <c r="LT4" t="inlineStr"/>
+      <c r="LU4" t="inlineStr"/>
+      <c r="LV4" t="inlineStr"/>
+      <c r="LW4" t="inlineStr"/>
+      <c r="LX4" t="inlineStr"/>
+      <c r="LY4" t="inlineStr"/>
+      <c r="LZ4" t="inlineStr"/>
+      <c r="MA4" t="inlineStr"/>
+      <c r="MB4" t="inlineStr"/>
+      <c r="MC4" t="inlineStr"/>
+      <c r="MD4" t="inlineStr"/>
+      <c r="ME4" t="inlineStr"/>
+      <c r="MF4" t="inlineStr"/>
+      <c r="MG4" t="inlineStr"/>
+      <c r="MH4" t="inlineStr"/>
+      <c r="MI4" t="inlineStr"/>
+      <c r="MJ4" t="inlineStr"/>
+      <c r="MK4" t="inlineStr"/>
+      <c r="ML4" t="inlineStr"/>
+      <c r="MM4" t="inlineStr"/>
+      <c r="MN4" t="inlineStr"/>
+      <c r="MO4" t="inlineStr"/>
+      <c r="MP4" t="inlineStr"/>
+      <c r="MQ4" t="inlineStr"/>
+      <c r="MR4" t="inlineStr"/>
+      <c r="MS4" t="inlineStr"/>
+      <c r="MT4" t="inlineStr"/>
+      <c r="MU4" t="inlineStr"/>
+      <c r="MV4" t="inlineStr"/>
+      <c r="MW4" t="inlineStr"/>
+      <c r="MX4" t="inlineStr"/>
+      <c r="MY4" t="inlineStr"/>
+      <c r="MZ4" t="inlineStr"/>
+      <c r="NA4" t="inlineStr"/>
+      <c r="NB4" t="inlineStr"/>
+      <c r="NC4" t="inlineStr"/>
+      <c r="ND4" t="inlineStr"/>
+      <c r="NE4" t="inlineStr"/>
+      <c r="NF4" t="inlineStr"/>
+      <c r="NG4" t="inlineStr"/>
+      <c r="NH4" t="inlineStr"/>
+      <c r="NI4" t="inlineStr"/>
+      <c r="NJ4" t="inlineStr"/>
+      <c r="NK4" t="inlineStr"/>
+      <c r="NL4" t="inlineStr"/>
+      <c r="NM4" t="inlineStr"/>
+      <c r="NN4" t="inlineStr"/>
+      <c r="NO4" t="inlineStr"/>
+      <c r="NP4" t="inlineStr"/>
+      <c r="NQ4" t="inlineStr"/>
+      <c r="NR4" t="inlineStr"/>
+      <c r="NS4" t="inlineStr"/>
+      <c r="NT4" t="inlineStr"/>
+      <c r="NU4" t="inlineStr"/>
+      <c r="NV4" t="inlineStr"/>
+      <c r="NW4" t="inlineStr"/>
+      <c r="NX4" t="inlineStr"/>
+      <c r="NY4" t="inlineStr"/>
+      <c r="NZ4" t="inlineStr"/>
+      <c r="OA4" t="inlineStr"/>
+      <c r="OB4" t="inlineStr"/>
+      <c r="OC4" t="inlineStr"/>
+      <c r="OD4" t="inlineStr"/>
+      <c r="OE4" t="inlineStr"/>
+      <c r="OF4" t="inlineStr"/>
+      <c r="OG4" t="inlineStr"/>
+      <c r="OH4" t="inlineStr"/>
+      <c r="OI4" t="inlineStr"/>
+      <c r="OJ4" t="inlineStr"/>
+      <c r="OK4" t="inlineStr"/>
+      <c r="OL4" t="inlineStr"/>
+      <c r="OM4" t="inlineStr"/>
+      <c r="ON4" t="inlineStr"/>
+      <c r="OO4" t="inlineStr"/>
+      <c r="OP4" t="inlineStr"/>
+      <c r="OQ4" t="inlineStr"/>
+      <c r="OR4" t="inlineStr"/>
+      <c r="OS4" t="inlineStr"/>
+      <c r="OT4" t="inlineStr"/>
+      <c r="OU4" t="inlineStr"/>
+      <c r="OV4" t="inlineStr"/>
+      <c r="OW4" t="inlineStr"/>
+      <c r="OX4" t="inlineStr"/>
+      <c r="OY4" t="inlineStr"/>
+      <c r="OZ4" t="inlineStr"/>
+      <c r="PA4" t="inlineStr"/>
+      <c r="PB4" t="inlineStr"/>
+      <c r="PC4" t="inlineStr"/>
+      <c r="PD4" t="inlineStr"/>
+      <c r="PE4" t="inlineStr"/>
+      <c r="PF4" t="inlineStr"/>
+      <c r="PG4" t="inlineStr"/>
+      <c r="PH4" t="inlineStr"/>
+      <c r="PI4" t="inlineStr"/>
+      <c r="PJ4" t="inlineStr"/>
+      <c r="PK4" t="inlineStr"/>
+      <c r="PL4" t="inlineStr"/>
+      <c r="PM4" t="inlineStr"/>
+      <c r="PN4" t="inlineStr"/>
+      <c r="PO4" t="inlineStr"/>
+      <c r="PP4" t="inlineStr"/>
+      <c r="PQ4" t="inlineStr"/>
+      <c r="PR4" t="inlineStr"/>
+      <c r="PS4" t="inlineStr"/>
+      <c r="PT4" t="inlineStr"/>
+      <c r="PU4" t="inlineStr"/>
+      <c r="PV4" t="inlineStr"/>
+      <c r="PW4" t="inlineStr"/>
+      <c r="PX4" t="inlineStr"/>
+      <c r="PY4" t="inlineStr"/>
+      <c r="PZ4" t="inlineStr"/>
+      <c r="QA4" t="inlineStr"/>
+      <c r="QB4" t="inlineStr"/>
+      <c r="QC4" t="inlineStr"/>
+      <c r="QD4" t="inlineStr"/>
+      <c r="QE4" t="inlineStr"/>
+      <c r="QF4" t="inlineStr"/>
+      <c r="QG4" t="inlineStr"/>
+      <c r="QH4" t="inlineStr"/>
+      <c r="QI4" t="inlineStr"/>
+      <c r="QJ4" t="inlineStr"/>
+      <c r="QK4" t="inlineStr"/>
+      <c r="QL4" t="inlineStr"/>
+      <c r="QM4" t="inlineStr"/>
+      <c r="QN4" t="inlineStr"/>
+      <c r="QO4" t="inlineStr"/>
+      <c r="QP4" t="inlineStr"/>
+      <c r="QQ4" t="inlineStr"/>
+      <c r="QR4" t="inlineStr"/>
+      <c r="QS4" t="inlineStr"/>
+      <c r="QT4" t="inlineStr"/>
+      <c r="QU4" t="inlineStr"/>
+      <c r="QV4" t="inlineStr"/>
+      <c r="QW4" t="inlineStr"/>
+      <c r="QX4" t="inlineStr"/>
+      <c r="QY4" t="inlineStr"/>
+      <c r="QZ4" t="inlineStr"/>
+      <c r="RA4" t="inlineStr"/>
+      <c r="RB4" t="inlineStr"/>
+      <c r="RC4" t="inlineStr"/>
+      <c r="RD4" t="inlineStr"/>
+      <c r="RE4" t="inlineStr"/>
+      <c r="RF4" t="inlineStr"/>
+      <c r="RG4" t="inlineStr"/>
+      <c r="RH4" t="inlineStr"/>
+      <c r="RI4" t="inlineStr"/>
+      <c r="RJ4" t="inlineStr"/>
+      <c r="RK4" t="inlineStr"/>
+      <c r="RL4" t="inlineStr"/>
+      <c r="RM4" t="inlineStr"/>
+      <c r="RN4" t="inlineStr"/>
+      <c r="RO4" t="inlineStr"/>
+      <c r="RP4" t="inlineStr"/>
+      <c r="RQ4" t="inlineStr"/>
+      <c r="RR4" t="inlineStr"/>
+      <c r="RS4" t="inlineStr"/>
+      <c r="RT4" t="inlineStr"/>
+      <c r="RU4" t="inlineStr"/>
+      <c r="RV4" t="inlineStr"/>
+      <c r="RW4" t="inlineStr"/>
+      <c r="RX4" t="inlineStr"/>
+      <c r="RY4" t="inlineStr"/>
+      <c r="RZ4" t="inlineStr"/>
+      <c r="SA4" t="inlineStr"/>
+      <c r="SB4" t="inlineStr"/>
+      <c r="SC4" t="inlineStr"/>
+      <c r="SD4" t="inlineStr"/>
+      <c r="SE4" t="inlineStr"/>
+      <c r="SF4" t="inlineStr"/>
+      <c r="SG4" t="inlineStr"/>
+      <c r="SH4" t="inlineStr"/>
+      <c r="SI4" t="inlineStr"/>
+      <c r="SJ4" t="inlineStr"/>
+      <c r="SK4" t="inlineStr"/>
+      <c r="SL4" t="inlineStr"/>
+      <c r="SM4" t="inlineStr"/>
+      <c r="SN4" t="inlineStr"/>
+      <c r="SO4" t="inlineStr"/>
+      <c r="SP4" t="inlineStr"/>
+      <c r="SQ4" t="inlineStr"/>
+      <c r="SR4" t="inlineStr"/>
+      <c r="SS4" t="inlineStr"/>
+      <c r="ST4" t="inlineStr"/>
+      <c r="SU4" t="inlineStr"/>
+      <c r="SV4" t="inlineStr"/>
+      <c r="SW4" t="inlineStr"/>
+      <c r="SX4" t="inlineStr"/>
+      <c r="SY4" t="inlineStr"/>
+      <c r="SZ4" t="inlineStr"/>
+      <c r="TA4" t="inlineStr"/>
+      <c r="TB4" t="inlineStr"/>
+      <c r="TC4" t="inlineStr"/>
+      <c r="TD4" t="inlineStr"/>
+      <c r="TE4" t="inlineStr"/>
+      <c r="TF4" t="inlineStr"/>
+      <c r="TG4" t="inlineStr"/>
+      <c r="TH4" t="inlineStr"/>
+      <c r="TI4" t="inlineStr"/>
+      <c r="TJ4" t="inlineStr"/>
+      <c r="TK4" t="inlineStr"/>
+      <c r="TL4" t="inlineStr"/>
+      <c r="TM4" t="inlineStr"/>
+      <c r="TN4" t="inlineStr"/>
+      <c r="TO4" t="inlineStr"/>
+      <c r="TP4" t="inlineStr"/>
+      <c r="TQ4" t="inlineStr"/>
+      <c r="TR4" t="inlineStr"/>
+      <c r="TS4" t="inlineStr"/>
+      <c r="TT4" t="inlineStr"/>
+      <c r="TU4" t="inlineStr"/>
+      <c r="TV4" t="inlineStr"/>
+      <c r="TW4" t="inlineStr"/>
+      <c r="TX4" t="inlineStr"/>
+      <c r="TY4" t="inlineStr"/>
+      <c r="TZ4" t="inlineStr"/>
+      <c r="UA4" t="inlineStr"/>
+      <c r="UB4" t="inlineStr"/>
+      <c r="UC4" t="inlineStr"/>
+      <c r="UD4" t="inlineStr"/>
+      <c r="UE4" t="inlineStr"/>
+      <c r="UF4" t="inlineStr"/>
+      <c r="UG4" t="inlineStr"/>
+      <c r="UH4" t="inlineStr"/>
+      <c r="UI4" t="inlineStr"/>
+      <c r="UJ4" t="inlineStr"/>
+      <c r="UK4" t="inlineStr"/>
+      <c r="UL4" t="inlineStr"/>
+      <c r="UM4" t="inlineStr"/>
+      <c r="UN4" t="inlineStr"/>
+      <c r="UO4" t="inlineStr"/>
+      <c r="UP4" t="inlineStr"/>
+      <c r="UQ4" t="inlineStr"/>
+      <c r="UR4" t="inlineStr"/>
+      <c r="US4" t="inlineStr"/>
+      <c r="UT4" t="inlineStr"/>
+      <c r="UU4" t="inlineStr"/>
+      <c r="UV4" t="inlineStr"/>
+      <c r="UW4" t="inlineStr"/>
+      <c r="UX4" t="inlineStr"/>
+      <c r="UY4" t="inlineStr"/>
+      <c r="UZ4" t="inlineStr"/>
+      <c r="VA4" t="inlineStr"/>
+      <c r="VB4" t="inlineStr"/>
+      <c r="VC4" t="inlineStr"/>
+      <c r="VD4" t="inlineStr"/>
+      <c r="VE4" t="inlineStr"/>
+      <c r="VF4" t="inlineStr"/>
+      <c r="VG4" t="inlineStr"/>
+      <c r="VH4" t="inlineStr"/>
+      <c r="VI4" t="inlineStr"/>
+      <c r="VJ4" t="inlineStr"/>
+      <c r="VK4" t="inlineStr"/>
+      <c r="VL4" t="inlineStr"/>
+      <c r="VM4" t="inlineStr"/>
+      <c r="VN4" t="inlineStr"/>
+      <c r="VO4" t="inlineStr"/>
+      <c r="VP4" t="inlineStr"/>
+      <c r="VQ4" t="inlineStr"/>
+      <c r="VR4" t="inlineStr"/>
+      <c r="VS4" t="inlineStr"/>
+      <c r="VT4" t="inlineStr"/>
+      <c r="VU4" t="inlineStr"/>
+      <c r="VV4" t="inlineStr"/>
+      <c r="VW4" t="inlineStr"/>
+      <c r="VX4" t="inlineStr"/>
+      <c r="VY4" t="inlineStr"/>
+      <c r="VZ4" t="inlineStr"/>
+      <c r="WA4" t="inlineStr"/>
+      <c r="WB4" t="inlineStr"/>
+      <c r="WC4" t="inlineStr"/>
+      <c r="WD4" t="inlineStr"/>
+      <c r="WE4" t="inlineStr"/>
+      <c r="WF4" t="inlineStr"/>
+      <c r="WG4" t="inlineStr"/>
+      <c r="WH4" t="inlineStr"/>
+      <c r="WI4" t="inlineStr"/>
+      <c r="WJ4" t="inlineStr"/>
+      <c r="WK4" t="inlineStr"/>
+      <c r="WL4" t="inlineStr"/>
+      <c r="WM4" t="inlineStr"/>
+      <c r="WN4" t="inlineStr"/>
+      <c r="WO4" t="inlineStr"/>
+      <c r="WP4" t="inlineStr"/>
+      <c r="WQ4" t="inlineStr"/>
+      <c r="WR4" t="inlineStr"/>
+      <c r="WS4" t="inlineStr"/>
+      <c r="WT4" t="inlineStr"/>
+      <c r="WU4" t="inlineStr"/>
+      <c r="WV4" t="inlineStr"/>
+      <c r="WW4" t="inlineStr"/>
+      <c r="WX4" t="inlineStr"/>
+      <c r="WY4" t="inlineStr"/>
+      <c r="WZ4" t="inlineStr"/>
+      <c r="XA4" t="inlineStr"/>
+      <c r="XB4" t="inlineStr"/>
+      <c r="XC4" t="inlineStr"/>
+      <c r="XD4" t="inlineStr"/>
+      <c r="XE4" t="inlineStr"/>
+      <c r="XF4" t="inlineStr"/>
+      <c r="XG4" t="inlineStr"/>
+      <c r="XH4" t="inlineStr"/>
+      <c r="XI4" t="inlineStr"/>
+      <c r="XJ4" t="inlineStr"/>
+      <c r="XK4" t="inlineStr"/>
+      <c r="XL4" t="inlineStr"/>
+      <c r="XM4" t="inlineStr"/>
+      <c r="XN4" t="inlineStr"/>
+      <c r="XO4" t="inlineStr"/>
+      <c r="XP4" t="inlineStr"/>
+      <c r="XQ4" t="inlineStr"/>
+      <c r="XR4" t="inlineStr"/>
+      <c r="XS4" t="inlineStr"/>
+      <c r="XT4" t="inlineStr"/>
+      <c r="XU4" t="inlineStr"/>
+      <c r="XV4" t="inlineStr"/>
+      <c r="XW4" t="inlineStr"/>
+      <c r="XX4" t="inlineStr"/>
+      <c r="XY4" t="inlineStr"/>
+      <c r="XZ4" t="inlineStr"/>
+      <c r="YA4" t="inlineStr"/>
+      <c r="YB4" t="inlineStr"/>
+      <c r="YC4" t="inlineStr"/>
+      <c r="YD4" t="inlineStr"/>
+      <c r="YE4" t="inlineStr"/>
+      <c r="YF4" t="inlineStr"/>
+      <c r="YG4" t="inlineStr"/>
+      <c r="YH4" t="inlineStr"/>
+      <c r="YI4" t="inlineStr"/>
+      <c r="YJ4" t="inlineStr"/>
+      <c r="YK4" t="inlineStr"/>
+      <c r="YL4" t="inlineStr"/>
+      <c r="YM4" t="inlineStr"/>
+      <c r="YN4" t="inlineStr"/>
+      <c r="YO4" t="inlineStr"/>
+      <c r="YP4" t="inlineStr"/>
+      <c r="YQ4" t="inlineStr"/>
+      <c r="YR4" t="inlineStr"/>
+      <c r="YS4" t="inlineStr"/>
+      <c r="YT4" t="inlineStr"/>
+      <c r="YU4" t="inlineStr"/>
+      <c r="YV4" t="inlineStr"/>
+      <c r="YW4" t="inlineStr"/>
+      <c r="YX4" t="inlineStr"/>
+      <c r="YY4" t="inlineStr"/>
+      <c r="YZ4" t="inlineStr"/>
+      <c r="ZA4" t="inlineStr"/>
+      <c r="ZB4" t="inlineStr"/>
+      <c r="ZC4" t="inlineStr"/>
+      <c r="ZD4" t="inlineStr"/>
+      <c r="ZE4" t="inlineStr"/>
+      <c r="ZF4" t="inlineStr"/>
+      <c r="ZG4" t="inlineStr"/>
+      <c r="ZH4" t="inlineStr"/>
+      <c r="ZI4" t="inlineStr"/>
+      <c r="ZJ4" t="inlineStr"/>
+      <c r="ZK4" t="inlineStr"/>
+      <c r="ZL4" t="inlineStr"/>
+      <c r="ZM4" t="inlineStr"/>
+      <c r="ZN4" t="inlineStr"/>
+      <c r="ZO4" t="inlineStr"/>
+      <c r="ZP4" t="inlineStr"/>
+      <c r="ZQ4" t="inlineStr"/>
+      <c r="ZR4" t="inlineStr"/>
+      <c r="ZS4" t="inlineStr"/>
+      <c r="ZT4" t="inlineStr"/>
+      <c r="ZU4" t="inlineStr"/>
+      <c r="ZV4" t="inlineStr"/>
+      <c r="ZW4" t="inlineStr"/>
+      <c r="ZX4" t="inlineStr"/>
+      <c r="ZY4" t="inlineStr"/>
+      <c r="ZZ4" t="inlineStr"/>
+      <c r="AAA4" t="inlineStr"/>
+      <c r="AAB4" t="inlineStr"/>
+      <c r="AAC4" t="inlineStr"/>
+      <c r="AAD4" t="inlineStr"/>
+      <c r="AAE4" t="inlineStr"/>
+      <c r="AAF4" t="inlineStr"/>
+      <c r="AAG4" t="inlineStr"/>
+      <c r="AAH4" t="inlineStr"/>
+      <c r="AAI4" t="inlineStr"/>
+      <c r="AAJ4" t="inlineStr"/>
+      <c r="AAK4" t="inlineStr"/>
+      <c r="AAL4" t="inlineStr"/>
+      <c r="AAM4" t="inlineStr"/>
+      <c r="AAN4" t="inlineStr"/>
+      <c r="AAO4" t="inlineStr"/>
+      <c r="AAP4" t="inlineStr"/>
+      <c r="AAQ4" t="inlineStr"/>
+      <c r="AAR4" t="inlineStr"/>
+      <c r="AAS4" t="inlineStr"/>
+      <c r="AAT4" t="inlineStr"/>
+      <c r="AAU4" t="inlineStr"/>
+      <c r="AAV4" t="inlineStr"/>
+      <c r="AAW4" t="inlineStr"/>
+      <c r="AAX4" t="inlineStr"/>
+      <c r="AAY4" t="inlineStr"/>
+      <c r="AAZ4" t="inlineStr"/>
+      <c r="ABA4" t="inlineStr"/>
+      <c r="ABB4" t="inlineStr"/>
+      <c r="ABC4" t="inlineStr"/>
+      <c r="ABD4" t="inlineStr"/>
+      <c r="ABE4" t="inlineStr"/>
+      <c r="ABF4" t="inlineStr"/>
+      <c r="ABG4" t="inlineStr"/>
+      <c r="ABH4" t="inlineStr"/>
+      <c r="ABI4" t="inlineStr"/>
+      <c r="ABJ4" t="inlineStr"/>
+      <c r="ABK4" t="inlineStr"/>
+      <c r="ABL4" t="inlineStr"/>
+      <c r="ABM4" t="inlineStr"/>
+      <c r="ABN4" t="inlineStr"/>
+      <c r="ABO4" t="inlineStr"/>
+      <c r="ABP4" t="inlineStr"/>
+      <c r="ABQ4" t="inlineStr"/>
+      <c r="ABR4" t="inlineStr"/>
+      <c r="ABS4" t="inlineStr"/>
+      <c r="ABT4" t="inlineStr"/>
+      <c r="ABU4" t="inlineStr"/>
+      <c r="ABV4" t="inlineStr"/>
+      <c r="ABW4" t="inlineStr"/>
+      <c r="ABX4" t="inlineStr"/>
+      <c r="ABY4" t="inlineStr"/>
+      <c r="ABZ4" t="inlineStr"/>
+      <c r="ACA4" t="inlineStr"/>
+      <c r="ACB4" t="inlineStr"/>
+      <c r="ACC4" t="inlineStr"/>
+      <c r="ACD4" t="inlineStr"/>
+      <c r="ACE4" t="inlineStr"/>
+      <c r="ACF4" t="inlineStr"/>
+      <c r="ACG4" t="inlineStr"/>
+      <c r="ACH4" t="inlineStr"/>
+      <c r="ACI4" t="inlineStr"/>
+      <c r="ACJ4" t="inlineStr"/>
+      <c r="ACK4" t="inlineStr"/>
+      <c r="ACL4" t="inlineStr"/>
+      <c r="ACM4" t="inlineStr"/>
+      <c r="ACN4" t="inlineStr"/>
+      <c r="ACO4" t="inlineStr"/>
+      <c r="ACP4" t="inlineStr"/>
+      <c r="ACQ4" t="inlineStr"/>
+      <c r="ACR4" t="inlineStr"/>
+      <c r="ACS4" t="inlineStr"/>
+      <c r="ACT4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JB7"/>
+  <dimension ref="A1:QN7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,266 +1220,722 @@
       <c r="JB1" s="1" t="n">
         <v>261</v>
       </c>
+      <c r="JC1" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="NN1" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="NO1" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="NP1" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="NQ1" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="NR1" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="NS1" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="NT1" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="NU1" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="NV1" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="NW1" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="NX1" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="NY1" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="NZ1" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="OA1" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="OB1" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="OC1" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="OD1" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="OE1" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="OF1" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="OG1" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="OH1" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="OI1" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="OJ1" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="OK1" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="OL1" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="OM1" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="ON1" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="OO1" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="OP1" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="OQ1" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="OR1" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="OS1" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="OT1" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="OU1" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="OV1" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="OW1" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="OX1" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="OY1" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="OZ1" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="PA1" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="PB1" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="PC1" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="PD1" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="PE1" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="PF1" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="PG1" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="PH1" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="PI1" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="PJ1" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="PK1" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="PL1" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="PM1" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="PN1" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="PO1" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="PP1" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="PQ1" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="PR1" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="PS1" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="PT1" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="PU1" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="PV1" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="PW1" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="PX1" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="PY1" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="PZ1" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="QA1" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="QB1" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="QC1" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="QD1" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="QE1" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="QF1" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="QG1" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="QH1" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="QI1" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="QJ1" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="QK1" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="QL1" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="QM1" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="QN1" s="1" t="n">
+        <v>455</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.06692517548799515</v>
+        <v>-0.06733779609203339</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.06746029853820801</v>
+        <v>-0.06509625166654587</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.06585341691970825</v>
+        <v>-0.06193157285451889</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.06341979652643204</v>
+        <v>-0.05814788863062859</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.06186064332723618</v>
+        <v>-0.05415559560060501</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05950059369206429</v>
+        <v>-0.0503251813352108</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.05739707499742508</v>
+        <v>-0.04543959349393845</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.05487149953842163</v>
+        <v>-0.04107201844453812</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05329282209277153</v>
+        <v>-0.03641977161169052</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.05172048136591911</v>
+        <v>-0.03325681015849113</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.05060695856809616</v>
+        <v>-0.0288359746336937</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0499286986887455</v>
+        <v>-0.02444791421294212</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.04942241683602333</v>
+        <v>-0.02220345288515091</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.05115868896245956</v>
+        <v>-0.01951327174901962</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.05273919925093651</v>
+        <v>-0.01576397940516472</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05456846952438354</v>
+        <v>-0.01249086763709784</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.05605130270123482</v>
+        <v>-0.01033401861786842</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.05867482721805573</v>
+        <v>-0.007665322162210941</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.06079112365841866</v>
+        <v>-0.006208427250385284</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.06264760345220566</v>
+        <v>-0.004514754749834538</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.06267207115888596</v>
+        <v>-0.003870802000164986</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.06247010827064514</v>
+        <v>-0.002959828823804855</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.06142625957727432</v>
-      </c>
-      <c r="X2" t="n">
-        <v>-0.05928612500429153</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>-0.05706394463777542</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-0.05466137081384659</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-0.05152180790901184</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>-0.05046691000461578</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>-0.05017202347517014</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>-0.05004359036684036</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-0.05106116458773613</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>-0.05238272249698639</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>-0.055472232401371</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>-0.05796147510409355</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>-0.05991891771554947</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>-0.06245601922273636</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>-0.06413497775793076</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>-0.06517532467842102</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>-0.06500643491744995</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-0.06354842334985733</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>-0.0611766055226326</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-0.05832767114043236</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>-0.05617906898260117</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-0.05431640148162842</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-0.05364474281668663</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-0.05364762246608734</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>-0.05463435500860214</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>-0.0568317137658596</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-0.05898102000355721</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-0.06192288175225258</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>-0.06374954432249069</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>-0.06582195311784744</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>-0.06878097355365753</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>-0.06888381391763687</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>-0.0687771663069725</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>-0.06815953552722931</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>-0.06652884930372238</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>-0.06429626792669296</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>-0.06140569970011711</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>-0.05536394193768501</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>-0.05536924302577972</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>-0.05540480837225914</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>-0.05610391870141029</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>-0.05825204029679298</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>-0.06001719459891319</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>-0.06199700385332108</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>-0.06313012540340424</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>-0.06353689730167389</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>-0.06336931139230728</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-0.06247962266206741</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>-0.06034526601433754</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>-0.05814698338508606</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>-0.05482126027345657</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-0.05237388610839844</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>-0.05022154375910759</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>-0.05003521218895912</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>-0.05011215433478355</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>-0.05042670667171478</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>-0.05188991501927376</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>-0.05499637871980667</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>-0.05736562609672546</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>-0.05985467508435249</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>-0.06190907955169678</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>-0.06303402036428452</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-0.06420085579156876</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-0.06408782303333282</v>
-      </c>
+        <v>-0.001392986625432968</v>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
       <c r="CI2" t="inlineStr"/>
       <c r="CJ2" t="inlineStr"/>
       <c r="CK2" t="inlineStr"/>
@@ -1656,266 +2112,334 @@
       <c r="IZ2" t="inlineStr"/>
       <c r="JA2" t="inlineStr"/>
       <c r="JB2" t="inlineStr"/>
+      <c r="JC2" t="inlineStr"/>
+      <c r="JD2" t="inlineStr"/>
+      <c r="JE2" t="inlineStr"/>
+      <c r="JF2" t="inlineStr"/>
+      <c r="JG2" t="inlineStr"/>
+      <c r="JH2" t="inlineStr"/>
+      <c r="JI2" t="inlineStr"/>
+      <c r="JJ2" t="inlineStr"/>
+      <c r="JK2" t="inlineStr"/>
+      <c r="JL2" t="inlineStr"/>
+      <c r="JM2" t="inlineStr"/>
+      <c r="JN2" t="inlineStr"/>
+      <c r="JO2" t="inlineStr"/>
+      <c r="JP2" t="inlineStr"/>
+      <c r="JQ2" t="inlineStr"/>
+      <c r="JR2" t="inlineStr"/>
+      <c r="JS2" t="inlineStr"/>
+      <c r="JT2" t="inlineStr"/>
+      <c r="JU2" t="inlineStr"/>
+      <c r="JV2" t="inlineStr"/>
+      <c r="JW2" t="inlineStr"/>
+      <c r="JX2" t="inlineStr"/>
+      <c r="JY2" t="inlineStr"/>
+      <c r="JZ2" t="inlineStr"/>
+      <c r="KA2" t="inlineStr"/>
+      <c r="KB2" t="inlineStr"/>
+      <c r="KC2" t="inlineStr"/>
+      <c r="KD2" t="inlineStr"/>
+      <c r="KE2" t="inlineStr"/>
+      <c r="KF2" t="inlineStr"/>
+      <c r="KG2" t="inlineStr"/>
+      <c r="KH2" t="inlineStr"/>
+      <c r="KI2" t="inlineStr"/>
+      <c r="KJ2" t="inlineStr"/>
+      <c r="KK2" t="inlineStr"/>
+      <c r="KL2" t="inlineStr"/>
+      <c r="KM2" t="inlineStr"/>
+      <c r="KN2" t="inlineStr"/>
+      <c r="KO2" t="inlineStr"/>
+      <c r="KP2" t="inlineStr"/>
+      <c r="KQ2" t="inlineStr"/>
+      <c r="KR2" t="inlineStr"/>
+      <c r="KS2" t="inlineStr"/>
+      <c r="KT2" t="inlineStr"/>
+      <c r="KU2" t="inlineStr"/>
+      <c r="KV2" t="inlineStr"/>
+      <c r="KW2" t="inlineStr"/>
+      <c r="KX2" t="inlineStr"/>
+      <c r="KY2" t="inlineStr"/>
+      <c r="KZ2" t="inlineStr"/>
+      <c r="LA2" t="inlineStr"/>
+      <c r="LB2" t="inlineStr"/>
+      <c r="LC2" t="inlineStr"/>
+      <c r="LD2" t="inlineStr"/>
+      <c r="LE2" t="inlineStr"/>
+      <c r="LF2" t="inlineStr"/>
+      <c r="LG2" t="inlineStr"/>
+      <c r="LH2" t="inlineStr"/>
+      <c r="LI2" t="inlineStr"/>
+      <c r="LJ2" t="inlineStr"/>
+      <c r="LK2" t="inlineStr"/>
+      <c r="LL2" t="inlineStr"/>
+      <c r="LM2" t="inlineStr"/>
+      <c r="LN2" t="inlineStr"/>
+      <c r="LO2" t="inlineStr"/>
+      <c r="LP2" t="inlineStr"/>
+      <c r="LQ2" t="inlineStr"/>
+      <c r="LR2" t="inlineStr"/>
+      <c r="LS2" t="inlineStr"/>
+      <c r="LT2" t="inlineStr"/>
+      <c r="LU2" t="inlineStr"/>
+      <c r="LV2" t="inlineStr"/>
+      <c r="LW2" t="inlineStr"/>
+      <c r="LX2" t="inlineStr"/>
+      <c r="LY2" t="inlineStr"/>
+      <c r="LZ2" t="inlineStr"/>
+      <c r="MA2" t="inlineStr"/>
+      <c r="MB2" t="inlineStr"/>
+      <c r="MC2" t="inlineStr"/>
+      <c r="MD2" t="inlineStr"/>
+      <c r="ME2" t="inlineStr"/>
+      <c r="MF2" t="inlineStr"/>
+      <c r="MG2" t="inlineStr"/>
+      <c r="MH2" t="inlineStr"/>
+      <c r="MI2" t="inlineStr"/>
+      <c r="MJ2" t="inlineStr"/>
+      <c r="MK2" t="inlineStr"/>
+      <c r="ML2" t="inlineStr"/>
+      <c r="MM2" t="inlineStr"/>
+      <c r="MN2" t="inlineStr"/>
+      <c r="MO2" t="inlineStr"/>
+      <c r="MP2" t="inlineStr"/>
+      <c r="MQ2" t="inlineStr"/>
+      <c r="MR2" t="inlineStr"/>
+      <c r="MS2" t="inlineStr"/>
+      <c r="MT2" t="inlineStr"/>
+      <c r="MU2" t="inlineStr"/>
+      <c r="MV2" t="inlineStr"/>
+      <c r="MW2" t="inlineStr"/>
+      <c r="MX2" t="inlineStr"/>
+      <c r="MY2" t="inlineStr"/>
+      <c r="MZ2" t="inlineStr"/>
+      <c r="NA2" t="inlineStr"/>
+      <c r="NB2" t="inlineStr"/>
+      <c r="NC2" t="inlineStr"/>
+      <c r="ND2" t="inlineStr"/>
+      <c r="NE2" t="inlineStr"/>
+      <c r="NF2" t="inlineStr"/>
+      <c r="NG2" t="inlineStr"/>
+      <c r="NH2" t="inlineStr"/>
+      <c r="NI2" t="inlineStr"/>
+      <c r="NJ2" t="inlineStr"/>
+      <c r="NK2" t="inlineStr"/>
+      <c r="NL2" t="inlineStr"/>
+      <c r="NM2" t="inlineStr"/>
+      <c r="NN2" t="inlineStr"/>
+      <c r="NO2" t="inlineStr"/>
+      <c r="NP2" t="inlineStr"/>
+      <c r="NQ2" t="inlineStr"/>
+      <c r="NR2" t="inlineStr"/>
+      <c r="NS2" t="inlineStr"/>
+      <c r="NT2" t="inlineStr"/>
+      <c r="NU2" t="inlineStr"/>
+      <c r="NV2" t="inlineStr"/>
+      <c r="NW2" t="inlineStr"/>
+      <c r="NX2" t="inlineStr"/>
+      <c r="NY2" t="inlineStr"/>
+      <c r="NZ2" t="inlineStr"/>
+      <c r="OA2" t="inlineStr"/>
+      <c r="OB2" t="inlineStr"/>
+      <c r="OC2" t="inlineStr"/>
+      <c r="OD2" t="inlineStr"/>
+      <c r="OE2" t="inlineStr"/>
+      <c r="OF2" t="inlineStr"/>
+      <c r="OG2" t="inlineStr"/>
+      <c r="OH2" t="inlineStr"/>
+      <c r="OI2" t="inlineStr"/>
+      <c r="OJ2" t="inlineStr"/>
+      <c r="OK2" t="inlineStr"/>
+      <c r="OL2" t="inlineStr"/>
+      <c r="OM2" t="inlineStr"/>
+      <c r="ON2" t="inlineStr"/>
+      <c r="OO2" t="inlineStr"/>
+      <c r="OP2" t="inlineStr"/>
+      <c r="OQ2" t="inlineStr"/>
+      <c r="OR2" t="inlineStr"/>
+      <c r="OS2" t="inlineStr"/>
+      <c r="OT2" t="inlineStr"/>
+      <c r="OU2" t="inlineStr"/>
+      <c r="OV2" t="inlineStr"/>
+      <c r="OW2" t="inlineStr"/>
+      <c r="OX2" t="inlineStr"/>
+      <c r="OY2" t="inlineStr"/>
+      <c r="OZ2" t="inlineStr"/>
+      <c r="PA2" t="inlineStr"/>
+      <c r="PB2" t="inlineStr"/>
+      <c r="PC2" t="inlineStr"/>
+      <c r="PD2" t="inlineStr"/>
+      <c r="PE2" t="inlineStr"/>
+      <c r="PF2" t="inlineStr"/>
+      <c r="PG2" t="inlineStr"/>
+      <c r="PH2" t="inlineStr"/>
+      <c r="PI2" t="inlineStr"/>
+      <c r="PJ2" t="inlineStr"/>
+      <c r="PK2" t="inlineStr"/>
+      <c r="PL2" t="inlineStr"/>
+      <c r="PM2" t="inlineStr"/>
+      <c r="PN2" t="inlineStr"/>
+      <c r="PO2" t="inlineStr"/>
+      <c r="PP2" t="inlineStr"/>
+      <c r="PQ2" t="inlineStr"/>
+      <c r="PR2" t="inlineStr"/>
+      <c r="PS2" t="inlineStr"/>
+      <c r="PT2" t="inlineStr"/>
+      <c r="PU2" t="inlineStr"/>
+      <c r="PV2" t="inlineStr"/>
+      <c r="PW2" t="inlineStr"/>
+      <c r="PX2" t="inlineStr"/>
+      <c r="PY2" t="inlineStr"/>
+      <c r="PZ2" t="inlineStr"/>
+      <c r="QA2" t="inlineStr"/>
+      <c r="QB2" t="inlineStr"/>
+      <c r="QC2" t="inlineStr"/>
+      <c r="QD2" t="inlineStr"/>
+      <c r="QE2" t="inlineStr"/>
+      <c r="QF2" t="inlineStr"/>
+      <c r="QG2" t="inlineStr"/>
+      <c r="QH2" t="inlineStr"/>
+      <c r="QI2" t="inlineStr"/>
+      <c r="QJ2" t="inlineStr"/>
+      <c r="QK2" t="inlineStr"/>
+      <c r="QL2" t="inlineStr"/>
+      <c r="QM2" t="inlineStr"/>
+      <c r="QN2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2518288493156433</v>
+        <v>0.2518417835235596</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2519148290157318</v>
+        <v>0.2519578039646149</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2544423341751099</v>
+        <v>0.2543628215789795</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2569788992404938</v>
+        <v>0.2557584345340729</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2581396102905273</v>
+        <v>0.2568258047103882</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2602764070034027</v>
+        <v>0.2585521042346954</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2620599865913391</v>
+        <v>0.2593674659729004</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2642027735710144</v>
+        <v>0.2599622309207916</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2658939361572266</v>
+        <v>0.259964644908905</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2659438848495483</v>
+        <v>0.2606457471847534</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2675025463104248</v>
+        <v>0.2605443298816681</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2701063752174377</v>
+        <v>0.2604066729545593</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2725972235202789</v>
+        <v>0.2598829865455627</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2743850648403168</v>
+        <v>0.2601296603679657</v>
       </c>
       <c r="O3" t="n">
-        <v>0.276838481426239</v>
+        <v>0.2595642507076263</v>
       </c>
       <c r="P3" t="n">
-        <v>0.27896848320961</v>
+        <v>0.2603908181190491</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2798276245594025</v>
+        <v>0.2608553171157837</v>
       </c>
       <c r="R3" t="n">
-        <v>0.279219001531601</v>
+        <v>0.2610077857971191</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2775462865829468</v>
+        <v>0.2607161700725555</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2763134837150574</v>
+        <v>0.2600250542163849</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2746580243110657</v>
+        <v>0.2590676844120026</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2727731466293335</v>
+        <v>0.2575496733188629</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2714954614639282</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.2694687247276306</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.2675118744373322</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.2656648755073547</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.26387619972229</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.2617598474025726</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.2597345113754272</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.2574687600135803</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.2554968595504761</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.2536133527755737</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.2517627775669098</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.2519388496875763</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.2539983093738556</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.2556303441524506</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.2576410174369812</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.2574948370456696</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.2551975846290588</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.2536008954048157</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.2514160871505737</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.2492576986551285</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.2470940053462982</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0.2451871037483215</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0.2428553849458694</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0.2410112470388412</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0.2417522966861725</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0.2438690364360809</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0.2457065582275391</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0.2472222596406937</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0.2499526143074036</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0.2510242760181427</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0.2526896893978119</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0.251951277256012</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0.2514403760433197</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0.248889833688736</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0.2472351640462875</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0.2450920194387436</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0.2430571317672729</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0.2414771169424057</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0.241481751203537</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0.2411247789859772</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0.2445987462997437</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0.246074452996254</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0.2480327039957047</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0.2470087707042694</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>0.2454162389039993</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0.2432999908924103</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0.2414219081401825</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>0.239294707775116</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>0.2382370382547379</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0.2374502867460251</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>0.2391888499259949</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0.2413011491298676</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0.2426804155111313</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0.2451562434434891</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0.2475872337818146</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>0.249040961265564</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0.2512661218643188</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0.2537045776844025</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0.2563081383705139</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0.2575139105319977</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0.2588796615600586</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0.2566181719303131</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>0.2542549967765808</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>0.251829206943512</v>
-      </c>
+        <v>0.2557159066200256</v>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
       <c r="CI3" t="inlineStr"/>
       <c r="CJ3" t="inlineStr"/>
       <c r="CK3" t="inlineStr"/>
@@ -2092,266 +2616,334 @@
       <c r="IZ3" t="inlineStr"/>
       <c r="JA3" t="inlineStr"/>
       <c r="JB3" t="inlineStr"/>
+      <c r="JC3" t="inlineStr"/>
+      <c r="JD3" t="inlineStr"/>
+      <c r="JE3" t="inlineStr"/>
+      <c r="JF3" t="inlineStr"/>
+      <c r="JG3" t="inlineStr"/>
+      <c r="JH3" t="inlineStr"/>
+      <c r="JI3" t="inlineStr"/>
+      <c r="JJ3" t="inlineStr"/>
+      <c r="JK3" t="inlineStr"/>
+      <c r="JL3" t="inlineStr"/>
+      <c r="JM3" t="inlineStr"/>
+      <c r="JN3" t="inlineStr"/>
+      <c r="JO3" t="inlineStr"/>
+      <c r="JP3" t="inlineStr"/>
+      <c r="JQ3" t="inlineStr"/>
+      <c r="JR3" t="inlineStr"/>
+      <c r="JS3" t="inlineStr"/>
+      <c r="JT3" t="inlineStr"/>
+      <c r="JU3" t="inlineStr"/>
+      <c r="JV3" t="inlineStr"/>
+      <c r="JW3" t="inlineStr"/>
+      <c r="JX3" t="inlineStr"/>
+      <c r="JY3" t="inlineStr"/>
+      <c r="JZ3" t="inlineStr"/>
+      <c r="KA3" t="inlineStr"/>
+      <c r="KB3" t="inlineStr"/>
+      <c r="KC3" t="inlineStr"/>
+      <c r="KD3" t="inlineStr"/>
+      <c r="KE3" t="inlineStr"/>
+      <c r="KF3" t="inlineStr"/>
+      <c r="KG3" t="inlineStr"/>
+      <c r="KH3" t="inlineStr"/>
+      <c r="KI3" t="inlineStr"/>
+      <c r="KJ3" t="inlineStr"/>
+      <c r="KK3" t="inlineStr"/>
+      <c r="KL3" t="inlineStr"/>
+      <c r="KM3" t="inlineStr"/>
+      <c r="KN3" t="inlineStr"/>
+      <c r="KO3" t="inlineStr"/>
+      <c r="KP3" t="inlineStr"/>
+      <c r="KQ3" t="inlineStr"/>
+      <c r="KR3" t="inlineStr"/>
+      <c r="KS3" t="inlineStr"/>
+      <c r="KT3" t="inlineStr"/>
+      <c r="KU3" t="inlineStr"/>
+      <c r="KV3" t="inlineStr"/>
+      <c r="KW3" t="inlineStr"/>
+      <c r="KX3" t="inlineStr"/>
+      <c r="KY3" t="inlineStr"/>
+      <c r="KZ3" t="inlineStr"/>
+      <c r="LA3" t="inlineStr"/>
+      <c r="LB3" t="inlineStr"/>
+      <c r="LC3" t="inlineStr"/>
+      <c r="LD3" t="inlineStr"/>
+      <c r="LE3" t="inlineStr"/>
+      <c r="LF3" t="inlineStr"/>
+      <c r="LG3" t="inlineStr"/>
+      <c r="LH3" t="inlineStr"/>
+      <c r="LI3" t="inlineStr"/>
+      <c r="LJ3" t="inlineStr"/>
+      <c r="LK3" t="inlineStr"/>
+      <c r="LL3" t="inlineStr"/>
+      <c r="LM3" t="inlineStr"/>
+      <c r="LN3" t="inlineStr"/>
+      <c r="LO3" t="inlineStr"/>
+      <c r="LP3" t="inlineStr"/>
+      <c r="LQ3" t="inlineStr"/>
+      <c r="LR3" t="inlineStr"/>
+      <c r="LS3" t="inlineStr"/>
+      <c r="LT3" t="inlineStr"/>
+      <c r="LU3" t="inlineStr"/>
+      <c r="LV3" t="inlineStr"/>
+      <c r="LW3" t="inlineStr"/>
+      <c r="LX3" t="inlineStr"/>
+      <c r="LY3" t="inlineStr"/>
+      <c r="LZ3" t="inlineStr"/>
+      <c r="MA3" t="inlineStr"/>
+      <c r="MB3" t="inlineStr"/>
+      <c r="MC3" t="inlineStr"/>
+      <c r="MD3" t="inlineStr"/>
+      <c r="ME3" t="inlineStr"/>
+      <c r="MF3" t="inlineStr"/>
+      <c r="MG3" t="inlineStr"/>
+      <c r="MH3" t="inlineStr"/>
+      <c r="MI3" t="inlineStr"/>
+      <c r="MJ3" t="inlineStr"/>
+      <c r="MK3" t="inlineStr"/>
+      <c r="ML3" t="inlineStr"/>
+      <c r="MM3" t="inlineStr"/>
+      <c r="MN3" t="inlineStr"/>
+      <c r="MO3" t="inlineStr"/>
+      <c r="MP3" t="inlineStr"/>
+      <c r="MQ3" t="inlineStr"/>
+      <c r="MR3" t="inlineStr"/>
+      <c r="MS3" t="inlineStr"/>
+      <c r="MT3" t="inlineStr"/>
+      <c r="MU3" t="inlineStr"/>
+      <c r="MV3" t="inlineStr"/>
+      <c r="MW3" t="inlineStr"/>
+      <c r="MX3" t="inlineStr"/>
+      <c r="MY3" t="inlineStr"/>
+      <c r="MZ3" t="inlineStr"/>
+      <c r="NA3" t="inlineStr"/>
+      <c r="NB3" t="inlineStr"/>
+      <c r="NC3" t="inlineStr"/>
+      <c r="ND3" t="inlineStr"/>
+      <c r="NE3" t="inlineStr"/>
+      <c r="NF3" t="inlineStr"/>
+      <c r="NG3" t="inlineStr"/>
+      <c r="NH3" t="inlineStr"/>
+      <c r="NI3" t="inlineStr"/>
+      <c r="NJ3" t="inlineStr"/>
+      <c r="NK3" t="inlineStr"/>
+      <c r="NL3" t="inlineStr"/>
+      <c r="NM3" t="inlineStr"/>
+      <c r="NN3" t="inlineStr"/>
+      <c r="NO3" t="inlineStr"/>
+      <c r="NP3" t="inlineStr"/>
+      <c r="NQ3" t="inlineStr"/>
+      <c r="NR3" t="inlineStr"/>
+      <c r="NS3" t="inlineStr"/>
+      <c r="NT3" t="inlineStr"/>
+      <c r="NU3" t="inlineStr"/>
+      <c r="NV3" t="inlineStr"/>
+      <c r="NW3" t="inlineStr"/>
+      <c r="NX3" t="inlineStr"/>
+      <c r="NY3" t="inlineStr"/>
+      <c r="NZ3" t="inlineStr"/>
+      <c r="OA3" t="inlineStr"/>
+      <c r="OB3" t="inlineStr"/>
+      <c r="OC3" t="inlineStr"/>
+      <c r="OD3" t="inlineStr"/>
+      <c r="OE3" t="inlineStr"/>
+      <c r="OF3" t="inlineStr"/>
+      <c r="OG3" t="inlineStr"/>
+      <c r="OH3" t="inlineStr"/>
+      <c r="OI3" t="inlineStr"/>
+      <c r="OJ3" t="inlineStr"/>
+      <c r="OK3" t="inlineStr"/>
+      <c r="OL3" t="inlineStr"/>
+      <c r="OM3" t="inlineStr"/>
+      <c r="ON3" t="inlineStr"/>
+      <c r="OO3" t="inlineStr"/>
+      <c r="OP3" t="inlineStr"/>
+      <c r="OQ3" t="inlineStr"/>
+      <c r="OR3" t="inlineStr"/>
+      <c r="OS3" t="inlineStr"/>
+      <c r="OT3" t="inlineStr"/>
+      <c r="OU3" t="inlineStr"/>
+      <c r="OV3" t="inlineStr"/>
+      <c r="OW3" t="inlineStr"/>
+      <c r="OX3" t="inlineStr"/>
+      <c r="OY3" t="inlineStr"/>
+      <c r="OZ3" t="inlineStr"/>
+      <c r="PA3" t="inlineStr"/>
+      <c r="PB3" t="inlineStr"/>
+      <c r="PC3" t="inlineStr"/>
+      <c r="PD3" t="inlineStr"/>
+      <c r="PE3" t="inlineStr"/>
+      <c r="PF3" t="inlineStr"/>
+      <c r="PG3" t="inlineStr"/>
+      <c r="PH3" t="inlineStr"/>
+      <c r="PI3" t="inlineStr"/>
+      <c r="PJ3" t="inlineStr"/>
+      <c r="PK3" t="inlineStr"/>
+      <c r="PL3" t="inlineStr"/>
+      <c r="PM3" t="inlineStr"/>
+      <c r="PN3" t="inlineStr"/>
+      <c r="PO3" t="inlineStr"/>
+      <c r="PP3" t="inlineStr"/>
+      <c r="PQ3" t="inlineStr"/>
+      <c r="PR3" t="inlineStr"/>
+      <c r="PS3" t="inlineStr"/>
+      <c r="PT3" t="inlineStr"/>
+      <c r="PU3" t="inlineStr"/>
+      <c r="PV3" t="inlineStr"/>
+      <c r="PW3" t="inlineStr"/>
+      <c r="PX3" t="inlineStr"/>
+      <c r="PY3" t="inlineStr"/>
+      <c r="PZ3" t="inlineStr"/>
+      <c r="QA3" t="inlineStr"/>
+      <c r="QB3" t="inlineStr"/>
+      <c r="QC3" t="inlineStr"/>
+      <c r="QD3" t="inlineStr"/>
+      <c r="QE3" t="inlineStr"/>
+      <c r="QF3" t="inlineStr"/>
+      <c r="QG3" t="inlineStr"/>
+      <c r="QH3" t="inlineStr"/>
+      <c r="QI3" t="inlineStr"/>
+      <c r="QJ3" t="inlineStr"/>
+      <c r="QK3" t="inlineStr"/>
+      <c r="QL3" t="inlineStr"/>
+      <c r="QM3" t="inlineStr"/>
+      <c r="QN3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3739382326602936</v>
+        <v>84.91737365722656</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3737788498401642</v>
+        <v>82.83096313476562</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3738706707954407</v>
+        <v>82.15843200683594</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3740885257720947</v>
+        <v>90.19499206542969</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3740759491920471</v>
+        <v>87.8768310546875</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3740620017051697</v>
+        <v>92.30227661132812</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3740459680557251</v>
+        <v>97.39654541015625</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3740074038505554</v>
+        <v>96.03440856933594</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3739548027515411</v>
+        <v>102.0211791992188</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3769714534282684</v>
+        <v>98.58535766601562</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3831268548965454</v>
+        <v>99.68855285644531</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3905938863754272</v>
+        <v>101.4306335449219</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4015606343746185</v>
+        <v>103.7446746826172</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4126213192939758</v>
+        <v>98.4364013671875</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4237645864486694</v>
+        <v>96.95310974121094</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4318183064460754</v>
+        <v>96.47209167480469</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4390112161636353</v>
+        <v>102.198486328125</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4484795928001404</v>
+        <v>107.2076110839844</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4573608636856079</v>
+        <v>112.8239135742188</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4636890292167664</v>
+        <v>115.3999633789062</v>
       </c>
       <c r="U4" t="n">
-        <v>0.472061812877655</v>
+        <v>114.7835998535156</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4796819388866425</v>
+        <v>109.9615173339844</v>
       </c>
       <c r="W4" t="n">
-        <v>0.4870498776435852</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.4942060708999634</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.5008983612060547</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.506945013999939</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.5124405026435852</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.5175572633743286</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.5228201150894165</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.5283396244049072</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.5338090062141418</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.5391523241996765</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.5438798666000366</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.5482246875762939</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.5523350238800049</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.5560120940208435</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.5599249601364136</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.5635203123092651</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.5669207572937012</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.5703989267349243</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.5738246440887451</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0.577004611492157</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.5800106525421143</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.5827145576477051</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0.5855532884597778</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0.5887961983680725</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0.5912219285964966</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0.5935698747634888</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0.5957073569297791</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0.5976783633232117</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0.5997742414474487</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0.6016660928726196</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0.6052312850952148</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0.6061512231826782</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>0.6073696613311768</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>0.6088229417800903</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0.610573410987854</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0.6121727824211121</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>0.6138514876365662</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>0.6178511381149292</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>0.6178559064865112</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>0.6179969310760498</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>0.6200308799743652</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0.6209188103675842</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0.6220114231109619</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0.6232610940933228</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>0.6244243383407593</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>0.6254700422286987</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>0.6266157627105713</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>0.627583384513855</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>0.6285242438316345</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>0.6293849349021912</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>0.6307575702667236</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>0.6319355368614197</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>0.6328426003456116</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>0.633963942527771</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>0.6349858045578003</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>0.6358599662780762</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>0.6368581056594849</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>0.6376637816429138</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>0.6384337544441223</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>0.6390114426612854</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>0.6397479176521301</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>0.6404678225517273</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>0.6409401297569275</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>0.6412755846977234</v>
-      </c>
+        <v>116.5975189208984</v>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
       <c r="CI4" t="inlineStr"/>
       <c r="CJ4" t="inlineStr"/>
       <c r="CK4" t="inlineStr"/>
@@ -2528,266 +3120,334 @@
       <c r="IZ4" t="inlineStr"/>
       <c r="JA4" t="inlineStr"/>
       <c r="JB4" t="inlineStr"/>
+      <c r="JC4" t="inlineStr"/>
+      <c r="JD4" t="inlineStr"/>
+      <c r="JE4" t="inlineStr"/>
+      <c r="JF4" t="inlineStr"/>
+      <c r="JG4" t="inlineStr"/>
+      <c r="JH4" t="inlineStr"/>
+      <c r="JI4" t="inlineStr"/>
+      <c r="JJ4" t="inlineStr"/>
+      <c r="JK4" t="inlineStr"/>
+      <c r="JL4" t="inlineStr"/>
+      <c r="JM4" t="inlineStr"/>
+      <c r="JN4" t="inlineStr"/>
+      <c r="JO4" t="inlineStr"/>
+      <c r="JP4" t="inlineStr"/>
+      <c r="JQ4" t="inlineStr"/>
+      <c r="JR4" t="inlineStr"/>
+      <c r="JS4" t="inlineStr"/>
+      <c r="JT4" t="inlineStr"/>
+      <c r="JU4" t="inlineStr"/>
+      <c r="JV4" t="inlineStr"/>
+      <c r="JW4" t="inlineStr"/>
+      <c r="JX4" t="inlineStr"/>
+      <c r="JY4" t="inlineStr"/>
+      <c r="JZ4" t="inlineStr"/>
+      <c r="KA4" t="inlineStr"/>
+      <c r="KB4" t="inlineStr"/>
+      <c r="KC4" t="inlineStr"/>
+      <c r="KD4" t="inlineStr"/>
+      <c r="KE4" t="inlineStr"/>
+      <c r="KF4" t="inlineStr"/>
+      <c r="KG4" t="inlineStr"/>
+      <c r="KH4" t="inlineStr"/>
+      <c r="KI4" t="inlineStr"/>
+      <c r="KJ4" t="inlineStr"/>
+      <c r="KK4" t="inlineStr"/>
+      <c r="KL4" t="inlineStr"/>
+      <c r="KM4" t="inlineStr"/>
+      <c r="KN4" t="inlineStr"/>
+      <c r="KO4" t="inlineStr"/>
+      <c r="KP4" t="inlineStr"/>
+      <c r="KQ4" t="inlineStr"/>
+      <c r="KR4" t="inlineStr"/>
+      <c r="KS4" t="inlineStr"/>
+      <c r="KT4" t="inlineStr"/>
+      <c r="KU4" t="inlineStr"/>
+      <c r="KV4" t="inlineStr"/>
+      <c r="KW4" t="inlineStr"/>
+      <c r="KX4" t="inlineStr"/>
+      <c r="KY4" t="inlineStr"/>
+      <c r="KZ4" t="inlineStr"/>
+      <c r="LA4" t="inlineStr"/>
+      <c r="LB4" t="inlineStr"/>
+      <c r="LC4" t="inlineStr"/>
+      <c r="LD4" t="inlineStr"/>
+      <c r="LE4" t="inlineStr"/>
+      <c r="LF4" t="inlineStr"/>
+      <c r="LG4" t="inlineStr"/>
+      <c r="LH4" t="inlineStr"/>
+      <c r="LI4" t="inlineStr"/>
+      <c r="LJ4" t="inlineStr"/>
+      <c r="LK4" t="inlineStr"/>
+      <c r="LL4" t="inlineStr"/>
+      <c r="LM4" t="inlineStr"/>
+      <c r="LN4" t="inlineStr"/>
+      <c r="LO4" t="inlineStr"/>
+      <c r="LP4" t="inlineStr"/>
+      <c r="LQ4" t="inlineStr"/>
+      <c r="LR4" t="inlineStr"/>
+      <c r="LS4" t="inlineStr"/>
+      <c r="LT4" t="inlineStr"/>
+      <c r="LU4" t="inlineStr"/>
+      <c r="LV4" t="inlineStr"/>
+      <c r="LW4" t="inlineStr"/>
+      <c r="LX4" t="inlineStr"/>
+      <c r="LY4" t="inlineStr"/>
+      <c r="LZ4" t="inlineStr"/>
+      <c r="MA4" t="inlineStr"/>
+      <c r="MB4" t="inlineStr"/>
+      <c r="MC4" t="inlineStr"/>
+      <c r="MD4" t="inlineStr"/>
+      <c r="ME4" t="inlineStr"/>
+      <c r="MF4" t="inlineStr"/>
+      <c r="MG4" t="inlineStr"/>
+      <c r="MH4" t="inlineStr"/>
+      <c r="MI4" t="inlineStr"/>
+      <c r="MJ4" t="inlineStr"/>
+      <c r="MK4" t="inlineStr"/>
+      <c r="ML4" t="inlineStr"/>
+      <c r="MM4" t="inlineStr"/>
+      <c r="MN4" t="inlineStr"/>
+      <c r="MO4" t="inlineStr"/>
+      <c r="MP4" t="inlineStr"/>
+      <c r="MQ4" t="inlineStr"/>
+      <c r="MR4" t="inlineStr"/>
+      <c r="MS4" t="inlineStr"/>
+      <c r="MT4" t="inlineStr"/>
+      <c r="MU4" t="inlineStr"/>
+      <c r="MV4" t="inlineStr"/>
+      <c r="MW4" t="inlineStr"/>
+      <c r="MX4" t="inlineStr"/>
+      <c r="MY4" t="inlineStr"/>
+      <c r="MZ4" t="inlineStr"/>
+      <c r="NA4" t="inlineStr"/>
+      <c r="NB4" t="inlineStr"/>
+      <c r="NC4" t="inlineStr"/>
+      <c r="ND4" t="inlineStr"/>
+      <c r="NE4" t="inlineStr"/>
+      <c r="NF4" t="inlineStr"/>
+      <c r="NG4" t="inlineStr"/>
+      <c r="NH4" t="inlineStr"/>
+      <c r="NI4" t="inlineStr"/>
+      <c r="NJ4" t="inlineStr"/>
+      <c r="NK4" t="inlineStr"/>
+      <c r="NL4" t="inlineStr"/>
+      <c r="NM4" t="inlineStr"/>
+      <c r="NN4" t="inlineStr"/>
+      <c r="NO4" t="inlineStr"/>
+      <c r="NP4" t="inlineStr"/>
+      <c r="NQ4" t="inlineStr"/>
+      <c r="NR4" t="inlineStr"/>
+      <c r="NS4" t="inlineStr"/>
+      <c r="NT4" t="inlineStr"/>
+      <c r="NU4" t="inlineStr"/>
+      <c r="NV4" t="inlineStr"/>
+      <c r="NW4" t="inlineStr"/>
+      <c r="NX4" t="inlineStr"/>
+      <c r="NY4" t="inlineStr"/>
+      <c r="NZ4" t="inlineStr"/>
+      <c r="OA4" t="inlineStr"/>
+      <c r="OB4" t="inlineStr"/>
+      <c r="OC4" t="inlineStr"/>
+      <c r="OD4" t="inlineStr"/>
+      <c r="OE4" t="inlineStr"/>
+      <c r="OF4" t="inlineStr"/>
+      <c r="OG4" t="inlineStr"/>
+      <c r="OH4" t="inlineStr"/>
+      <c r="OI4" t="inlineStr"/>
+      <c r="OJ4" t="inlineStr"/>
+      <c r="OK4" t="inlineStr"/>
+      <c r="OL4" t="inlineStr"/>
+      <c r="OM4" t="inlineStr"/>
+      <c r="ON4" t="inlineStr"/>
+      <c r="OO4" t="inlineStr"/>
+      <c r="OP4" t="inlineStr"/>
+      <c r="OQ4" t="inlineStr"/>
+      <c r="OR4" t="inlineStr"/>
+      <c r="OS4" t="inlineStr"/>
+      <c r="OT4" t="inlineStr"/>
+      <c r="OU4" t="inlineStr"/>
+      <c r="OV4" t="inlineStr"/>
+      <c r="OW4" t="inlineStr"/>
+      <c r="OX4" t="inlineStr"/>
+      <c r="OY4" t="inlineStr"/>
+      <c r="OZ4" t="inlineStr"/>
+      <c r="PA4" t="inlineStr"/>
+      <c r="PB4" t="inlineStr"/>
+      <c r="PC4" t="inlineStr"/>
+      <c r="PD4" t="inlineStr"/>
+      <c r="PE4" t="inlineStr"/>
+      <c r="PF4" t="inlineStr"/>
+      <c r="PG4" t="inlineStr"/>
+      <c r="PH4" t="inlineStr"/>
+      <c r="PI4" t="inlineStr"/>
+      <c r="PJ4" t="inlineStr"/>
+      <c r="PK4" t="inlineStr"/>
+      <c r="PL4" t="inlineStr"/>
+      <c r="PM4" t="inlineStr"/>
+      <c r="PN4" t="inlineStr"/>
+      <c r="PO4" t="inlineStr"/>
+      <c r="PP4" t="inlineStr"/>
+      <c r="PQ4" t="inlineStr"/>
+      <c r="PR4" t="inlineStr"/>
+      <c r="PS4" t="inlineStr"/>
+      <c r="PT4" t="inlineStr"/>
+      <c r="PU4" t="inlineStr"/>
+      <c r="PV4" t="inlineStr"/>
+      <c r="PW4" t="inlineStr"/>
+      <c r="PX4" t="inlineStr"/>
+      <c r="PY4" t="inlineStr"/>
+      <c r="PZ4" t="inlineStr"/>
+      <c r="QA4" t="inlineStr"/>
+      <c r="QB4" t="inlineStr"/>
+      <c r="QC4" t="inlineStr"/>
+      <c r="QD4" t="inlineStr"/>
+      <c r="QE4" t="inlineStr"/>
+      <c r="QF4" t="inlineStr"/>
+      <c r="QG4" t="inlineStr"/>
+      <c r="QH4" t="inlineStr"/>
+      <c r="QI4" t="inlineStr"/>
+      <c r="QJ4" t="inlineStr"/>
+      <c r="QK4" t="inlineStr"/>
+      <c r="QL4" t="inlineStr"/>
+      <c r="QM4" t="inlineStr"/>
+      <c r="QN4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-17.61114501953125</v>
+        <v>-80.859130859375</v>
       </c>
       <c r="B5" t="n">
-        <v>-19.3983154296875</v>
+        <v>-80.11016845703125</v>
       </c>
       <c r="C5" t="n">
-        <v>-19.630615234375</v>
+        <v>-79.75129699707031</v>
       </c>
       <c r="D5" t="n">
-        <v>-20.8968505859375</v>
+        <v>-76.59861755371094</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.91485595703125</v>
+        <v>-70.64389038085938</v>
       </c>
       <c r="F5" t="n">
-        <v>-13.59222412109375</v>
+        <v>-66.75375366210938</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.64154052734375</v>
+        <v>-58.78163146972656</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.848876953125</v>
+        <v>-53.83567810058594</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1436767578125</v>
+        <v>-45.17623901367188</v>
       </c>
       <c r="J5" t="n">
-        <v>6.41351318359375</v>
+        <v>-40.26197814941406</v>
       </c>
       <c r="K5" t="n">
-        <v>7.85186767578125</v>
+        <v>-35.78376770019531</v>
       </c>
       <c r="L5" t="n">
-        <v>9.40057373046875</v>
+        <v>-28.49732971191406</v>
       </c>
       <c r="M5" t="n">
-        <v>12.75823974609375</v>
+        <v>-23.97431945800781</v>
       </c>
       <c r="N5" t="n">
-        <v>15.02593994140625</v>
+        <v>-19.86885070800781</v>
       </c>
       <c r="O5" t="n">
-        <v>11.025146484375</v>
+        <v>-14.77546691894531</v>
       </c>
       <c r="P5" t="n">
-        <v>9.6439208984375</v>
+        <v>-12.61062622070312</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.5042724609375</v>
+        <v>-11.62089538574219</v>
       </c>
       <c r="R5" t="n">
-        <v>1.195556640625</v>
+        <v>-7.621139526367188</v>
       </c>
       <c r="S5" t="n">
-        <v>-1.2457275390625</v>
+        <v>-1.052352905273438</v>
       </c>
       <c r="T5" t="n">
-        <v>-6.62774658203125</v>
+        <v>0.430145263671875</v>
       </c>
       <c r="U5" t="n">
-        <v>-8.8916015625</v>
+        <v>2.852371215820312</v>
       </c>
       <c r="V5" t="n">
-        <v>-12.75616455078125</v>
+        <v>-6.698135375976562</v>
       </c>
       <c r="W5" t="n">
-        <v>-11.04620361328125</v>
-      </c>
-      <c r="X5" t="n">
-        <v>-5.22369384765625</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>-2.78887939453125</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>-0.70330810546875</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>5.39715576171875</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>14.1202392578125</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>18.9520263671875</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>19.46063232421875</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>20.61627197265625</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>22.4447021484375</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>21.21063232421875</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>11.18353271484375</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>6.49951171875</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>-1.2283935546875</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>-5.62677001953125</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>-10.6058349609375</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>-13.4388427734375</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>-15.45599365234375</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>-12.5047607421875</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>-7.55474853515625</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>4.69122314453125</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>10.86566162109375</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>19.2427978515625</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>21.6004638671875</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>21.73785400390625</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>20.50311279296875</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>18.7088623046875</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>6.21173095703125</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>2.22515869140625</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>-3.77978515625</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>-19.2359619140625</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>-24.706298828125</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>-27.4512939453125</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>-24.31378173828125</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>-22.0291748046875</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>-19.74853515625</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>-9.06231689453125</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>23.29119873046875</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>22.5009765625</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>22.3759765625</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>15.4449462890625</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>13.118896484375</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>0.1298828125</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>-10.18798828125</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>-15.81048583984375</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>-21.384521484375</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>-29.24713134765625</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>-27.62939453125</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>-26.05029296875</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>-22.47601318359375</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>-8.78546142578125</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>1.4410400390625</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>11.49273681640625</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>19.9971923828125</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>22.11785888671875</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>25.2811279296875</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>24.42242431640625</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>24.06195068359375</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>10.164306640625</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>0.374267578125</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>-11.140625</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>-15.7115478515625</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>-21.09429931640625</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>-27.7786865234375</v>
-      </c>
+        <v>1.235855102539062</v>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
       <c r="CI5" t="inlineStr"/>
       <c r="CJ5" t="inlineStr"/>
       <c r="CK5" t="inlineStr"/>
@@ -2964,1230 +3624,2074 @@
       <c r="IZ5" t="inlineStr"/>
       <c r="JA5" t="inlineStr"/>
       <c r="JB5" t="inlineStr"/>
+      <c r="JC5" t="inlineStr"/>
+      <c r="JD5" t="inlineStr"/>
+      <c r="JE5" t="inlineStr"/>
+      <c r="JF5" t="inlineStr"/>
+      <c r="JG5" t="inlineStr"/>
+      <c r="JH5" t="inlineStr"/>
+      <c r="JI5" t="inlineStr"/>
+      <c r="JJ5" t="inlineStr"/>
+      <c r="JK5" t="inlineStr"/>
+      <c r="JL5" t="inlineStr"/>
+      <c r="JM5" t="inlineStr"/>
+      <c r="JN5" t="inlineStr"/>
+      <c r="JO5" t="inlineStr"/>
+      <c r="JP5" t="inlineStr"/>
+      <c r="JQ5" t="inlineStr"/>
+      <c r="JR5" t="inlineStr"/>
+      <c r="JS5" t="inlineStr"/>
+      <c r="JT5" t="inlineStr"/>
+      <c r="JU5" t="inlineStr"/>
+      <c r="JV5" t="inlineStr"/>
+      <c r="JW5" t="inlineStr"/>
+      <c r="JX5" t="inlineStr"/>
+      <c r="JY5" t="inlineStr"/>
+      <c r="JZ5" t="inlineStr"/>
+      <c r="KA5" t="inlineStr"/>
+      <c r="KB5" t="inlineStr"/>
+      <c r="KC5" t="inlineStr"/>
+      <c r="KD5" t="inlineStr"/>
+      <c r="KE5" t="inlineStr"/>
+      <c r="KF5" t="inlineStr"/>
+      <c r="KG5" t="inlineStr"/>
+      <c r="KH5" t="inlineStr"/>
+      <c r="KI5" t="inlineStr"/>
+      <c r="KJ5" t="inlineStr"/>
+      <c r="KK5" t="inlineStr"/>
+      <c r="KL5" t="inlineStr"/>
+      <c r="KM5" t="inlineStr"/>
+      <c r="KN5" t="inlineStr"/>
+      <c r="KO5" t="inlineStr"/>
+      <c r="KP5" t="inlineStr"/>
+      <c r="KQ5" t="inlineStr"/>
+      <c r="KR5" t="inlineStr"/>
+      <c r="KS5" t="inlineStr"/>
+      <c r="KT5" t="inlineStr"/>
+      <c r="KU5" t="inlineStr"/>
+      <c r="KV5" t="inlineStr"/>
+      <c r="KW5" t="inlineStr"/>
+      <c r="KX5" t="inlineStr"/>
+      <c r="KY5" t="inlineStr"/>
+      <c r="KZ5" t="inlineStr"/>
+      <c r="LA5" t="inlineStr"/>
+      <c r="LB5" t="inlineStr"/>
+      <c r="LC5" t="inlineStr"/>
+      <c r="LD5" t="inlineStr"/>
+      <c r="LE5" t="inlineStr"/>
+      <c r="LF5" t="inlineStr"/>
+      <c r="LG5" t="inlineStr"/>
+      <c r="LH5" t="inlineStr"/>
+      <c r="LI5" t="inlineStr"/>
+      <c r="LJ5" t="inlineStr"/>
+      <c r="LK5" t="inlineStr"/>
+      <c r="LL5" t="inlineStr"/>
+      <c r="LM5" t="inlineStr"/>
+      <c r="LN5" t="inlineStr"/>
+      <c r="LO5" t="inlineStr"/>
+      <c r="LP5" t="inlineStr"/>
+      <c r="LQ5" t="inlineStr"/>
+      <c r="LR5" t="inlineStr"/>
+      <c r="LS5" t="inlineStr"/>
+      <c r="LT5" t="inlineStr"/>
+      <c r="LU5" t="inlineStr"/>
+      <c r="LV5" t="inlineStr"/>
+      <c r="LW5" t="inlineStr"/>
+      <c r="LX5" t="inlineStr"/>
+      <c r="LY5" t="inlineStr"/>
+      <c r="LZ5" t="inlineStr"/>
+      <c r="MA5" t="inlineStr"/>
+      <c r="MB5" t="inlineStr"/>
+      <c r="MC5" t="inlineStr"/>
+      <c r="MD5" t="inlineStr"/>
+      <c r="ME5" t="inlineStr"/>
+      <c r="MF5" t="inlineStr"/>
+      <c r="MG5" t="inlineStr"/>
+      <c r="MH5" t="inlineStr"/>
+      <c r="MI5" t="inlineStr"/>
+      <c r="MJ5" t="inlineStr"/>
+      <c r="MK5" t="inlineStr"/>
+      <c r="ML5" t="inlineStr"/>
+      <c r="MM5" t="inlineStr"/>
+      <c r="MN5" t="inlineStr"/>
+      <c r="MO5" t="inlineStr"/>
+      <c r="MP5" t="inlineStr"/>
+      <c r="MQ5" t="inlineStr"/>
+      <c r="MR5" t="inlineStr"/>
+      <c r="MS5" t="inlineStr"/>
+      <c r="MT5" t="inlineStr"/>
+      <c r="MU5" t="inlineStr"/>
+      <c r="MV5" t="inlineStr"/>
+      <c r="MW5" t="inlineStr"/>
+      <c r="MX5" t="inlineStr"/>
+      <c r="MY5" t="inlineStr"/>
+      <c r="MZ5" t="inlineStr"/>
+      <c r="NA5" t="inlineStr"/>
+      <c r="NB5" t="inlineStr"/>
+      <c r="NC5" t="inlineStr"/>
+      <c r="ND5" t="inlineStr"/>
+      <c r="NE5" t="inlineStr"/>
+      <c r="NF5" t="inlineStr"/>
+      <c r="NG5" t="inlineStr"/>
+      <c r="NH5" t="inlineStr"/>
+      <c r="NI5" t="inlineStr"/>
+      <c r="NJ5" t="inlineStr"/>
+      <c r="NK5" t="inlineStr"/>
+      <c r="NL5" t="inlineStr"/>
+      <c r="NM5" t="inlineStr"/>
+      <c r="NN5" t="inlineStr"/>
+      <c r="NO5" t="inlineStr"/>
+      <c r="NP5" t="inlineStr"/>
+      <c r="NQ5" t="inlineStr"/>
+      <c r="NR5" t="inlineStr"/>
+      <c r="NS5" t="inlineStr"/>
+      <c r="NT5" t="inlineStr"/>
+      <c r="NU5" t="inlineStr"/>
+      <c r="NV5" t="inlineStr"/>
+      <c r="NW5" t="inlineStr"/>
+      <c r="NX5" t="inlineStr"/>
+      <c r="NY5" t="inlineStr"/>
+      <c r="NZ5" t="inlineStr"/>
+      <c r="OA5" t="inlineStr"/>
+      <c r="OB5" t="inlineStr"/>
+      <c r="OC5" t="inlineStr"/>
+      <c r="OD5" t="inlineStr"/>
+      <c r="OE5" t="inlineStr"/>
+      <c r="OF5" t="inlineStr"/>
+      <c r="OG5" t="inlineStr"/>
+      <c r="OH5" t="inlineStr"/>
+      <c r="OI5" t="inlineStr"/>
+      <c r="OJ5" t="inlineStr"/>
+      <c r="OK5" t="inlineStr"/>
+      <c r="OL5" t="inlineStr"/>
+      <c r="OM5" t="inlineStr"/>
+      <c r="ON5" t="inlineStr"/>
+      <c r="OO5" t="inlineStr"/>
+      <c r="OP5" t="inlineStr"/>
+      <c r="OQ5" t="inlineStr"/>
+      <c r="OR5" t="inlineStr"/>
+      <c r="OS5" t="inlineStr"/>
+      <c r="OT5" t="inlineStr"/>
+      <c r="OU5" t="inlineStr"/>
+      <c r="OV5" t="inlineStr"/>
+      <c r="OW5" t="inlineStr"/>
+      <c r="OX5" t="inlineStr"/>
+      <c r="OY5" t="inlineStr"/>
+      <c r="OZ5" t="inlineStr"/>
+      <c r="PA5" t="inlineStr"/>
+      <c r="PB5" t="inlineStr"/>
+      <c r="PC5" t="inlineStr"/>
+      <c r="PD5" t="inlineStr"/>
+      <c r="PE5" t="inlineStr"/>
+      <c r="PF5" t="inlineStr"/>
+      <c r="PG5" t="inlineStr"/>
+      <c r="PH5" t="inlineStr"/>
+      <c r="PI5" t="inlineStr"/>
+      <c r="PJ5" t="inlineStr"/>
+      <c r="PK5" t="inlineStr"/>
+      <c r="PL5" t="inlineStr"/>
+      <c r="PM5" t="inlineStr"/>
+      <c r="PN5" t="inlineStr"/>
+      <c r="PO5" t="inlineStr"/>
+      <c r="PP5" t="inlineStr"/>
+      <c r="PQ5" t="inlineStr"/>
+      <c r="PR5" t="inlineStr"/>
+      <c r="PS5" t="inlineStr"/>
+      <c r="PT5" t="inlineStr"/>
+      <c r="PU5" t="inlineStr"/>
+      <c r="PV5" t="inlineStr"/>
+      <c r="PW5" t="inlineStr"/>
+      <c r="PX5" t="inlineStr"/>
+      <c r="PY5" t="inlineStr"/>
+      <c r="PZ5" t="inlineStr"/>
+      <c r="QA5" t="inlineStr"/>
+      <c r="QB5" t="inlineStr"/>
+      <c r="QC5" t="inlineStr"/>
+      <c r="QD5" t="inlineStr"/>
+      <c r="QE5" t="inlineStr"/>
+      <c r="QF5" t="inlineStr"/>
+      <c r="QG5" t="inlineStr"/>
+      <c r="QH5" t="inlineStr"/>
+      <c r="QI5" t="inlineStr"/>
+      <c r="QJ5" t="inlineStr"/>
+      <c r="QK5" t="inlineStr"/>
+      <c r="QL5" t="inlineStr"/>
+      <c r="QM5" t="inlineStr"/>
+      <c r="QN5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17007524300</v>
+        <v>0.3739319145679474</v>
       </c>
       <c r="B6" t="n">
-        <v>17007524300</v>
+        <v>0.3742782473564148</v>
       </c>
       <c r="C6" t="n">
-        <v>20327420900</v>
+        <v>0.3741610646247864</v>
       </c>
       <c r="D6" t="n">
-        <v>20327420900</v>
+        <v>0.3740050494670868</v>
       </c>
       <c r="E6" t="n">
-        <v>20439593700</v>
+        <v>0.37367844581604</v>
       </c>
       <c r="F6" t="n">
-        <v>20439593700</v>
+        <v>0.3737421035766602</v>
       </c>
       <c r="G6" t="n">
-        <v>20538438300</v>
+        <v>0.3736623823642731</v>
       </c>
       <c r="H6" t="n">
-        <v>20538438300</v>
+        <v>0.3733598589897156</v>
       </c>
       <c r="I6" t="n">
-        <v>20633344800</v>
+        <v>0.3731116056442261</v>
       </c>
       <c r="J6" t="n">
-        <v>20633344800</v>
+        <v>0.372761070728302</v>
       </c>
       <c r="K6" t="n">
-        <v>20713486300</v>
+        <v>0.3728587925434113</v>
       </c>
       <c r="L6" t="n">
-        <v>20713486300</v>
+        <v>0.3724651336669922</v>
       </c>
       <c r="M6" t="n">
-        <v>20813572400</v>
+        <v>0.3726201057434082</v>
       </c>
       <c r="N6" t="n">
-        <v>20813572400</v>
+        <v>0.3796831071376801</v>
       </c>
       <c r="O6" t="n">
-        <v>20914739100</v>
+        <v>0.3899304568767548</v>
       </c>
       <c r="P6" t="n">
-        <v>20914739100</v>
+        <v>0.4013647735118866</v>
       </c>
       <c r="Q6" t="n">
-        <v>21014714100</v>
+        <v>0.4100190997123718</v>
       </c>
       <c r="R6" t="n">
-        <v>21014714100</v>
+        <v>0.4187814891338348</v>
       </c>
       <c r="S6" t="n">
-        <v>21114011500</v>
+        <v>0.4273920655250549</v>
       </c>
       <c r="T6" t="n">
-        <v>21114011500</v>
+        <v>0.4386758804321289</v>
       </c>
       <c r="U6" t="n">
-        <v>21182984200</v>
+        <v>0.449895054101944</v>
       </c>
       <c r="V6" t="n">
-        <v>21182984200</v>
+        <v>0.4585146307945251</v>
       </c>
       <c r="W6" t="n">
-        <v>21263970400</v>
-      </c>
-      <c r="X6" t="n">
-        <v>21263970400</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>21338205000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>21338205000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>21439717500</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>21439717500</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>21540839000</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>21540839000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>21639469400</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>21639469400</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>21708735900</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>21708735900</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21787919000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>21787919000</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>21888346400</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>21888346400</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>21983651800</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>21983651800</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>22058162100</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>22058162100</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>22165009400</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>22165009400</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>22264538800</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>22264538800</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>22359101000</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>22359101000</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>22462341700</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>22462341700</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>22564509200</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>22564509200</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>22664122200</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>22664122200</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>22764734200</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>22764734200</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>22863306500</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>22863306500</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>22963609700</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>22963609700</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>23058668700</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>23058668700</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>23167140800</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>23167140800</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>23265106900</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>23265106900</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>23363494600</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>23363494600</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>23463182600</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>23463182600</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>23565940400</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>23565940400</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>23658945600</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>23658945600</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>23763689700</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>23763689700</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>23863237800</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>23863237800</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>23962937700</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>23962937700</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>24063450600</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>24063450600</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>24163310200</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>24163310200</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>24263173400</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>24263173400</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>24362562000</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>24362562000</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>24463858800</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>24463858800</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>24566130200</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>24566130200</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>24690204100</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>24690204100</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>24787414900</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>24787414900</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>24888749400</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>24888749400</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>24988338700</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>24988338700</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>25088375100</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>25088375100</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>25187388400</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>25187388400</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>25284469100</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>25362382600</v>
-      </c>
-      <c r="DC6" t="n">
-        <v>25362382600</v>
-      </c>
-      <c r="DD6" t="n">
-        <v>25464793600</v>
-      </c>
-      <c r="DE6" t="n">
-        <v>25464793600</v>
-      </c>
-      <c r="DF6" t="n">
-        <v>25565140900</v>
-      </c>
-      <c r="DG6" t="n">
-        <v>25565140900</v>
-      </c>
-      <c r="DH6" t="n">
-        <v>25663508300</v>
-      </c>
-      <c r="DI6" t="n">
-        <v>25663508300</v>
-      </c>
-      <c r="DJ6" t="n">
-        <v>25763844000</v>
-      </c>
-      <c r="DK6" t="n">
-        <v>25763844000</v>
-      </c>
-      <c r="DL6" t="n">
-        <v>25860269900</v>
-      </c>
-      <c r="DM6" t="n">
-        <v>25860269900</v>
-      </c>
-      <c r="DN6" t="n">
-        <v>25965669100</v>
-      </c>
-      <c r="DO6" t="n">
-        <v>25965669100</v>
-      </c>
-      <c r="DP6" t="n">
-        <v>26064006000</v>
-      </c>
-      <c r="DQ6" t="n">
-        <v>26136479900</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>26206365400</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>26287065900</v>
-      </c>
-      <c r="DT6" t="n">
-        <v>26355514500</v>
-      </c>
-      <c r="DU6" t="n">
-        <v>26431534900</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>26489963100</v>
-      </c>
-      <c r="DW6" t="n">
-        <v>26536049300</v>
-      </c>
-      <c r="DX6" t="n">
-        <v>26586785200</v>
-      </c>
-      <c r="DY6" t="n">
-        <v>26638530100</v>
-      </c>
-      <c r="DZ6" t="n">
-        <v>26684964800</v>
-      </c>
-      <c r="EA6" t="n">
-        <v>26736437900</v>
-      </c>
-      <c r="EB6" t="n">
-        <v>26786855500</v>
-      </c>
-      <c r="EC6" t="n">
-        <v>26862821500</v>
-      </c>
-      <c r="ED6" t="n">
-        <v>26940562900</v>
-      </c>
-      <c r="EE6" t="n">
-        <v>27012667700</v>
-      </c>
-      <c r="EF6" t="n">
-        <v>27062178600</v>
-      </c>
-      <c r="EG6" t="n">
-        <v>27108704200</v>
-      </c>
-      <c r="EH6" t="n">
-        <v>27161545200</v>
-      </c>
-      <c r="EI6" t="n">
-        <v>27213947300</v>
-      </c>
-      <c r="EJ6" t="n">
-        <v>27255043900</v>
-      </c>
-      <c r="EK6" t="n">
-        <v>27313562000</v>
-      </c>
-      <c r="EL6" t="n">
-        <v>27386938200</v>
-      </c>
-      <c r="EM6" t="n">
-        <v>27463274600</v>
-      </c>
-      <c r="EN6" t="n">
-        <v>27511083300</v>
-      </c>
-      <c r="EO6" t="n">
-        <v>27563233200</v>
-      </c>
-      <c r="EP6" t="n">
-        <v>27608932800</v>
-      </c>
-      <c r="EQ6" t="n">
-        <v>27661495400</v>
-      </c>
-      <c r="ER6" t="n">
-        <v>27712755000</v>
-      </c>
-      <c r="ES6" t="n">
-        <v>27761655000</v>
-      </c>
-      <c r="ET6" t="n">
-        <v>27810817800</v>
-      </c>
-      <c r="EU6" t="n">
-        <v>27858761100</v>
-      </c>
-      <c r="EV6" t="n">
-        <v>27911840100</v>
-      </c>
-      <c r="EW6" t="n">
-        <v>27957762700</v>
-      </c>
-      <c r="EX6" t="n">
-        <v>28012862500</v>
-      </c>
-      <c r="EY6" t="n">
-        <v>28057192400</v>
-      </c>
-      <c r="EZ6" t="n">
-        <v>28110980700</v>
-      </c>
-      <c r="FA6" t="n">
-        <v>28155540400</v>
-      </c>
-      <c r="FB6" t="n">
-        <v>28207004200</v>
-      </c>
-      <c r="FC6" t="n">
-        <v>28262383300</v>
-      </c>
-      <c r="FD6" t="n">
-        <v>28307832000</v>
-      </c>
-      <c r="FE6" t="n">
-        <v>28355605100</v>
-      </c>
-      <c r="FF6" t="n">
-        <v>28405229700</v>
-      </c>
-      <c r="FG6" t="n">
-        <v>28454533600</v>
-      </c>
-      <c r="FH6" t="n">
-        <v>28512137500</v>
-      </c>
-      <c r="FI6" t="n">
-        <v>28587618400</v>
-      </c>
-      <c r="FJ6" t="n">
-        <v>28636359300</v>
-      </c>
-      <c r="FK6" t="n">
-        <v>28686520400</v>
-      </c>
-      <c r="FL6" t="n">
-        <v>28734471200</v>
-      </c>
-      <c r="FM6" t="n">
-        <v>28785114200</v>
-      </c>
-      <c r="FN6" t="n">
-        <v>28837066100</v>
-      </c>
-      <c r="FO6" t="n">
-        <v>28879910100</v>
-      </c>
-      <c r="FP6" t="n">
-        <v>28935466500</v>
-      </c>
-      <c r="FQ6" t="n">
-        <v>28989018000</v>
-      </c>
-      <c r="FR6" t="n">
-        <v>29036422300</v>
-      </c>
-      <c r="FS6" t="n">
-        <v>29085614400</v>
-      </c>
-      <c r="FT6" t="n">
-        <v>29135187500</v>
-      </c>
-      <c r="FU6" t="n">
-        <v>29186791400</v>
-      </c>
-      <c r="FV6" t="n">
-        <v>29231693700</v>
-      </c>
-      <c r="FW6" t="n">
-        <v>29315032600</v>
-      </c>
-      <c r="FX6" t="n">
-        <v>29387300000</v>
-      </c>
-      <c r="FY6" t="n">
-        <v>29462805300</v>
-      </c>
-      <c r="FZ6" t="n">
-        <v>29537246300</v>
-      </c>
-      <c r="GA6" t="n">
-        <v>29587156000</v>
-      </c>
-      <c r="GB6" t="n">
-        <v>29634455000</v>
-      </c>
-      <c r="GC6" t="n">
-        <v>29687926200</v>
-      </c>
-      <c r="GD6" t="n">
-        <v>29762760200</v>
-      </c>
-      <c r="GE6" t="n">
-        <v>29808401500</v>
-      </c>
-      <c r="GF6" t="n">
-        <v>29861622300</v>
-      </c>
-      <c r="GG6" t="n">
-        <v>29939931100</v>
-      </c>
-      <c r="GH6" t="n">
-        <v>30014577900</v>
-      </c>
-      <c r="GI6" t="n">
-        <v>30087239400</v>
-      </c>
-      <c r="GJ6" t="n">
-        <v>30135717500</v>
-      </c>
-      <c r="GK6" t="n">
-        <v>30186169300</v>
-      </c>
-      <c r="GL6" t="n">
-        <v>30237340800</v>
-      </c>
-      <c r="GM6" t="n">
-        <v>30312530600</v>
-      </c>
-      <c r="GN6" t="n">
-        <v>30361541200</v>
-      </c>
-      <c r="GO6" t="n">
-        <v>30403839400</v>
-      </c>
-      <c r="GP6" t="n">
-        <v>30463607300</v>
-      </c>
-      <c r="GQ6" t="n">
-        <v>30509637900</v>
-      </c>
-      <c r="GR6" t="n">
-        <v>30561137100</v>
-      </c>
-      <c r="GS6" t="n">
-        <v>30615810800</v>
-      </c>
-      <c r="GT6" t="n">
-        <v>30687703300</v>
-      </c>
-      <c r="GU6" t="n">
-        <v>30736121900</v>
-      </c>
-      <c r="GV6" t="n">
-        <v>30786772700</v>
-      </c>
-      <c r="GW6" t="n">
-        <v>30836676700</v>
-      </c>
-      <c r="GX6" t="n">
-        <v>30886393100</v>
-      </c>
-      <c r="GY6" t="n">
-        <v>30934867100</v>
-      </c>
-      <c r="GZ6" t="n">
-        <v>30934867100</v>
-      </c>
-      <c r="HA6" t="n">
-        <v>31014228200</v>
-      </c>
-      <c r="HB6" t="n">
-        <v>31014228200</v>
-      </c>
-      <c r="HC6" t="n">
-        <v>31113860900</v>
-      </c>
-      <c r="HD6" t="n">
-        <v>31113860900</v>
-      </c>
-      <c r="HE6" t="n">
-        <v>31188879700</v>
-      </c>
-      <c r="HF6" t="n">
-        <v>31264381800</v>
-      </c>
-      <c r="HG6" t="n">
-        <v>31264381800</v>
-      </c>
-      <c r="HH6" t="n">
-        <v>31364114800</v>
-      </c>
-      <c r="HI6" t="n">
-        <v>31364114800</v>
-      </c>
-      <c r="HJ6" t="n">
-        <v>31484911300</v>
-      </c>
-      <c r="HK6" t="n">
-        <v>31484911300</v>
-      </c>
-      <c r="HL6" t="n">
-        <v>31591086300</v>
-      </c>
-      <c r="HM6" t="n">
-        <v>31591086300</v>
-      </c>
-      <c r="HN6" t="n">
-        <v>31691684500</v>
-      </c>
-      <c r="HO6" t="n">
-        <v>31691684500</v>
-      </c>
-      <c r="HP6" t="n">
-        <v>31789450000</v>
-      </c>
-      <c r="HQ6" t="n">
-        <v>31789450000</v>
-      </c>
-      <c r="HR6" t="n">
-        <v>31891278100</v>
-      </c>
-      <c r="HS6" t="n">
-        <v>31891278100</v>
-      </c>
-      <c r="HT6" t="n">
-        <v>31990367300</v>
-      </c>
-      <c r="HU6" t="n">
-        <v>31990367300</v>
-      </c>
-      <c r="HV6" t="n">
-        <v>32088277200</v>
-      </c>
-      <c r="HW6" t="n">
-        <v>32088277200</v>
-      </c>
-      <c r="HX6" t="n">
-        <v>32185549600</v>
-      </c>
-      <c r="HY6" t="n">
-        <v>32185549600</v>
-      </c>
-      <c r="HZ6" t="n">
-        <v>32292107800</v>
-      </c>
-      <c r="IA6" t="n">
-        <v>32292107800</v>
-      </c>
-      <c r="IB6" t="n">
-        <v>32414391200</v>
-      </c>
-      <c r="IC6" t="n">
-        <v>32414391200</v>
-      </c>
-      <c r="ID6" t="n">
-        <v>32508254300</v>
-      </c>
-      <c r="IE6" t="n">
-        <v>32508254300</v>
-      </c>
-      <c r="IF6" t="n">
-        <v>32614549700</v>
-      </c>
-      <c r="IG6" t="n">
-        <v>32614549700</v>
-      </c>
-      <c r="IH6" t="n">
-        <v>32713638700</v>
-      </c>
-      <c r="II6" t="n">
-        <v>32713638700</v>
-      </c>
-      <c r="IJ6" t="n">
-        <v>32815751900</v>
-      </c>
-      <c r="IK6" t="n">
-        <v>32815751900</v>
-      </c>
-      <c r="IL6" t="n">
-        <v>32912462500</v>
-      </c>
-      <c r="IM6" t="n">
-        <v>32912462500</v>
-      </c>
-      <c r="IN6" t="n">
-        <v>33014208900</v>
-      </c>
-      <c r="IO6" t="n">
-        <v>33014208900</v>
-      </c>
-      <c r="IP6" t="n">
-        <v>33112573400</v>
-      </c>
-      <c r="IQ6" t="n">
-        <v>33112573400</v>
-      </c>
-      <c r="IR6" t="n">
-        <v>33213452400</v>
-      </c>
-      <c r="IS6" t="n">
-        <v>33213452400</v>
-      </c>
-      <c r="IT6" t="n">
-        <v>33314253200</v>
-      </c>
-      <c r="IU6" t="n">
-        <v>33314253200</v>
-      </c>
-      <c r="IV6" t="n">
-        <v>33414712000</v>
-      </c>
-      <c r="IW6" t="n">
-        <v>33414712000</v>
-      </c>
-      <c r="IX6" t="n">
-        <v>33509649300</v>
-      </c>
-      <c r="IY6" t="n">
-        <v>33509649300</v>
-      </c>
-      <c r="IZ6" t="n">
-        <v>33614036700</v>
-      </c>
-      <c r="JA6" t="n">
-        <v>33614036700</v>
-      </c>
-      <c r="JB6" t="n">
-        <v>92415616600</v>
-      </c>
+        <v>0.4739367365837097</v>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
+      <c r="CH6" t="inlineStr"/>
+      <c r="CI6" t="inlineStr"/>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="inlineStr"/>
+      <c r="CZ6" t="inlineStr"/>
+      <c r="DA6" t="inlineStr"/>
+      <c r="DB6" t="inlineStr"/>
+      <c r="DC6" t="inlineStr"/>
+      <c r="DD6" t="inlineStr"/>
+      <c r="DE6" t="inlineStr"/>
+      <c r="DF6" t="inlineStr"/>
+      <c r="DG6" t="inlineStr"/>
+      <c r="DH6" t="inlineStr"/>
+      <c r="DI6" t="inlineStr"/>
+      <c r="DJ6" t="inlineStr"/>
+      <c r="DK6" t="inlineStr"/>
+      <c r="DL6" t="inlineStr"/>
+      <c r="DM6" t="inlineStr"/>
+      <c r="DN6" t="inlineStr"/>
+      <c r="DO6" t="inlineStr"/>
+      <c r="DP6" t="inlineStr"/>
+      <c r="DQ6" t="inlineStr"/>
+      <c r="DR6" t="inlineStr"/>
+      <c r="DS6" t="inlineStr"/>
+      <c r="DT6" t="inlineStr"/>
+      <c r="DU6" t="inlineStr"/>
+      <c r="DV6" t="inlineStr"/>
+      <c r="DW6" t="inlineStr"/>
+      <c r="DX6" t="inlineStr"/>
+      <c r="DY6" t="inlineStr"/>
+      <c r="DZ6" t="inlineStr"/>
+      <c r="EA6" t="inlineStr"/>
+      <c r="EB6" t="inlineStr"/>
+      <c r="EC6" t="inlineStr"/>
+      <c r="ED6" t="inlineStr"/>
+      <c r="EE6" t="inlineStr"/>
+      <c r="EF6" t="inlineStr"/>
+      <c r="EG6" t="inlineStr"/>
+      <c r="EH6" t="inlineStr"/>
+      <c r="EI6" t="inlineStr"/>
+      <c r="EJ6" t="inlineStr"/>
+      <c r="EK6" t="inlineStr"/>
+      <c r="EL6" t="inlineStr"/>
+      <c r="EM6" t="inlineStr"/>
+      <c r="EN6" t="inlineStr"/>
+      <c r="EO6" t="inlineStr"/>
+      <c r="EP6" t="inlineStr"/>
+      <c r="EQ6" t="inlineStr"/>
+      <c r="ER6" t="inlineStr"/>
+      <c r="ES6" t="inlineStr"/>
+      <c r="ET6" t="inlineStr"/>
+      <c r="EU6" t="inlineStr"/>
+      <c r="EV6" t="inlineStr"/>
+      <c r="EW6" t="inlineStr"/>
+      <c r="EX6" t="inlineStr"/>
+      <c r="EY6" t="inlineStr"/>
+      <c r="EZ6" t="inlineStr"/>
+      <c r="FA6" t="inlineStr"/>
+      <c r="FB6" t="inlineStr"/>
+      <c r="FC6" t="inlineStr"/>
+      <c r="FD6" t="inlineStr"/>
+      <c r="FE6" t="inlineStr"/>
+      <c r="FF6" t="inlineStr"/>
+      <c r="FG6" t="inlineStr"/>
+      <c r="FH6" t="inlineStr"/>
+      <c r="FI6" t="inlineStr"/>
+      <c r="FJ6" t="inlineStr"/>
+      <c r="FK6" t="inlineStr"/>
+      <c r="FL6" t="inlineStr"/>
+      <c r="FM6" t="inlineStr"/>
+      <c r="FN6" t="inlineStr"/>
+      <c r="FO6" t="inlineStr"/>
+      <c r="FP6" t="inlineStr"/>
+      <c r="FQ6" t="inlineStr"/>
+      <c r="FR6" t="inlineStr"/>
+      <c r="FS6" t="inlineStr"/>
+      <c r="FT6" t="inlineStr"/>
+      <c r="FU6" t="inlineStr"/>
+      <c r="FV6" t="inlineStr"/>
+      <c r="FW6" t="inlineStr"/>
+      <c r="FX6" t="inlineStr"/>
+      <c r="FY6" t="inlineStr"/>
+      <c r="FZ6" t="inlineStr"/>
+      <c r="GA6" t="inlineStr"/>
+      <c r="GB6" t="inlineStr"/>
+      <c r="GC6" t="inlineStr"/>
+      <c r="GD6" t="inlineStr"/>
+      <c r="GE6" t="inlineStr"/>
+      <c r="GF6" t="inlineStr"/>
+      <c r="GG6" t="inlineStr"/>
+      <c r="GH6" t="inlineStr"/>
+      <c r="GI6" t="inlineStr"/>
+      <c r="GJ6" t="inlineStr"/>
+      <c r="GK6" t="inlineStr"/>
+      <c r="GL6" t="inlineStr"/>
+      <c r="GM6" t="inlineStr"/>
+      <c r="GN6" t="inlineStr"/>
+      <c r="GO6" t="inlineStr"/>
+      <c r="GP6" t="inlineStr"/>
+      <c r="GQ6" t="inlineStr"/>
+      <c r="GR6" t="inlineStr"/>
+      <c r="GS6" t="inlineStr"/>
+      <c r="GT6" t="inlineStr"/>
+      <c r="GU6" t="inlineStr"/>
+      <c r="GV6" t="inlineStr"/>
+      <c r="GW6" t="inlineStr"/>
+      <c r="GX6" t="inlineStr"/>
+      <c r="GY6" t="inlineStr"/>
+      <c r="GZ6" t="inlineStr"/>
+      <c r="HA6" t="inlineStr"/>
+      <c r="HB6" t="inlineStr"/>
+      <c r="HC6" t="inlineStr"/>
+      <c r="HD6" t="inlineStr"/>
+      <c r="HE6" t="inlineStr"/>
+      <c r="HF6" t="inlineStr"/>
+      <c r="HG6" t="inlineStr"/>
+      <c r="HH6" t="inlineStr"/>
+      <c r="HI6" t="inlineStr"/>
+      <c r="HJ6" t="inlineStr"/>
+      <c r="HK6" t="inlineStr"/>
+      <c r="HL6" t="inlineStr"/>
+      <c r="HM6" t="inlineStr"/>
+      <c r="HN6" t="inlineStr"/>
+      <c r="HO6" t="inlineStr"/>
+      <c r="HP6" t="inlineStr"/>
+      <c r="HQ6" t="inlineStr"/>
+      <c r="HR6" t="inlineStr"/>
+      <c r="HS6" t="inlineStr"/>
+      <c r="HT6" t="inlineStr"/>
+      <c r="HU6" t="inlineStr"/>
+      <c r="HV6" t="inlineStr"/>
+      <c r="HW6" t="inlineStr"/>
+      <c r="HX6" t="inlineStr"/>
+      <c r="HY6" t="inlineStr"/>
+      <c r="HZ6" t="inlineStr"/>
+      <c r="IA6" t="inlineStr"/>
+      <c r="IB6" t="inlineStr"/>
+      <c r="IC6" t="inlineStr"/>
+      <c r="ID6" t="inlineStr"/>
+      <c r="IE6" t="inlineStr"/>
+      <c r="IF6" t="inlineStr"/>
+      <c r="IG6" t="inlineStr"/>
+      <c r="IH6" t="inlineStr"/>
+      <c r="II6" t="inlineStr"/>
+      <c r="IJ6" t="inlineStr"/>
+      <c r="IK6" t="inlineStr"/>
+      <c r="IL6" t="inlineStr"/>
+      <c r="IM6" t="inlineStr"/>
+      <c r="IN6" t="inlineStr"/>
+      <c r="IO6" t="inlineStr"/>
+      <c r="IP6" t="inlineStr"/>
+      <c r="IQ6" t="inlineStr"/>
+      <c r="IR6" t="inlineStr"/>
+      <c r="IS6" t="inlineStr"/>
+      <c r="IT6" t="inlineStr"/>
+      <c r="IU6" t="inlineStr"/>
+      <c r="IV6" t="inlineStr"/>
+      <c r="IW6" t="inlineStr"/>
+      <c r="IX6" t="inlineStr"/>
+      <c r="IY6" t="inlineStr"/>
+      <c r="IZ6" t="inlineStr"/>
+      <c r="JA6" t="inlineStr"/>
+      <c r="JB6" t="inlineStr"/>
+      <c r="JC6" t="inlineStr"/>
+      <c r="JD6" t="inlineStr"/>
+      <c r="JE6" t="inlineStr"/>
+      <c r="JF6" t="inlineStr"/>
+      <c r="JG6" t="inlineStr"/>
+      <c r="JH6" t="inlineStr"/>
+      <c r="JI6" t="inlineStr"/>
+      <c r="JJ6" t="inlineStr"/>
+      <c r="JK6" t="inlineStr"/>
+      <c r="JL6" t="inlineStr"/>
+      <c r="JM6" t="inlineStr"/>
+      <c r="JN6" t="inlineStr"/>
+      <c r="JO6" t="inlineStr"/>
+      <c r="JP6" t="inlineStr"/>
+      <c r="JQ6" t="inlineStr"/>
+      <c r="JR6" t="inlineStr"/>
+      <c r="JS6" t="inlineStr"/>
+      <c r="JT6" t="inlineStr"/>
+      <c r="JU6" t="inlineStr"/>
+      <c r="JV6" t="inlineStr"/>
+      <c r="JW6" t="inlineStr"/>
+      <c r="JX6" t="inlineStr"/>
+      <c r="JY6" t="inlineStr"/>
+      <c r="JZ6" t="inlineStr"/>
+      <c r="KA6" t="inlineStr"/>
+      <c r="KB6" t="inlineStr"/>
+      <c r="KC6" t="inlineStr"/>
+      <c r="KD6" t="inlineStr"/>
+      <c r="KE6" t="inlineStr"/>
+      <c r="KF6" t="inlineStr"/>
+      <c r="KG6" t="inlineStr"/>
+      <c r="KH6" t="inlineStr"/>
+      <c r="KI6" t="inlineStr"/>
+      <c r="KJ6" t="inlineStr"/>
+      <c r="KK6" t="inlineStr"/>
+      <c r="KL6" t="inlineStr"/>
+      <c r="KM6" t="inlineStr"/>
+      <c r="KN6" t="inlineStr"/>
+      <c r="KO6" t="inlineStr"/>
+      <c r="KP6" t="inlineStr"/>
+      <c r="KQ6" t="inlineStr"/>
+      <c r="KR6" t="inlineStr"/>
+      <c r="KS6" t="inlineStr"/>
+      <c r="KT6" t="inlineStr"/>
+      <c r="KU6" t="inlineStr"/>
+      <c r="KV6" t="inlineStr"/>
+      <c r="KW6" t="inlineStr"/>
+      <c r="KX6" t="inlineStr"/>
+      <c r="KY6" t="inlineStr"/>
+      <c r="KZ6" t="inlineStr"/>
+      <c r="LA6" t="inlineStr"/>
+      <c r="LB6" t="inlineStr"/>
+      <c r="LC6" t="inlineStr"/>
+      <c r="LD6" t="inlineStr"/>
+      <c r="LE6" t="inlineStr"/>
+      <c r="LF6" t="inlineStr"/>
+      <c r="LG6" t="inlineStr"/>
+      <c r="LH6" t="inlineStr"/>
+      <c r="LI6" t="inlineStr"/>
+      <c r="LJ6" t="inlineStr"/>
+      <c r="LK6" t="inlineStr"/>
+      <c r="LL6" t="inlineStr"/>
+      <c r="LM6" t="inlineStr"/>
+      <c r="LN6" t="inlineStr"/>
+      <c r="LO6" t="inlineStr"/>
+      <c r="LP6" t="inlineStr"/>
+      <c r="LQ6" t="inlineStr"/>
+      <c r="LR6" t="inlineStr"/>
+      <c r="LS6" t="inlineStr"/>
+      <c r="LT6" t="inlineStr"/>
+      <c r="LU6" t="inlineStr"/>
+      <c r="LV6" t="inlineStr"/>
+      <c r="LW6" t="inlineStr"/>
+      <c r="LX6" t="inlineStr"/>
+      <c r="LY6" t="inlineStr"/>
+      <c r="LZ6" t="inlineStr"/>
+      <c r="MA6" t="inlineStr"/>
+      <c r="MB6" t="inlineStr"/>
+      <c r="MC6" t="inlineStr"/>
+      <c r="MD6" t="inlineStr"/>
+      <c r="ME6" t="inlineStr"/>
+      <c r="MF6" t="inlineStr"/>
+      <c r="MG6" t="inlineStr"/>
+      <c r="MH6" t="inlineStr"/>
+      <c r="MI6" t="inlineStr"/>
+      <c r="MJ6" t="inlineStr"/>
+      <c r="MK6" t="inlineStr"/>
+      <c r="ML6" t="inlineStr"/>
+      <c r="MM6" t="inlineStr"/>
+      <c r="MN6" t="inlineStr"/>
+      <c r="MO6" t="inlineStr"/>
+      <c r="MP6" t="inlineStr"/>
+      <c r="MQ6" t="inlineStr"/>
+      <c r="MR6" t="inlineStr"/>
+      <c r="MS6" t="inlineStr"/>
+      <c r="MT6" t="inlineStr"/>
+      <c r="MU6" t="inlineStr"/>
+      <c r="MV6" t="inlineStr"/>
+      <c r="MW6" t="inlineStr"/>
+      <c r="MX6" t="inlineStr"/>
+      <c r="MY6" t="inlineStr"/>
+      <c r="MZ6" t="inlineStr"/>
+      <c r="NA6" t="inlineStr"/>
+      <c r="NB6" t="inlineStr"/>
+      <c r="NC6" t="inlineStr"/>
+      <c r="ND6" t="inlineStr"/>
+      <c r="NE6" t="inlineStr"/>
+      <c r="NF6" t="inlineStr"/>
+      <c r="NG6" t="inlineStr"/>
+      <c r="NH6" t="inlineStr"/>
+      <c r="NI6" t="inlineStr"/>
+      <c r="NJ6" t="inlineStr"/>
+      <c r="NK6" t="inlineStr"/>
+      <c r="NL6" t="inlineStr"/>
+      <c r="NM6" t="inlineStr"/>
+      <c r="NN6" t="inlineStr"/>
+      <c r="NO6" t="inlineStr"/>
+      <c r="NP6" t="inlineStr"/>
+      <c r="NQ6" t="inlineStr"/>
+      <c r="NR6" t="inlineStr"/>
+      <c r="NS6" t="inlineStr"/>
+      <c r="NT6" t="inlineStr"/>
+      <c r="NU6" t="inlineStr"/>
+      <c r="NV6" t="inlineStr"/>
+      <c r="NW6" t="inlineStr"/>
+      <c r="NX6" t="inlineStr"/>
+      <c r="NY6" t="inlineStr"/>
+      <c r="NZ6" t="inlineStr"/>
+      <c r="OA6" t="inlineStr"/>
+      <c r="OB6" t="inlineStr"/>
+      <c r="OC6" t="inlineStr"/>
+      <c r="OD6" t="inlineStr"/>
+      <c r="OE6" t="inlineStr"/>
+      <c r="OF6" t="inlineStr"/>
+      <c r="OG6" t="inlineStr"/>
+      <c r="OH6" t="inlineStr"/>
+      <c r="OI6" t="inlineStr"/>
+      <c r="OJ6" t="inlineStr"/>
+      <c r="OK6" t="inlineStr"/>
+      <c r="OL6" t="inlineStr"/>
+      <c r="OM6" t="inlineStr"/>
+      <c r="ON6" t="inlineStr"/>
+      <c r="OO6" t="inlineStr"/>
+      <c r="OP6" t="inlineStr"/>
+      <c r="OQ6" t="inlineStr"/>
+      <c r="OR6" t="inlineStr"/>
+      <c r="OS6" t="inlineStr"/>
+      <c r="OT6" t="inlineStr"/>
+      <c r="OU6" t="inlineStr"/>
+      <c r="OV6" t="inlineStr"/>
+      <c r="OW6" t="inlineStr"/>
+      <c r="OX6" t="inlineStr"/>
+      <c r="OY6" t="inlineStr"/>
+      <c r="OZ6" t="inlineStr"/>
+      <c r="PA6" t="inlineStr"/>
+      <c r="PB6" t="inlineStr"/>
+      <c r="PC6" t="inlineStr"/>
+      <c r="PD6" t="inlineStr"/>
+      <c r="PE6" t="inlineStr"/>
+      <c r="PF6" t="inlineStr"/>
+      <c r="PG6" t="inlineStr"/>
+      <c r="PH6" t="inlineStr"/>
+      <c r="PI6" t="inlineStr"/>
+      <c r="PJ6" t="inlineStr"/>
+      <c r="PK6" t="inlineStr"/>
+      <c r="PL6" t="inlineStr"/>
+      <c r="PM6" t="inlineStr"/>
+      <c r="PN6" t="inlineStr"/>
+      <c r="PO6" t="inlineStr"/>
+      <c r="PP6" t="inlineStr"/>
+      <c r="PQ6" t="inlineStr"/>
+      <c r="PR6" t="inlineStr"/>
+      <c r="PS6" t="inlineStr"/>
+      <c r="PT6" t="inlineStr"/>
+      <c r="PU6" t="inlineStr"/>
+      <c r="PV6" t="inlineStr"/>
+      <c r="PW6" t="inlineStr"/>
+      <c r="PX6" t="inlineStr"/>
+      <c r="PY6" t="inlineStr"/>
+      <c r="PZ6" t="inlineStr"/>
+      <c r="QA6" t="inlineStr"/>
+      <c r="QB6" t="inlineStr"/>
+      <c r="QC6" t="inlineStr"/>
+      <c r="QD6" t="inlineStr"/>
+      <c r="QE6" t="inlineStr"/>
+      <c r="QF6" t="inlineStr"/>
+      <c r="QG6" t="inlineStr"/>
+      <c r="QH6" t="inlineStr"/>
+      <c r="QI6" t="inlineStr"/>
+      <c r="QJ6" t="inlineStr"/>
+      <c r="QK6" t="inlineStr"/>
+      <c r="QL6" t="inlineStr"/>
+      <c r="QM6" t="inlineStr"/>
+      <c r="QN6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>118.9817047119141</v>
+        <v>14813580900</v>
       </c>
       <c r="B7" t="n">
-        <v>121.9720764160156</v>
+        <v>14813580900</v>
       </c>
       <c r="C7" t="n">
-        <v>121.8138275146484</v>
+        <v>20119212000</v>
       </c>
       <c r="D7" t="n">
-        <v>125.1376037597656</v>
+        <v>20119212000</v>
       </c>
       <c r="E7" t="n">
-        <v>130.1561279296875</v>
+        <v>20311539700</v>
       </c>
       <c r="F7" t="n">
-        <v>132.4678344726562</v>
+        <v>20311539700</v>
       </c>
       <c r="G7" t="n">
-        <v>137.6114654541016</v>
+        <v>20510273800</v>
       </c>
       <c r="H7" t="n">
-        <v>142.497802734375</v>
+        <v>20510273800</v>
       </c>
       <c r="I7" t="n">
-        <v>145.3826904296875</v>
+        <v>20687272800</v>
       </c>
       <c r="J7" t="n">
-        <v>149.0161285400391</v>
+        <v>20687272800</v>
       </c>
       <c r="K7" t="n">
-        <v>144.9960174560547</v>
+        <v>20887127100</v>
       </c>
       <c r="L7" t="n">
-        <v>148.9617462158203</v>
+        <v>20887127100</v>
       </c>
       <c r="M7" t="n">
-        <v>154.7719573974609</v>
+        <v>21086937100</v>
       </c>
       <c r="N7" t="n">
-        <v>162.4636840820312</v>
+        <v>21086937100</v>
       </c>
       <c r="O7" t="n">
-        <v>172.1922607421875</v>
+        <v>21316581300</v>
       </c>
       <c r="P7" t="n">
-        <v>177.8509521484375</v>
+        <v>21316581300</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.1013031005859</v>
+        <v>21538693800</v>
       </c>
       <c r="R7" t="n">
-        <v>186.022216796875</v>
+        <v>21538693800</v>
       </c>
       <c r="S7" t="n">
-        <v>187.2432098388672</v>
+        <v>21761751900</v>
       </c>
       <c r="T7" t="n">
-        <v>191.0648040771484</v>
+        <v>21761751900</v>
       </c>
       <c r="U7" t="n">
-        <v>188.8238525390625</v>
+        <v>21936092100</v>
       </c>
       <c r="V7" t="n">
-        <v>188.2167358398438</v>
+        <v>21936092100</v>
       </c>
       <c r="W7" t="n">
-        <v>188.1514892578125</v>
+        <v>22135735900</v>
       </c>
       <c r="X7" t="n">
-        <v>184.65380859375</v>
+        <v>22135735900</v>
       </c>
       <c r="Y7" t="n">
-        <v>183.8822021484375</v>
+        <v>22360644000</v>
       </c>
       <c r="Z7" t="n">
-        <v>182.96435546875</v>
+        <v>22360644000</v>
       </c>
       <c r="AA7" t="n">
-        <v>179.3599853515625</v>
+        <v>22511005700</v>
       </c>
       <c r="AB7" t="n">
-        <v>177.1361236572266</v>
+        <v>22511005700</v>
       </c>
       <c r="AC7" t="n">
-        <v>177.1480865478516</v>
+        <v>22687401500</v>
       </c>
       <c r="AD7" t="n">
-        <v>174.4213714599609</v>
+        <v>22687401500</v>
       </c>
       <c r="AE7" t="n">
-        <v>171.6141357421875</v>
+        <v>22885892600</v>
       </c>
       <c r="AF7" t="n">
-        <v>166.9175415039062</v>
+        <v>22885892600</v>
       </c>
       <c r="AG7" t="n">
-        <v>166.9966430664062</v>
+        <v>23110972600</v>
       </c>
       <c r="AH7" t="n">
-        <v>162.85693359375</v>
+        <v>23110972600</v>
       </c>
       <c r="AI7" t="n">
-        <v>164.6651153564453</v>
+        <v>23285589000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>175.5213165283203</v>
+        <v>23285589000</v>
       </c>
       <c r="AK7" t="n">
-        <v>177.0644073486328</v>
+        <v>23462887300</v>
       </c>
       <c r="AL7" t="n">
-        <v>188.8343658447266</v>
+        <v>23462887300</v>
       </c>
       <c r="AM7" t="n">
-        <v>190.19482421875</v>
+        <v>23662975700</v>
       </c>
       <c r="AN7" t="n">
-        <v>187.0886840820312</v>
+        <v>23662975700</v>
       </c>
       <c r="AO7" t="n">
-        <v>184.3726959228516</v>
+        <v>23866791900</v>
       </c>
       <c r="AP7" t="n">
-        <v>182.652587890625</v>
+        <v>23866791900</v>
       </c>
       <c r="AQ7" t="n">
-        <v>178.9909515380859</v>
+        <v>24088214600</v>
       </c>
       <c r="AR7" t="n">
-        <v>174.0490570068359</v>
+        <v>24088214600</v>
       </c>
       <c r="AS7" t="n">
-        <v>166.1895751953125</v>
+        <v>24267686000</v>
       </c>
       <c r="AT7" t="n">
-        <v>160.092529296875</v>
+        <v>24441759100</v>
       </c>
       <c r="AU7" t="n">
-        <v>156.0747680664062</v>
+        <v>24441759100</v>
       </c>
       <c r="AV7" t="n">
-        <v>154.6967163085938</v>
+        <v>24640682400</v>
       </c>
       <c r="AW7" t="n">
-        <v>163.3045806884766</v>
+        <v>24810977800</v>
       </c>
       <c r="AX7" t="n">
-        <v>169.28369140625</v>
+        <v>24961584000</v>
       </c>
       <c r="AY7" t="n">
-        <v>166.1943817138672</v>
+        <v>25110740900</v>
       </c>
       <c r="AZ7" t="n">
-        <v>174.8011016845703</v>
+        <v>25262241500</v>
       </c>
       <c r="BA7" t="n">
-        <v>181.5235595703125</v>
+        <v>25386536200</v>
       </c>
       <c r="BB7" t="n">
-        <v>181.1177368164062</v>
+        <v>25510956900</v>
       </c>
       <c r="BC7" t="n">
-        <v>181.134033203125</v>
+        <v>25662535200</v>
       </c>
       <c r="BD7" t="n">
-        <v>179.7220458984375</v>
+        <v>25810478200</v>
       </c>
       <c r="BE7" t="n">
-        <v>178.1994476318359</v>
+        <v>25961012000</v>
       </c>
       <c r="BF7" t="n">
-        <v>173.850830078125</v>
+        <v>26110723200</v>
       </c>
       <c r="BG7" t="n">
-        <v>167.5494995117188</v>
+        <v>26260435100</v>
       </c>
       <c r="BH7" t="n">
-        <v>159.3627319335938</v>
+        <v>26386142000</v>
       </c>
       <c r="BI7" t="n">
-        <v>161.8528289794922</v>
+        <v>26536258900</v>
       </c>
       <c r="BJ7" t="n">
-        <v>158.1499481201172</v>
+        <v>26685664100</v>
       </c>
       <c r="BK7" t="n">
-        <v>164.5125732421875</v>
+        <v>26836309500</v>
       </c>
       <c r="BL7" t="n">
-        <v>175.5067749023438</v>
+        <v>27016305600</v>
       </c>
       <c r="BM7" t="n">
-        <v>196.6145629882812</v>
+        <v>27186611100</v>
       </c>
       <c r="BN7" t="n">
-        <v>190.4754638671875</v>
+        <v>27335479700</v>
       </c>
       <c r="BO7" t="n">
-        <v>190.71826171875</v>
+        <v>27461202100</v>
       </c>
       <c r="BP7" t="n">
-        <v>194.8667602539062</v>
+        <v>27610728600</v>
       </c>
       <c r="BQ7" t="n">
-        <v>175.5813446044922</v>
+        <v>27786016000</v>
       </c>
       <c r="BR7" t="n">
-        <v>163.04443359375</v>
+        <v>27936796200</v>
       </c>
       <c r="BS7" t="n">
-        <v>163.26806640625</v>
+        <v>28086235700</v>
       </c>
       <c r="BT7" t="n">
-        <v>159.6092529296875</v>
+        <v>28235874600</v>
       </c>
       <c r="BU7" t="n">
-        <v>159.5843505859375</v>
+        <v>28386709300</v>
       </c>
       <c r="BV7" t="n">
-        <v>157.6434936523438</v>
+        <v>28563022000</v>
       </c>
       <c r="BW7" t="n">
-        <v>160.3083038330078</v>
+        <v>28711937400</v>
       </c>
       <c r="BX7" t="n">
-        <v>149.51220703125</v>
+        <v>28862553400</v>
       </c>
       <c r="BY7" t="n">
-        <v>165.234619140625</v>
+        <v>29011617100</v>
       </c>
       <c r="BZ7" t="n">
-        <v>160.4083862304688</v>
+        <v>29135998400</v>
       </c>
       <c r="CA7" t="n">
-        <v>161.5907592773438</v>
+        <v>29286730500</v>
       </c>
       <c r="CB7" t="n">
-        <v>168.1150665283203</v>
+        <v>29411630300</v>
       </c>
       <c r="CC7" t="n">
-        <v>184.6910552978516</v>
+        <v>29561052200</v>
       </c>
       <c r="CD7" t="n">
-        <v>185.8252563476562</v>
+        <v>29736390500</v>
       </c>
       <c r="CE7" t="n">
-        <v>190.74853515625</v>
+        <v>29886364600</v>
       </c>
       <c r="CF7" t="n">
-        <v>194.0263977050781</v>
+        <v>30036155500</v>
       </c>
       <c r="CG7" t="n">
-        <v>194.6962280273438</v>
+        <v>30236502500</v>
       </c>
       <c r="CH7" t="n">
-        <v>188.7510528564453</v>
-      </c>
-      <c r="CI7" t="inlineStr"/>
-      <c r="CJ7" t="inlineStr"/>
-      <c r="CK7" t="inlineStr"/>
-      <c r="CL7" t="inlineStr"/>
-      <c r="CM7" t="inlineStr"/>
-      <c r="CN7" t="inlineStr"/>
-      <c r="CO7" t="inlineStr"/>
-      <c r="CP7" t="inlineStr"/>
-      <c r="CQ7" t="inlineStr"/>
-      <c r="CR7" t="inlineStr"/>
-      <c r="CS7" t="inlineStr"/>
-      <c r="CT7" t="inlineStr"/>
-      <c r="CU7" t="inlineStr"/>
-      <c r="CV7" t="inlineStr"/>
-      <c r="CW7" t="inlineStr"/>
-      <c r="CX7" t="inlineStr"/>
-      <c r="CY7" t="inlineStr"/>
-      <c r="CZ7" t="inlineStr"/>
-      <c r="DA7" t="inlineStr"/>
-      <c r="DB7" t="inlineStr"/>
-      <c r="DC7" t="inlineStr"/>
-      <c r="DD7" t="inlineStr"/>
-      <c r="DE7" t="inlineStr"/>
-      <c r="DF7" t="inlineStr"/>
-      <c r="DG7" t="inlineStr"/>
-      <c r="DH7" t="inlineStr"/>
-      <c r="DI7" t="inlineStr"/>
-      <c r="DJ7" t="inlineStr"/>
-      <c r="DK7" t="inlineStr"/>
-      <c r="DL7" t="inlineStr"/>
-      <c r="DM7" t="inlineStr"/>
-      <c r="DN7" t="inlineStr"/>
-      <c r="DO7" t="inlineStr"/>
-      <c r="DP7" t="inlineStr"/>
-      <c r="DQ7" t="inlineStr"/>
-      <c r="DR7" t="inlineStr"/>
-      <c r="DS7" t="inlineStr"/>
-      <c r="DT7" t="inlineStr"/>
-      <c r="DU7" t="inlineStr"/>
-      <c r="DV7" t="inlineStr"/>
-      <c r="DW7" t="inlineStr"/>
-      <c r="DX7" t="inlineStr"/>
-      <c r="DY7" t="inlineStr"/>
-      <c r="DZ7" t="inlineStr"/>
-      <c r="EA7" t="inlineStr"/>
-      <c r="EB7" t="inlineStr"/>
-      <c r="EC7" t="inlineStr"/>
-      <c r="ED7" t="inlineStr"/>
-      <c r="EE7" t="inlineStr"/>
-      <c r="EF7" t="inlineStr"/>
-      <c r="EG7" t="inlineStr"/>
-      <c r="EH7" t="inlineStr"/>
-      <c r="EI7" t="inlineStr"/>
-      <c r="EJ7" t="inlineStr"/>
-      <c r="EK7" t="inlineStr"/>
-      <c r="EL7" t="inlineStr"/>
-      <c r="EM7" t="inlineStr"/>
-      <c r="EN7" t="inlineStr"/>
-      <c r="EO7" t="inlineStr"/>
-      <c r="EP7" t="inlineStr"/>
-      <c r="EQ7" t="inlineStr"/>
-      <c r="ER7" t="inlineStr"/>
-      <c r="ES7" t="inlineStr"/>
-      <c r="ET7" t="inlineStr"/>
-      <c r="EU7" t="inlineStr"/>
-      <c r="EV7" t="inlineStr"/>
-      <c r="EW7" t="inlineStr"/>
-      <c r="EX7" t="inlineStr"/>
-      <c r="EY7" t="inlineStr"/>
-      <c r="EZ7" t="inlineStr"/>
-      <c r="FA7" t="inlineStr"/>
-      <c r="FB7" t="inlineStr"/>
-      <c r="FC7" t="inlineStr"/>
-      <c r="FD7" t="inlineStr"/>
-      <c r="FE7" t="inlineStr"/>
-      <c r="FF7" t="inlineStr"/>
-      <c r="FG7" t="inlineStr"/>
-      <c r="FH7" t="inlineStr"/>
-      <c r="FI7" t="inlineStr"/>
-      <c r="FJ7" t="inlineStr"/>
-      <c r="FK7" t="inlineStr"/>
-      <c r="FL7" t="inlineStr"/>
-      <c r="FM7" t="inlineStr"/>
-      <c r="FN7" t="inlineStr"/>
-      <c r="FO7" t="inlineStr"/>
-      <c r="FP7" t="inlineStr"/>
-      <c r="FQ7" t="inlineStr"/>
-      <c r="FR7" t="inlineStr"/>
-      <c r="FS7" t="inlineStr"/>
-      <c r="FT7" t="inlineStr"/>
-      <c r="FU7" t="inlineStr"/>
-      <c r="FV7" t="inlineStr"/>
-      <c r="FW7" t="inlineStr"/>
-      <c r="FX7" t="inlineStr"/>
-      <c r="FY7" t="inlineStr"/>
-      <c r="FZ7" t="inlineStr"/>
-      <c r="GA7" t="inlineStr"/>
-      <c r="GB7" t="inlineStr"/>
-      <c r="GC7" t="inlineStr"/>
-      <c r="GD7" t="inlineStr"/>
-      <c r="GE7" t="inlineStr"/>
-      <c r="GF7" t="inlineStr"/>
-      <c r="GG7" t="inlineStr"/>
-      <c r="GH7" t="inlineStr"/>
-      <c r="GI7" t="inlineStr"/>
-      <c r="GJ7" t="inlineStr"/>
-      <c r="GK7" t="inlineStr"/>
-      <c r="GL7" t="inlineStr"/>
-      <c r="GM7" t="inlineStr"/>
-      <c r="GN7" t="inlineStr"/>
-      <c r="GO7" t="inlineStr"/>
-      <c r="GP7" t="inlineStr"/>
-      <c r="GQ7" t="inlineStr"/>
-      <c r="GR7" t="inlineStr"/>
-      <c r="GS7" t="inlineStr"/>
-      <c r="GT7" t="inlineStr"/>
-      <c r="GU7" t="inlineStr"/>
-      <c r="GV7" t="inlineStr"/>
-      <c r="GW7" t="inlineStr"/>
-      <c r="GX7" t="inlineStr"/>
-      <c r="GY7" t="inlineStr"/>
-      <c r="GZ7" t="inlineStr"/>
-      <c r="HA7" t="inlineStr"/>
-      <c r="HB7" t="inlineStr"/>
-      <c r="HC7" t="inlineStr"/>
-      <c r="HD7" t="inlineStr"/>
-      <c r="HE7" t="inlineStr"/>
-      <c r="HF7" t="inlineStr"/>
-      <c r="HG7" t="inlineStr"/>
-      <c r="HH7" t="inlineStr"/>
-      <c r="HI7" t="inlineStr"/>
-      <c r="HJ7" t="inlineStr"/>
-      <c r="HK7" t="inlineStr"/>
-      <c r="HL7" t="inlineStr"/>
-      <c r="HM7" t="inlineStr"/>
-      <c r="HN7" t="inlineStr"/>
-      <c r="HO7" t="inlineStr"/>
-      <c r="HP7" t="inlineStr"/>
-      <c r="HQ7" t="inlineStr"/>
-      <c r="HR7" t="inlineStr"/>
-      <c r="HS7" t="inlineStr"/>
-      <c r="HT7" t="inlineStr"/>
-      <c r="HU7" t="inlineStr"/>
-      <c r="HV7" t="inlineStr"/>
-      <c r="HW7" t="inlineStr"/>
-      <c r="HX7" t="inlineStr"/>
-      <c r="HY7" t="inlineStr"/>
-      <c r="HZ7" t="inlineStr"/>
-      <c r="IA7" t="inlineStr"/>
-      <c r="IB7" t="inlineStr"/>
-      <c r="IC7" t="inlineStr"/>
-      <c r="ID7" t="inlineStr"/>
-      <c r="IE7" t="inlineStr"/>
-      <c r="IF7" t="inlineStr"/>
-      <c r="IG7" t="inlineStr"/>
-      <c r="IH7" t="inlineStr"/>
-      <c r="II7" t="inlineStr"/>
-      <c r="IJ7" t="inlineStr"/>
-      <c r="IK7" t="inlineStr"/>
-      <c r="IL7" t="inlineStr"/>
-      <c r="IM7" t="inlineStr"/>
-      <c r="IN7" t="inlineStr"/>
-      <c r="IO7" t="inlineStr"/>
-      <c r="IP7" t="inlineStr"/>
-      <c r="IQ7" t="inlineStr"/>
-      <c r="IR7" t="inlineStr"/>
-      <c r="IS7" t="inlineStr"/>
-      <c r="IT7" t="inlineStr"/>
-      <c r="IU7" t="inlineStr"/>
-      <c r="IV7" t="inlineStr"/>
-      <c r="IW7" t="inlineStr"/>
-      <c r="IX7" t="inlineStr"/>
-      <c r="IY7" t="inlineStr"/>
-      <c r="IZ7" t="inlineStr"/>
-      <c r="JA7" t="inlineStr"/>
-      <c r="JB7" t="inlineStr"/>
+        <v>30386194300</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>30510950100</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>30662271400</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>30812367600</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>30986826700</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>31136009000</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>31363612100</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>31538396200</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>31686961600</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>31863438400</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>32036632500</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>32187981600</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>32386380600</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>32586894200</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>32735958100</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>32886731000</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>33010677000</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>33136329700</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>33311606400</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>33435773600</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>33586172200</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>33737069200</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>33887044900</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>34062063100</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>34187209200</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>34336378400</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>34462312900</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>34586237800</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>34761602500</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>34912198400</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>35036246700</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>35161557900</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>35312232200</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>35461153800</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>35586552100</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>35735895200</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>35886526200</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>36087052300</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>36237206400</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>36386293700</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>36512636200</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>36687131100</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>36836418100</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>37012537500</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>37186410300</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>37337614900</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>37486200100</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>37638332200</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>37811857400</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>37961448500</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>38086785200</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>38236995600</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>38386216000</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>38538296300</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>38714770100</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>38886146500</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>39037164500</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>39162066600</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>39311232900</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>39465925700</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>39612823600</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>39761077900</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>39913066000</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>40039511400</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>40213040300</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>40387032000</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>40540495500</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>40711936600</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>40861326900</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>40987281100</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>41136402300</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>41287047400</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>41464218900</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>41640082800</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>41786310400</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>41936984300</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>42062640800</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>42261437100</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>42461439800</v>
+      </c>
+      <c r="FI7" t="n">
+        <v>42588134300</v>
+      </c>
+      <c r="FJ7" t="n">
+        <v>42737179500</v>
+      </c>
+      <c r="FK7" t="n">
+        <v>42887467400</v>
+      </c>
+      <c r="FL7" t="n">
+        <v>43037852600</v>
+      </c>
+      <c r="FM7" t="n">
+        <v>43188146800</v>
+      </c>
+      <c r="FN7" t="n">
+        <v>43339764500</v>
+      </c>
+      <c r="FO7" t="n">
+        <v>43487669900</v>
+      </c>
+      <c r="FP7" t="n">
+        <v>43663520600</v>
+      </c>
+      <c r="FQ7" t="n">
+        <v>43811587700</v>
+      </c>
+      <c r="FR7" t="n">
+        <v>43961806000</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>44087827900</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>44241301600</v>
+      </c>
+      <c r="FU7" t="n">
+        <v>44439224300</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>44614057500</v>
+      </c>
+      <c r="FW7" t="n">
+        <v>44762350500</v>
+      </c>
+      <c r="FX7" t="n">
+        <v>44920691800</v>
+      </c>
+      <c r="FY7" t="n">
+        <v>45086919300</v>
+      </c>
+      <c r="FZ7" t="n">
+        <v>45212902800</v>
+      </c>
+      <c r="GA7" t="n">
+        <v>45363452100</v>
+      </c>
+      <c r="GB7" t="n">
+        <v>45539116000</v>
+      </c>
+      <c r="GC7" t="n">
+        <v>45711972200</v>
+      </c>
+      <c r="GD7" t="n">
+        <v>45862107300</v>
+      </c>
+      <c r="GE7" t="n">
+        <v>45986953900</v>
+      </c>
+      <c r="GF7" t="n">
+        <v>46212539600</v>
+      </c>
+      <c r="GG7" t="n">
+        <v>46362663700</v>
+      </c>
+      <c r="GH7" t="n">
+        <v>46512260000</v>
+      </c>
+      <c r="GI7" t="n">
+        <v>46662229300</v>
+      </c>
+      <c r="GJ7" t="n">
+        <v>46787344000</v>
+      </c>
+      <c r="GK7" t="n">
+        <v>46937316400</v>
+      </c>
+      <c r="GL7" t="n">
+        <v>47087580100</v>
+      </c>
+      <c r="GM7" t="n">
+        <v>47262710500</v>
+      </c>
+      <c r="GN7" t="n">
+        <v>47436831800</v>
+      </c>
+      <c r="GO7" t="n">
+        <v>47587668700</v>
+      </c>
+      <c r="GP7" t="n">
+        <v>47743396300</v>
+      </c>
+      <c r="GQ7" t="n">
+        <v>47886682300</v>
+      </c>
+      <c r="GR7" t="n">
+        <v>48037845300</v>
+      </c>
+      <c r="GS7" t="n">
+        <v>48190885800</v>
+      </c>
+      <c r="GT7" t="n">
+        <v>48336731500</v>
+      </c>
+      <c r="GU7" t="n">
+        <v>48487878100</v>
+      </c>
+      <c r="GV7" t="n">
+        <v>48638938400</v>
+      </c>
+      <c r="GW7" t="n">
+        <v>48786691100</v>
+      </c>
+      <c r="GX7" t="n">
+        <v>48986995500</v>
+      </c>
+      <c r="GY7" t="n">
+        <v>49137394400</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>49287738900</v>
+      </c>
+      <c r="HA7" t="n">
+        <v>49437781800</v>
+      </c>
+      <c r="HB7" t="n">
+        <v>49639303800</v>
+      </c>
+      <c r="HC7" t="n">
+        <v>49787781200</v>
+      </c>
+      <c r="HD7" t="n">
+        <v>49940195000</v>
+      </c>
+      <c r="HE7" t="n">
+        <v>50088436200</v>
+      </c>
+      <c r="HF7" t="n">
+        <v>50237431200</v>
+      </c>
+      <c r="HG7" t="n">
+        <v>50415644200</v>
+      </c>
+      <c r="HH7" t="n">
+        <v>50612704600</v>
+      </c>
+      <c r="HI7" t="n">
+        <v>50762386200</v>
+      </c>
+      <c r="HJ7" t="n">
+        <v>50912780800</v>
+      </c>
+      <c r="HK7" t="n">
+        <v>51115207600</v>
+      </c>
+      <c r="HL7" t="n">
+        <v>51261872500</v>
+      </c>
+      <c r="HM7" t="n">
+        <v>51413435600</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>51562762200</v>
+      </c>
+      <c r="HO7" t="n">
+        <v>51713529900</v>
+      </c>
+      <c r="HP7" t="n">
+        <v>51864323500</v>
+      </c>
+      <c r="HQ7" t="n">
+        <v>52013077600</v>
+      </c>
+      <c r="HR7" t="n">
+        <v>52162739400</v>
+      </c>
+      <c r="HS7" t="n">
+        <v>52318945800</v>
+      </c>
+      <c r="HT7" t="n">
+        <v>52462858900</v>
+      </c>
+      <c r="HU7" t="n">
+        <v>52612892900</v>
+      </c>
+      <c r="HV7" t="n">
+        <v>52763287900</v>
+      </c>
+      <c r="HW7" t="n">
+        <v>52913371700</v>
+      </c>
+      <c r="HX7" t="n">
+        <v>53062066600</v>
+      </c>
+      <c r="HY7" t="n">
+        <v>53240554400</v>
+      </c>
+      <c r="HZ7" t="n">
+        <v>53437981700</v>
+      </c>
+      <c r="IA7" t="n">
+        <v>53588017400</v>
+      </c>
+      <c r="IB7" t="n">
+        <v>53737520500</v>
+      </c>
+      <c r="IC7" t="n">
+        <v>53862887400</v>
+      </c>
+      <c r="ID7" t="n">
+        <v>54013248500</v>
+      </c>
+      <c r="IE7" t="n">
+        <v>54162128800</v>
+      </c>
+      <c r="IF7" t="n">
+        <v>54287915700</v>
+      </c>
+      <c r="IG7" t="n">
+        <v>54438018800</v>
+      </c>
+      <c r="IH7" t="n">
+        <v>54639823800</v>
+      </c>
+      <c r="II7" t="n">
+        <v>54788391200</v>
+      </c>
+      <c r="IJ7" t="n">
+        <v>54939384700</v>
+      </c>
+      <c r="IK7" t="n">
+        <v>55087576800</v>
+      </c>
+      <c r="IL7" t="n">
+        <v>55238918200</v>
+      </c>
+      <c r="IM7" t="n">
+        <v>55388826800</v>
+      </c>
+      <c r="IN7" t="n">
+        <v>55537486900</v>
+      </c>
+      <c r="IO7" t="n">
+        <v>55688918500</v>
+      </c>
+      <c r="IP7" t="n">
+        <v>55838147100</v>
+      </c>
+      <c r="IQ7" t="n">
+        <v>55987392000</v>
+      </c>
+      <c r="IR7" t="n">
+        <v>56137886400</v>
+      </c>
+      <c r="IS7" t="n">
+        <v>56289296100</v>
+      </c>
+      <c r="IT7" t="n">
+        <v>56462368700</v>
+      </c>
+      <c r="IU7" t="n">
+        <v>56613328600</v>
+      </c>
+      <c r="IV7" t="n">
+        <v>56763143100</v>
+      </c>
+      <c r="IW7" t="n">
+        <v>56912714000</v>
+      </c>
+      <c r="IX7" t="n">
+        <v>57065011600</v>
+      </c>
+      <c r="IY7" t="n">
+        <v>57238342000</v>
+      </c>
+      <c r="IZ7" t="n">
+        <v>57388397400</v>
+      </c>
+      <c r="JA7" t="n">
+        <v>57537745400</v>
+      </c>
+      <c r="JB7" t="n">
+        <v>57689649300</v>
+      </c>
+      <c r="JC7" t="n">
+        <v>57813733900</v>
+      </c>
+      <c r="JD7" t="n">
+        <v>57938370000</v>
+      </c>
+      <c r="JE7" t="n">
+        <v>58088435100</v>
+      </c>
+      <c r="JF7" t="n">
+        <v>58237751300</v>
+      </c>
+      <c r="JG7" t="n">
+        <v>58363124200</v>
+      </c>
+      <c r="JH7" t="n">
+        <v>58513274800</v>
+      </c>
+      <c r="JI7" t="n">
+        <v>58640744700</v>
+      </c>
+      <c r="JJ7" t="n">
+        <v>58787881700</v>
+      </c>
+      <c r="JK7" t="n">
+        <v>58937952400</v>
+      </c>
+      <c r="JL7" t="n">
+        <v>59112657900</v>
+      </c>
+      <c r="JM7" t="n">
+        <v>59263784000</v>
+      </c>
+      <c r="JN7" t="n">
+        <v>59413572100</v>
+      </c>
+      <c r="JO7" t="n">
+        <v>59563331200</v>
+      </c>
+      <c r="JP7" t="n">
+        <v>59713867200</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>59865052300</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>60038537200</v>
+      </c>
+      <c r="JS7" t="n">
+        <v>60163315900</v>
+      </c>
+      <c r="JT7" t="n">
+        <v>60287949500</v>
+      </c>
+      <c r="JU7" t="n">
+        <v>60413214600</v>
+      </c>
+      <c r="JV7" t="n">
+        <v>60563456200</v>
+      </c>
+      <c r="JW7" t="n">
+        <v>60713846400</v>
+      </c>
+      <c r="JX7" t="n">
+        <v>60862812700</v>
+      </c>
+      <c r="JY7" t="n">
+        <v>61013990100</v>
+      </c>
+      <c r="JZ7" t="n">
+        <v>61138160300</v>
+      </c>
+      <c r="KA7" t="n">
+        <v>61288313200</v>
+      </c>
+      <c r="KB7" t="n">
+        <v>61413591800</v>
+      </c>
+      <c r="KC7" t="n">
+        <v>61564067700</v>
+      </c>
+      <c r="KD7" t="n">
+        <v>61739248500</v>
+      </c>
+      <c r="KE7" t="n">
+        <v>61892695800</v>
+      </c>
+      <c r="KF7" t="n">
+        <v>62088408900</v>
+      </c>
+      <c r="KG7" t="n">
+        <v>62239041200</v>
+      </c>
+      <c r="KH7" t="n">
+        <v>62413499500</v>
+      </c>
+      <c r="KI7" t="n">
+        <v>62588452300</v>
+      </c>
+      <c r="KJ7" t="n">
+        <v>62738381400</v>
+      </c>
+      <c r="KK7" t="n">
+        <v>62888140500</v>
+      </c>
+      <c r="KL7" t="n">
+        <v>63038825900</v>
+      </c>
+      <c r="KM7" t="n">
+        <v>63188242100</v>
+      </c>
+      <c r="KN7" t="n">
+        <v>63363973500</v>
+      </c>
+      <c r="KO7" t="n">
+        <v>63489529100</v>
+      </c>
+      <c r="KP7" t="n">
+        <v>63689111700</v>
+      </c>
+      <c r="KQ7" t="n">
+        <v>63813993800</v>
+      </c>
+      <c r="KR7" t="n">
+        <v>63966229000</v>
+      </c>
+      <c r="KS7" t="n">
+        <v>64112900000</v>
+      </c>
+      <c r="KT7" t="n">
+        <v>64238311000</v>
+      </c>
+      <c r="KU7" t="n">
+        <v>64362845500</v>
+      </c>
+      <c r="KV7" t="n">
+        <v>64489266700</v>
+      </c>
+      <c r="KW7" t="n">
+        <v>64640320000</v>
+      </c>
+      <c r="KX7" t="n">
+        <v>64788436600</v>
+      </c>
+      <c r="KY7" t="n">
+        <v>64938773900</v>
+      </c>
+      <c r="KZ7" t="n">
+        <v>65089113400</v>
+      </c>
+      <c r="LA7" t="n">
+        <v>65213422500</v>
+      </c>
+      <c r="LB7" t="n">
+        <v>65363447800</v>
+      </c>
+      <c r="LC7" t="n">
+        <v>65514060800</v>
+      </c>
+      <c r="LD7" t="n">
+        <v>65663549300</v>
+      </c>
+      <c r="LE7" t="n">
+        <v>65813711600</v>
+      </c>
+      <c r="LF7" t="n">
+        <v>65964239000</v>
+      </c>
+      <c r="LG7" t="n">
+        <v>66113240500</v>
+      </c>
+      <c r="LH7" t="n">
+        <v>66263392100</v>
+      </c>
+      <c r="LI7" t="n">
+        <v>66414870600</v>
+      </c>
+      <c r="LJ7" t="n">
+        <v>66563510000</v>
+      </c>
+      <c r="LK7" t="n">
+        <v>66714573900</v>
+      </c>
+      <c r="LL7" t="n">
+        <v>66895665800</v>
+      </c>
+      <c r="LM7" t="n">
+        <v>67089445300</v>
+      </c>
+      <c r="LN7" t="n">
+        <v>67238015500</v>
+      </c>
+      <c r="LO7" t="n">
+        <v>67389107300</v>
+      </c>
+      <c r="LP7" t="n">
+        <v>67512850400</v>
+      </c>
+      <c r="LQ7" t="n">
+        <v>67664122900</v>
+      </c>
+      <c r="LR7" t="n">
+        <v>67813940900</v>
+      </c>
+      <c r="LS7" t="n">
+        <v>67964465100</v>
+      </c>
+      <c r="LT7" t="n">
+        <v>68113697700</v>
+      </c>
+      <c r="LU7" t="n">
+        <v>68264203400</v>
+      </c>
+      <c r="LV7" t="n">
+        <v>68439073700</v>
+      </c>
+      <c r="LW7" t="n">
+        <v>68563422400</v>
+      </c>
+      <c r="LX7" t="n">
+        <v>68714754200</v>
+      </c>
+      <c r="LY7" t="n">
+        <v>68838355200</v>
+      </c>
+      <c r="LZ7" t="n">
+        <v>68990218000</v>
+      </c>
+      <c r="MA7" t="n">
+        <v>69141651900</v>
+      </c>
+      <c r="MB7" t="n">
+        <v>69289491400</v>
+      </c>
+      <c r="MC7" t="n">
+        <v>69414022400</v>
+      </c>
+      <c r="MD7" t="n">
+        <v>69565155200</v>
+      </c>
+      <c r="ME7" t="n">
+        <v>69713611800</v>
+      </c>
+      <c r="MF7" t="n">
+        <v>69838732600</v>
+      </c>
+      <c r="MG7" t="n">
+        <v>69963631300</v>
+      </c>
+      <c r="MH7" t="n">
+        <v>70115654000</v>
+      </c>
+      <c r="MI7" t="n">
+        <v>70264811100</v>
+      </c>
+      <c r="MJ7" t="n">
+        <v>70439653300</v>
+      </c>
+      <c r="MK7" t="n">
+        <v>70588959800</v>
+      </c>
+      <c r="ML7" t="n">
+        <v>70764706900</v>
+      </c>
+      <c r="MM7" t="n">
+        <v>70914184700</v>
+      </c>
+      <c r="MN7" t="n">
+        <v>71063674900</v>
+      </c>
+      <c r="MO7" t="n">
+        <v>71214142300</v>
+      </c>
+      <c r="MP7" t="n">
+        <v>71364459700</v>
+      </c>
+      <c r="MQ7" t="n">
+        <v>71488921200</v>
+      </c>
+      <c r="MR7" t="n">
+        <v>71641888100</v>
+      </c>
+      <c r="MS7" t="n">
+        <v>71788109800</v>
+      </c>
+      <c r="MT7" t="n">
+        <v>71964490800</v>
+      </c>
+      <c r="MU7" t="n">
+        <v>72114491700</v>
+      </c>
+      <c r="MV7" t="n">
+        <v>72264716700</v>
+      </c>
+      <c r="MW7" t="n">
+        <v>72447116200</v>
+      </c>
+      <c r="MX7" t="n">
+        <v>72639557500</v>
+      </c>
+      <c r="MY7" t="n">
+        <v>72841317200</v>
+      </c>
+      <c r="MZ7" t="n">
+        <v>73017046900</v>
+      </c>
+      <c r="NA7" t="n">
+        <v>73164416800</v>
+      </c>
+      <c r="NB7" t="n">
+        <v>73338712400</v>
+      </c>
+      <c r="NC7" t="n">
+        <v>73492427000</v>
+      </c>
+      <c r="ND7" t="n">
+        <v>73690217500</v>
+      </c>
+      <c r="NE7" t="n">
+        <v>73841460200</v>
+      </c>
+      <c r="NF7" t="n">
+        <v>74013936600</v>
+      </c>
+      <c r="NG7" t="n">
+        <v>74163986600</v>
+      </c>
+      <c r="NH7" t="n">
+        <v>74339640500</v>
+      </c>
+      <c r="NI7" t="n">
+        <v>74488814200</v>
+      </c>
+      <c r="NJ7" t="n">
+        <v>74639981800</v>
+      </c>
+      <c r="NK7" t="n">
+        <v>74814826200</v>
+      </c>
+      <c r="NL7" t="n">
+        <v>74938847400</v>
+      </c>
+      <c r="NM7" t="n">
+        <v>75089491400</v>
+      </c>
+      <c r="NN7" t="n">
+        <v>75239873400</v>
+      </c>
+      <c r="NO7" t="n">
+        <v>75415251800</v>
+      </c>
+      <c r="NP7" t="n">
+        <v>75564208000</v>
+      </c>
+      <c r="NQ7" t="n">
+        <v>75740001500</v>
+      </c>
+      <c r="NR7" t="n">
+        <v>75889869900</v>
+      </c>
+      <c r="NS7" t="n">
+        <v>76039438300</v>
+      </c>
+      <c r="NT7" t="n">
+        <v>76189220100</v>
+      </c>
+      <c r="NU7" t="n">
+        <v>76339437000</v>
+      </c>
+      <c r="NV7" t="n">
+        <v>76514711500</v>
+      </c>
+      <c r="NW7" t="n">
+        <v>76690162200</v>
+      </c>
+      <c r="NX7" t="n">
+        <v>76839506800</v>
+      </c>
+      <c r="NY7" t="n">
+        <v>76988748500</v>
+      </c>
+      <c r="NZ7" t="n">
+        <v>77146939500</v>
+      </c>
+      <c r="OA7" t="n">
+        <v>77339642800</v>
+      </c>
+      <c r="OB7" t="n">
+        <v>77490606600</v>
+      </c>
+      <c r="OC7" t="n">
+        <v>77639483900</v>
+      </c>
+      <c r="OD7" t="n">
+        <v>77789751200</v>
+      </c>
+      <c r="OE7" t="n">
+        <v>77940179300</v>
+      </c>
+      <c r="OF7" t="n">
+        <v>78089738300</v>
+      </c>
+      <c r="OG7" t="n">
+        <v>78240004600</v>
+      </c>
+      <c r="OH7" t="n">
+        <v>78390270500</v>
+      </c>
+      <c r="OI7" t="n">
+        <v>78538842000</v>
+      </c>
+      <c r="OJ7" t="n">
+        <v>78664678700</v>
+      </c>
+      <c r="OK7" t="n">
+        <v>78815058800</v>
+      </c>
+      <c r="OL7" t="n">
+        <v>78964167000</v>
+      </c>
+      <c r="OM7" t="n">
+        <v>79089807800</v>
+      </c>
+      <c r="ON7" t="n">
+        <v>79239237600</v>
+      </c>
+      <c r="OO7" t="n">
+        <v>79389241600</v>
+      </c>
+      <c r="OP7" t="n">
+        <v>79539865600</v>
+      </c>
+      <c r="OQ7" t="n">
+        <v>79689923700</v>
+      </c>
+      <c r="OR7" t="n">
+        <v>79864005500</v>
+      </c>
+      <c r="OS7" t="n">
+        <v>80014480900</v>
+      </c>
+      <c r="OT7" t="n">
+        <v>80164670400</v>
+      </c>
+      <c r="OU7" t="n">
+        <v>80289543400</v>
+      </c>
+      <c r="OV7" t="n">
+        <v>80415317500</v>
+      </c>
+      <c r="OW7" t="n">
+        <v>80563986300</v>
+      </c>
+      <c r="OX7" t="n">
+        <v>80715090100</v>
+      </c>
+      <c r="OY7" t="n">
+        <v>80892809100</v>
+      </c>
+      <c r="OZ7" t="n">
+        <v>81091756300</v>
+      </c>
+      <c r="PA7" t="n">
+        <v>81242414900</v>
+      </c>
+      <c r="PB7" t="n">
+        <v>81439529100</v>
+      </c>
+      <c r="PC7" t="n">
+        <v>81565082200</v>
+      </c>
+      <c r="PD7" t="n">
+        <v>81716167400</v>
+      </c>
+      <c r="PE7" t="n">
+        <v>81914037600</v>
+      </c>
+      <c r="PF7" t="n">
+        <v>82098090100</v>
+      </c>
+      <c r="PG7" t="n">
+        <v>82264740300</v>
+      </c>
+      <c r="PH7" t="n">
+        <v>82414951300</v>
+      </c>
+      <c r="PI7" t="n">
+        <v>82589927400</v>
+      </c>
+      <c r="PJ7" t="n">
+        <v>82715490600</v>
+      </c>
+      <c r="PK7" t="n">
+        <v>82890284500</v>
+      </c>
+      <c r="PL7" t="n">
+        <v>83064567700</v>
+      </c>
+      <c r="PM7" t="n">
+        <v>83215569500</v>
+      </c>
+      <c r="PN7" t="n">
+        <v>83364541700</v>
+      </c>
+      <c r="PO7" t="n">
+        <v>83514479400</v>
+      </c>
+      <c r="PP7" t="n">
+        <v>83664873500</v>
+      </c>
+      <c r="PQ7" t="n">
+        <v>83814579500</v>
+      </c>
+      <c r="PR7" t="n">
+        <v>83964146900</v>
+      </c>
+      <c r="PS7" t="n">
+        <v>84114531800</v>
+      </c>
+      <c r="PT7" t="n">
+        <v>84265440100</v>
+      </c>
+      <c r="PU7" t="n">
+        <v>84443657200</v>
+      </c>
+      <c r="PV7" t="n">
+        <v>84614479000</v>
+      </c>
+      <c r="PW7" t="n">
+        <v>84766609800</v>
+      </c>
+      <c r="PX7" t="n">
+        <v>84969002200</v>
+      </c>
+      <c r="PY7" t="n">
+        <v>85115158900</v>
+      </c>
+      <c r="PZ7" t="n">
+        <v>85264864500</v>
+      </c>
+      <c r="QA7" t="n">
+        <v>85414967000</v>
+      </c>
+      <c r="QB7" t="n">
+        <v>85565306700</v>
+      </c>
+      <c r="QC7" t="n">
+        <v>85715369700</v>
+      </c>
+      <c r="QD7" t="n">
+        <v>85890061500</v>
+      </c>
+      <c r="QE7" t="n">
+        <v>86015713400</v>
+      </c>
+      <c r="QF7" t="n">
+        <v>86139526200</v>
+      </c>
+      <c r="QG7" t="n">
+        <v>86289921900</v>
+      </c>
+      <c r="QH7" t="n">
+        <v>86439976000</v>
+      </c>
+      <c r="QI7" t="n">
+        <v>86589560400</v>
+      </c>
+      <c r="QJ7" t="n">
+        <v>86740937200</v>
+      </c>
+      <c r="QK7" t="n">
+        <v>86892632700</v>
+      </c>
+      <c r="QL7" t="n">
+        <v>87016700300</v>
+      </c>
+      <c r="QM7" t="n">
+        <v>87171669700</v>
+      </c>
+      <c r="QN7" t="n">
+        <v>96716379600</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW7"/>
+  <dimension ref="A1:ED7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,144 +659,371 @@
       <c r="BW1" s="1" t="n">
         <v>74</v>
       </c>
+      <c r="BX1" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="DI1" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="DR1" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="DT1" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="DU1" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="DV1" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="DW1" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="DX1" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="DY1" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="DZ1" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="EA1" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="EB1" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="EC1" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="ED1" s="1" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2519386112689972</v>
+        <v>165</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2516157329082489</v>
+        <v>166</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2540744543075562</v>
+        <v>166</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2573143839836121</v>
+        <v>166</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2605262398719788</v>
+        <v>166</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2636201083660126</v>
+        <v>168</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2654843330383301</v>
+        <v>162</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2681801915168762</v>
+        <v>161</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2709054946899414</v>
+        <v>164</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2734079957008362</v>
+        <v>166</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2747969925403595</v>
+        <v>166</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2768981754779816</v>
+        <v>170</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2777315378189087</v>
+        <v>169</v>
       </c>
       <c r="N2" t="n">
-        <v>0.277992457151413</v>
+        <v>166</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2786356806755066</v>
+        <v>169</v>
       </c>
       <c r="P2" t="n">
-        <v>0.279121458530426</v>
+        <v>171</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2802577018737793</v>
+        <v>170</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2807115018367767</v>
+        <v>170</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2806976735591888</v>
+        <v>170</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2803556621074677</v>
+        <v>165</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2793202996253967</v>
+        <v>164</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2776158154010773</v>
+        <v>171</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2750687301158905</v>
+        <v>170</v>
       </c>
       <c r="X2" t="n">
-        <v>0.273189514875412</v>
+        <v>169</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2713135182857513</v>
+        <v>169</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.2695842683315277</v>
+        <v>173</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.266521155834198</v>
+        <v>174</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.2650855481624603</v>
+        <v>179</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.2634275555610657</v>
+        <v>179</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.2625400424003601</v>
+        <v>176</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.2612301111221313</v>
+        <v>178</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.2600041329860687</v>
+        <v>179</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.2584095895290375</v>
+        <v>178</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.2567811608314514</v>
+        <v>178</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.2549636960029602</v>
+        <v>179</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.253271609544754</v>
+        <v>180</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.2511321604251862</v>
-      </c>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
+        <v>176</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>176</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>177</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>172</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>168</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>168</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>168</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>163</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>164</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>165</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>162</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>162</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>164</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>164</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>165</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>163</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>164</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>165</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>164</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>168</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>164</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>169</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>168</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>165</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>173</v>
+      </c>
       <c r="BK2" t="inlineStr"/>
       <c r="BL2" t="inlineStr"/>
       <c r="BM2" t="inlineStr"/>
@@ -810,522 +1037,917 @@
       <c r="BU2" t="inlineStr"/>
       <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2" t="inlineStr"/>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2" t="inlineStr"/>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr"/>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2" t="inlineStr"/>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2" t="inlineStr"/>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2" t="inlineStr"/>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2" t="inlineStr"/>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2" t="inlineStr"/>
+      <c r="DQ2" t="inlineStr"/>
+      <c r="DR2" t="inlineStr"/>
+      <c r="DS2" t="inlineStr"/>
+      <c r="DT2" t="inlineStr"/>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2" t="inlineStr"/>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2" t="inlineStr"/>
+      <c r="DY2" t="inlineStr"/>
+      <c r="DZ2" t="inlineStr"/>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2" t="inlineStr"/>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-98.95527648925781</v>
+        <v>15201484300</v>
       </c>
       <c r="B3" t="n">
-        <v>-98.79095458984375</v>
+        <v>15201484300</v>
       </c>
       <c r="C3" t="n">
-        <v>-99.11671447753906</v>
+        <v>22355397500</v>
       </c>
       <c r="D3" t="n">
-        <v>-93.33601379394531</v>
+        <v>22355397500</v>
       </c>
       <c r="E3" t="n">
-        <v>-87.55870056152344</v>
+        <v>22457131500</v>
       </c>
       <c r="F3" t="n">
-        <v>-80.0460205078125</v>
+        <v>22457131500</v>
       </c>
       <c r="G3" t="n">
-        <v>-71.64971923828125</v>
+        <v>22554892300</v>
       </c>
       <c r="H3" t="n">
-        <v>-66.18669128417969</v>
+        <v>22554892300</v>
       </c>
       <c r="I3" t="n">
-        <v>-56.78070068359375</v>
+        <v>22654487300</v>
       </c>
       <c r="J3" t="n">
-        <v>-49.51638793945312</v>
+        <v>22654487300</v>
       </c>
       <c r="K3" t="n">
-        <v>-41.70304870605469</v>
+        <v>22732101400</v>
       </c>
       <c r="L3" t="n">
-        <v>-36.14878845214844</v>
+        <v>22732101400</v>
       </c>
       <c r="M3" t="n">
-        <v>-29.675048828125</v>
+        <v>22805391500</v>
       </c>
       <c r="N3" t="n">
-        <v>-23.21568298339844</v>
+        <v>22805391500</v>
       </c>
       <c r="O3" t="n">
-        <v>-14.80706787109375</v>
+        <v>22883044600</v>
       </c>
       <c r="P3" t="n">
-        <v>-11.84002685546875</v>
+        <v>22883044600</v>
       </c>
       <c r="Q3" t="n">
-        <v>-6.760696411132812</v>
+        <v>22956567400</v>
       </c>
       <c r="R3" t="n">
-        <v>-6.454986572265625</v>
+        <v>22956567400</v>
       </c>
       <c r="S3" t="n">
-        <v>-3.8516845703125</v>
+        <v>23035471900</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.98699951171875</v>
+        <v>23035471900</v>
       </c>
       <c r="U3" t="n">
-        <v>6.992874145507812</v>
+        <v>23109679400</v>
       </c>
       <c r="V3" t="n">
-        <v>7.704833984375</v>
+        <v>23109679400</v>
       </c>
       <c r="W3" t="n">
-        <v>6.627334594726562</v>
+        <v>23185465700</v>
       </c>
       <c r="X3" t="n">
-        <v>6.708251953125</v>
+        <v>23185465700</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.59075927734375</v>
+        <v>23259712300</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.108734130859375</v>
+        <v>23259712300</v>
       </c>
       <c r="AA3" t="n">
-        <v>-5.615447998046875</v>
+        <v>23333415400</v>
       </c>
       <c r="AB3" t="n">
-        <v>-5.238845825195312</v>
+        <v>23333415400</v>
       </c>
       <c r="AC3" t="n">
-        <v>-4.446243286132812</v>
+        <v>23408569700</v>
       </c>
       <c r="AD3" t="n">
-        <v>-3.282501220703125</v>
+        <v>23408569700</v>
       </c>
       <c r="AE3" t="n">
-        <v>-1.361343383789062</v>
+        <v>23485316800</v>
       </c>
       <c r="AF3" t="n">
-        <v>-1.99261474609375</v>
+        <v>23485316800</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.288116455078125</v>
+        <v>23561314100</v>
       </c>
       <c r="AH3" t="n">
-        <v>3.097488403320312</v>
+        <v>23561314100</v>
       </c>
       <c r="AI3" t="n">
-        <v>3.775604248046875</v>
+        <v>23632049300</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.43402099609375</v>
+        <v>23632049300</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.022125244140625</v>
-      </c>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="inlineStr"/>
-      <c r="BO3" t="inlineStr"/>
-      <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr"/>
-      <c r="BR3" t="inlineStr"/>
-      <c r="BS3" t="inlineStr"/>
-      <c r="BT3" t="inlineStr"/>
-      <c r="BU3" t="inlineStr"/>
-      <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="inlineStr"/>
+        <v>23706744500</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>23706744500</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>23783722400</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>23783722400</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>23855151900</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23855151900</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>23905829300</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>23905829300</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>23978238700</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>23978238700</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>24056063900</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>24056063900</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>24129134300</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>24129134300</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>24180954100</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>24180954100</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>24255932400</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>24255932400</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>24357622200</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>24357622200</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>24407487000</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>24407487000</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>24502632000</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>24502632000</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>24556478700</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>24556478700</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>24628882900</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>24628882900</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>24680352300</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>24680352300</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>24755318600</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>24755318600</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>24804598800</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>24804598800</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>24880316200</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>24880316200</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>24957789100</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>24957789100</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>25031452500</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>25031452500</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>25104411400</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>25104411400</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>25182289800</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>25182289800</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>25255247300</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>25279640500</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>25303223100</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>25327628700</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>25327628700</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>25379585000</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>25379585000</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>25456856400</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>25503567900</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>25503567900</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>25559574700</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>25559574700</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>25629025300</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>25629025300</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>25708498900</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>25708498900</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>25780854400</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>25780854400</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>25859257700</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>25903375700</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>25928137600</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>25928137600</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>25979618200</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>25979618200</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>26028316000</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>26028316000</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>26106623400</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>26153732100</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>26153732100</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>26203548100</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>26203548100</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>26280424900</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>26280424900</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>26357225400</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>26357225400</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>26429743000</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>26429743000</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>26503919300</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>26503919300</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>26583835100</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>26583835100</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>26658495400</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>26658495400</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>26729144000</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>26729144000</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>26782674100</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>26782674100</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>26858394400</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>26858394400</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>26929284500</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>26957395900</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>26978471800</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>26978471800</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>45679765400</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15595981400</v>
+        <v>-0.06720110774040222</v>
       </c>
       <c r="B4" t="n">
-        <v>15595981400</v>
+        <v>-0.06718271970748901</v>
       </c>
       <c r="C4" t="n">
-        <v>20867353800</v>
+        <v>-0.06497882306575775</v>
       </c>
       <c r="D4" t="n">
-        <v>20867353800</v>
+        <v>-0.06353011727333069</v>
       </c>
       <c r="E4" t="n">
-        <v>20993183800</v>
+        <v>-0.06214963644742966</v>
       </c>
       <c r="F4" t="n">
-        <v>20993183800</v>
+        <v>-0.06048240885138512</v>
       </c>
       <c r="G4" t="n">
-        <v>21119688000</v>
+        <v>-0.05885873734951019</v>
       </c>
       <c r="H4" t="n">
-        <v>21119688000</v>
+        <v>-0.05708670988678932</v>
       </c>
       <c r="I4" t="n">
-        <v>21252316800</v>
+        <v>-0.05548758804798126</v>
       </c>
       <c r="J4" t="n">
-        <v>21252316800</v>
+        <v>-0.05404796078801155</v>
       </c>
       <c r="K4" t="n">
-        <v>21395562500</v>
+        <v>-0.05267718434333801</v>
       </c>
       <c r="L4" t="n">
-        <v>21395562500</v>
+        <v>-0.05132760852575302</v>
       </c>
       <c r="M4" t="n">
-        <v>21543560000</v>
+        <v>-0.04942374303936958</v>
       </c>
       <c r="N4" t="n">
-        <v>21543560000</v>
+        <v>-0.04755027964711189</v>
       </c>
       <c r="O4" t="n">
-        <v>21671741500</v>
+        <v>-0.04684571176767349</v>
       </c>
       <c r="P4" t="n">
-        <v>21671741500</v>
+        <v>-0.04501465708017349</v>
       </c>
       <c r="Q4" t="n">
-        <v>21821167500</v>
+        <v>-0.04333491250872612</v>
       </c>
       <c r="R4" t="n">
-        <v>21821167500</v>
+        <v>-0.04229025915265083</v>
       </c>
       <c r="S4" t="n">
-        <v>21946602600</v>
+        <v>-0.0404517650604248</v>
       </c>
       <c r="T4" t="n">
-        <v>21946602600</v>
+        <v>-0.03906914964318275</v>
       </c>
       <c r="U4" t="n">
-        <v>22097574700</v>
+        <v>-0.03877962380647659</v>
       </c>
       <c r="V4" t="n">
-        <v>22097574700</v>
+        <v>-0.03733726590871811</v>
       </c>
       <c r="W4" t="n">
-        <v>22221471600</v>
+        <v>-0.0359986275434494</v>
       </c>
       <c r="X4" t="n">
-        <v>22221471600</v>
+        <v>-0.03531033545732498</v>
       </c>
       <c r="Y4" t="n">
-        <v>22347270000</v>
+        <v>-0.03488509729504585</v>
       </c>
       <c r="Z4" t="n">
-        <v>22347270000</v>
+        <v>-0.03433183953166008</v>
       </c>
       <c r="AA4" t="n">
-        <v>22494442100</v>
+        <v>-0.03371895104646683</v>
       </c>
       <c r="AB4" t="n">
-        <v>22494442100</v>
+        <v>-0.03272360563278198</v>
       </c>
       <c r="AC4" t="n">
-        <v>22619301800</v>
+        <v>-0.03175978362560272</v>
       </c>
       <c r="AD4" t="n">
-        <v>22619301800</v>
+        <v>-0.03189410641789436</v>
       </c>
       <c r="AE4" t="n">
-        <v>22745220400</v>
+        <v>-0.03141331672668457</v>
       </c>
       <c r="AF4" t="n">
-        <v>22745220400</v>
+        <v>-0.03142134472727776</v>
       </c>
       <c r="AG4" t="n">
-        <v>22893944100</v>
+        <v>-0.03211979568004608</v>
       </c>
       <c r="AH4" t="n">
-        <v>22893944100</v>
+        <v>-0.03192878887057304</v>
       </c>
       <c r="AI4" t="n">
-        <v>23050593100</v>
+        <v>-0.0327688492834568</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23050593100</v>
+        <v>-0.03255334496498108</v>
       </c>
       <c r="AK4" t="n">
-        <v>23173087200</v>
+        <v>-0.03317791596055031</v>
       </c>
       <c r="AL4" t="n">
-        <v>23173087200</v>
+        <v>-0.03331988304853439</v>
       </c>
       <c r="AM4" t="n">
-        <v>23320875600</v>
+        <v>-0.03354266285896301</v>
       </c>
       <c r="AN4" t="n">
-        <v>23320875600</v>
+        <v>-0.03331611305475235</v>
       </c>
       <c r="AO4" t="n">
-        <v>23474775700</v>
+        <v>-0.03304215520620346</v>
       </c>
       <c r="AP4" t="n">
-        <v>23474775700</v>
+        <v>-0.03350671753287315</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23594289200</v>
+        <v>-0.03276959806680679</v>
       </c>
       <c r="AR4" t="n">
-        <v>23594289200</v>
+        <v>-0.03242017701268196</v>
       </c>
       <c r="AS4" t="n">
-        <v>23721232500</v>
+        <v>-0.03216175734996796</v>
       </c>
       <c r="AT4" t="n">
-        <v>23721232500</v>
+        <v>-0.03183135390281677</v>
       </c>
       <c r="AU4" t="n">
-        <v>23870851400</v>
+        <v>-0.03151310235261917</v>
       </c>
       <c r="AV4" t="n">
-        <v>23870851400</v>
+        <v>-0.03182894736528397</v>
       </c>
       <c r="AW4" t="n">
-        <v>23994465600</v>
+        <v>-0.03162236884236336</v>
       </c>
       <c r="AX4" t="n">
-        <v>23994465600</v>
+        <v>-0.03140698745846748</v>
       </c>
       <c r="AY4" t="n">
-        <v>24120238600</v>
+        <v>-0.03091935068368912</v>
       </c>
       <c r="AZ4" t="n">
-        <v>24120238600</v>
+        <v>-0.03036525286734104</v>
       </c>
       <c r="BA4" t="n">
-        <v>24247129000</v>
+        <v>-0.03012701496481895</v>
       </c>
       <c r="BB4" t="n">
-        <v>24247129000</v>
+        <v>-0.02985655888915062</v>
       </c>
       <c r="BC4" t="n">
-        <v>24394209700</v>
+        <v>-0.0296211950480938</v>
       </c>
       <c r="BD4" t="n">
-        <v>24394209700</v>
+        <v>-0.02993934229016304</v>
       </c>
       <c r="BE4" t="n">
-        <v>24520448300</v>
+        <v>-0.02979977056384087</v>
       </c>
       <c r="BF4" t="n">
-        <v>24520448300</v>
+        <v>-0.02992848306894302</v>
       </c>
       <c r="BG4" t="n">
-        <v>24674530500</v>
+        <v>-0.02981439791619778</v>
       </c>
       <c r="BH4" t="n">
-        <v>24674530500</v>
+        <v>-0.03040638566017151</v>
       </c>
       <c r="BI4" t="n">
-        <v>24820884900</v>
+        <v>-0.02961792051792145</v>
       </c>
       <c r="BJ4" t="n">
-        <v>24820884900</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>24951141600</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>24951141600</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>25095929800</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>25095929800</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>25250090100</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>25250090100</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>25370711000</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>25370711000</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>25494308400</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>25494308400</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>25620929600</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>25620929600</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>37314976600</v>
-      </c>
+        <v>-0.02956259064376354</v>
+      </c>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr"/>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="inlineStr"/>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr"/>
+      <c r="DE4" t="inlineStr"/>
+      <c r="DF4" t="inlineStr"/>
+      <c r="DG4" t="inlineStr"/>
+      <c r="DH4" t="inlineStr"/>
+      <c r="DI4" t="inlineStr"/>
+      <c r="DJ4" t="inlineStr"/>
+      <c r="DK4" t="inlineStr"/>
+      <c r="DL4" t="inlineStr"/>
+      <c r="DM4" t="inlineStr"/>
+      <c r="DN4" t="inlineStr"/>
+      <c r="DO4" t="inlineStr"/>
+      <c r="DP4" t="inlineStr"/>
+      <c r="DQ4" t="inlineStr"/>
+      <c r="DR4" t="inlineStr"/>
+      <c r="DS4" t="inlineStr"/>
+      <c r="DT4" t="inlineStr"/>
+      <c r="DU4" t="inlineStr"/>
+      <c r="DV4" t="inlineStr"/>
+      <c r="DW4" t="inlineStr"/>
+      <c r="DX4" t="inlineStr"/>
+      <c r="DY4" t="inlineStr"/>
+      <c r="DZ4" t="inlineStr"/>
+      <c r="EA4" t="inlineStr"/>
+      <c r="EB4" t="inlineStr"/>
+      <c r="EC4" t="inlineStr"/>
+      <c r="ED4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32.23365020751953</v>
+        <v>-109</v>
       </c>
       <c r="B5" t="n">
-        <v>32.04366302490234</v>
+        <v>-110</v>
       </c>
       <c r="C5" t="n">
-        <v>32.12419128417969</v>
+        <v>-109</v>
       </c>
       <c r="D5" t="n">
-        <v>36.15589904785156</v>
+        <v>-105</v>
       </c>
       <c r="E5" t="n">
-        <v>45.63063049316406</v>
+        <v>-97</v>
       </c>
       <c r="F5" t="n">
-        <v>56.48452758789062</v>
+        <v>-90</v>
       </c>
       <c r="G5" t="n">
-        <v>63.14196014404297</v>
+        <v>-91</v>
       </c>
       <c r="H5" t="n">
-        <v>66.42198181152344</v>
+        <v>-87</v>
       </c>
       <c r="I5" t="n">
-        <v>68.56146240234375</v>
+        <v>-78</v>
       </c>
       <c r="J5" t="n">
-        <v>78.897705078125</v>
+        <v>-70</v>
       </c>
       <c r="K5" t="n">
-        <v>82.79550933837891</v>
+        <v>-65</v>
       </c>
       <c r="L5" t="n">
-        <v>88.07826232910156</v>
+        <v>-62</v>
       </c>
       <c r="M5" t="n">
-        <v>91.93059539794922</v>
+        <v>-54</v>
       </c>
       <c r="N5" t="n">
-        <v>94.19544982910156</v>
+        <v>-54</v>
       </c>
       <c r="O5" t="n">
-        <v>97.18813323974609</v>
+        <v>-45</v>
       </c>
       <c r="P5" t="n">
-        <v>96.67725372314453</v>
+        <v>-41</v>
       </c>
       <c r="Q5" t="n">
-        <v>106.8213043212891</v>
+        <v>-38</v>
       </c>
       <c r="R5" t="n">
-        <v>114.2893829345703</v>
+        <v>-29</v>
       </c>
       <c r="S5" t="n">
-        <v>121.4481353759766</v>
+        <v>-23</v>
       </c>
       <c r="T5" t="n">
-        <v>127.9636535644531</v>
+        <v>-25</v>
       </c>
       <c r="U5" t="n">
-        <v>134.6334228515625</v>
+        <v>-17</v>
       </c>
       <c r="V5" t="n">
-        <v>133.0333557128906</v>
+        <v>-11</v>
       </c>
       <c r="W5" t="n">
-        <v>135.4592590332031</v>
+        <v>-9</v>
       </c>
       <c r="X5" t="n">
-        <v>133.7672576904297</v>
+        <v>-4</v>
       </c>
       <c r="Y5" t="n">
-        <v>130.8534088134766</v>
+        <v>-1</v>
       </c>
       <c r="Z5" t="n">
-        <v>125.0146789550781</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.0762329101562</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>115.4263687133789</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>116.4385452270508</v>
+        <v>2</v>
       </c>
       <c r="AD5" t="n">
-        <v>119.0005569458008</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>123.1458053588867</v>
+        <v>10</v>
       </c>
       <c r="AF5" t="n">
-        <v>124.4818649291992</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>126.2023162841797</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>128.7391967773438</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>128.6546478271484</v>
+        <v>10</v>
       </c>
       <c r="AJ5" t="n">
-        <v>127.9653472900391</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>127.7789916992188</v>
-      </c>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
-      <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="inlineStr"/>
-      <c r="BG5" t="inlineStr"/>
-      <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="inlineStr"/>
-      <c r="BJ5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>4</v>
+      </c>
       <c r="BK5" t="inlineStr"/>
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="inlineStr"/>
@@ -1339,144 +1961,253 @@
       <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr"/>
       <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr"/>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="inlineStr"/>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr"/>
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr"/>
+      <c r="DE5" t="inlineStr"/>
+      <c r="DF5" t="inlineStr"/>
+      <c r="DG5" t="inlineStr"/>
+      <c r="DH5" t="inlineStr"/>
+      <c r="DI5" t="inlineStr"/>
+      <c r="DJ5" t="inlineStr"/>
+      <c r="DK5" t="inlineStr"/>
+      <c r="DL5" t="inlineStr"/>
+      <c r="DM5" t="inlineStr"/>
+      <c r="DN5" t="inlineStr"/>
+      <c r="DO5" t="inlineStr"/>
+      <c r="DP5" t="inlineStr"/>
+      <c r="DQ5" t="inlineStr"/>
+      <c r="DR5" t="inlineStr"/>
+      <c r="DS5" t="inlineStr"/>
+      <c r="DT5" t="inlineStr"/>
+      <c r="DU5" t="inlineStr"/>
+      <c r="DV5" t="inlineStr"/>
+      <c r="DW5" t="inlineStr"/>
+      <c r="DX5" t="inlineStr"/>
+      <c r="DY5" t="inlineStr"/>
+      <c r="DZ5" t="inlineStr"/>
+      <c r="EA5" t="inlineStr"/>
+      <c r="EB5" t="inlineStr"/>
+      <c r="EC5" t="inlineStr"/>
+      <c r="ED5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.06708239018917084</v>
+        <v>0.3739813268184662</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.06703667342662811</v>
+        <v>0.3739755153656006</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.06539388746023178</v>
+        <v>0.3743130564689636</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.06320344656705856</v>
+        <v>0.374310314655304</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.05977629497647285</v>
+        <v>0.373788595199585</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.05643238127231598</v>
+        <v>0.3738513886928558</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.05359625816345215</v>
+        <v>0.3737967014312744</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.05082008615136147</v>
+        <v>0.3739155530929565</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04768969491124153</v>
+        <v>0.3738724291324615</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.04467609524726868</v>
+        <v>0.3738689720630646</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.04264836013317108</v>
+        <v>0.3738954663276672</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.04015214368700981</v>
+        <v>0.3738088309764862</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.03702753782272339</v>
+        <v>0.3739687502384186</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.03482354804873466</v>
+        <v>0.3740731477737427</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.03331748396158218</v>
+        <v>0.3737903237342834</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.03078706376254559</v>
+        <v>0.3734771609306335</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.02912295237183571</v>
+        <v>0.3735491037368774</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.02736855670809746</v>
+        <v>0.3732628226280212</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.02600026875734329</v>
+        <v>0.3731488883495331</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.02414732612669468</v>
+        <v>0.3736484050750732</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.02334744855761528</v>
+        <v>0.3752704858779907</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.02376093342900276</v>
+        <v>0.3784445524215698</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.02417442761361599</v>
+        <v>0.3823016881942749</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.02432762831449509</v>
+        <v>0.3859825134277344</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.02537610754370689</v>
+        <v>0.388710081577301</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.0259439293295145</v>
+        <v>0.3925480842590332</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.02633979171514511</v>
+        <v>0.3964223861694336</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.02558890171349049</v>
+        <v>0.4002657532691956</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.02516459859907627</v>
+        <v>0.4055301249027252</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.02412639558315277</v>
+        <v>0.4079287648200989</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.02350109443068504</v>
+        <v>0.4119032025337219</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.02252572402358055</v>
+        <v>0.4143714606761932</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.02187545970082283</v>
+        <v>0.4181153774261475</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.0214136615395546</v>
+        <v>0.4206231832504272</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.0215267539024353</v>
+        <v>0.4243350028991699</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.02043025009334087</v>
+        <v>0.4283239245414734</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0.02057889476418495</v>
-      </c>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
-      <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="inlineStr"/>
-      <c r="BG6" t="inlineStr"/>
-      <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr"/>
-      <c r="BJ6" t="inlineStr"/>
+        <v>0.4319959282875061</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.4356778264045715</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.4394553899765015</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.4432176351547241</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.449164867401123</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.4510177671909332</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.4539130032062531</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.4564604163169861</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.4589914679527283</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.4621025323867798</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.4656412601470947</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.4716031849384308</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.4735667109489441</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.4754316210746765</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.4795267581939697</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.4817052781581879</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.4850673675537109</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.4882178902626038</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.4918638467788696</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.4942744076251984</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.4992163181304932</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.503014862537384</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.505401611328125</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.509161114692688</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.513154923915863</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.5180075764656067</v>
+      </c>
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
@@ -1490,144 +2221,253 @@
       <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr"/>
       <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
+      <c r="CH6" t="inlineStr"/>
+      <c r="CI6" t="inlineStr"/>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="inlineStr"/>
+      <c r="CZ6" t="inlineStr"/>
+      <c r="DA6" t="inlineStr"/>
+      <c r="DB6" t="inlineStr"/>
+      <c r="DC6" t="inlineStr"/>
+      <c r="DD6" t="inlineStr"/>
+      <c r="DE6" t="inlineStr"/>
+      <c r="DF6" t="inlineStr"/>
+      <c r="DG6" t="inlineStr"/>
+      <c r="DH6" t="inlineStr"/>
+      <c r="DI6" t="inlineStr"/>
+      <c r="DJ6" t="inlineStr"/>
+      <c r="DK6" t="inlineStr"/>
+      <c r="DL6" t="inlineStr"/>
+      <c r="DM6" t="inlineStr"/>
+      <c r="DN6" t="inlineStr"/>
+      <c r="DO6" t="inlineStr"/>
+      <c r="DP6" t="inlineStr"/>
+      <c r="DQ6" t="inlineStr"/>
+      <c r="DR6" t="inlineStr"/>
+      <c r="DS6" t="inlineStr"/>
+      <c r="DT6" t="inlineStr"/>
+      <c r="DU6" t="inlineStr"/>
+      <c r="DV6" t="inlineStr"/>
+      <c r="DW6" t="inlineStr"/>
+      <c r="DX6" t="inlineStr"/>
+      <c r="DY6" t="inlineStr"/>
+      <c r="DZ6" t="inlineStr"/>
+      <c r="EA6" t="inlineStr"/>
+      <c r="EB6" t="inlineStr"/>
+      <c r="EC6" t="inlineStr"/>
+      <c r="ED6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3738492131233215</v>
+        <v>0.2519175112247467</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3738498985767365</v>
+        <v>0.2519148886203766</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3739902973175049</v>
+        <v>0.2519509494304657</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3740625381469727</v>
+        <v>0.2522769570350647</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3742305040359497</v>
+        <v>0.2520036697387695</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3743196129798889</v>
+        <v>0.251908928155899</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3737888932228088</v>
+        <v>0.2525860667228699</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3733679354190826</v>
+        <v>0.2526797354221344</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3733852505683899</v>
+        <v>0.2527430653572083</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3731854259967804</v>
+        <v>0.2531038224697113</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3728930354118347</v>
+        <v>0.2535432875156403</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3727410733699799</v>
+        <v>0.2539354264736176</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3726773262023926</v>
+        <v>0.2540239095687866</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3727008998394012</v>
+        <v>0.2539981305599213</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3763855695724487</v>
+        <v>0.2537488341331482</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3837035298347473</v>
+        <v>0.2542527914047241</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3915847539901733</v>
+        <v>0.2542939782142639</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3979745507240295</v>
+        <v>0.2539733648300171</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4056183695793152</v>
+        <v>0.2537637054920197</v>
       </c>
       <c r="T7" t="n">
-        <v>0.413306713104248</v>
+        <v>0.2538881897926331</v>
       </c>
       <c r="U7" t="n">
-        <v>0.4196228384971619</v>
+        <v>0.2543507218360901</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4251996874809265</v>
+        <v>0.2542030513286591</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4270835220813751</v>
+        <v>0.2541262209415436</v>
       </c>
       <c r="X7" t="n">
-        <v>0.4273950755596161</v>
+        <v>0.2539441883563995</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.4274955987930298</v>
+        <v>0.2540287673473358</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.4276046752929688</v>
+        <v>0.2540146112442017</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.4283043146133423</v>
+        <v>0.2544302642345428</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.4337136447429657</v>
+        <v>0.2541031241416931</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.4409530162811279</v>
+        <v>0.2542297542095184</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.4486740529537201</v>
+        <v>0.2539677917957306</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.4549288153648376</v>
+        <v>0.2538392841815948</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.4623391926288605</v>
+        <v>0.2536462545394897</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.4699141979217529</v>
+        <v>0.2532103955745697</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.4761449694633484</v>
+        <v>0.2533032894134521</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.4823528826236725</v>
+        <v>0.2528544068336487</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.4886808395385742</v>
+        <v>0.2525593638420105</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.4961781799793243</v>
-      </c>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
-      <c r="BE7" t="inlineStr"/>
-      <c r="BF7" t="inlineStr"/>
-      <c r="BG7" t="inlineStr"/>
-      <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr"/>
-      <c r="BJ7" t="inlineStr"/>
+        <v>0.2523325979709625</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.252156138420105</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.2516412138938904</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.2515429258346558</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.2509000599384308</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.2507681548595428</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.2512170672416687</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.2509549260139465</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.2511062324047089</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.2513051331043243</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.2508113980293274</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.2512947916984558</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.2513436377048492</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.2513790130615234</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.2518110871315002</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.2519572675228119</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.2523297667503357</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.2523761093616486</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.2524414956569672</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.2528014183044434</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.2526473701000214</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.2531695961952209</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.2529886662960052</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.2531881034374237</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.2539108991622925</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.2535675466060638</v>
+      </c>
       <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
@@ -1641,6 +2481,65 @@
       <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="inlineStr"/>
       <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr"/>
+      <c r="CC7" t="inlineStr"/>
+      <c r="CD7" t="inlineStr"/>
+      <c r="CE7" t="inlineStr"/>
+      <c r="CF7" t="inlineStr"/>
+      <c r="CG7" t="inlineStr"/>
+      <c r="CH7" t="inlineStr"/>
+      <c r="CI7" t="inlineStr"/>
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="inlineStr"/>
+      <c r="CL7" t="inlineStr"/>
+      <c r="CM7" t="inlineStr"/>
+      <c r="CN7" t="inlineStr"/>
+      <c r="CO7" t="inlineStr"/>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr"/>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="inlineStr"/>
+      <c r="CX7" t="inlineStr"/>
+      <c r="CY7" t="inlineStr"/>
+      <c r="CZ7" t="inlineStr"/>
+      <c r="DA7" t="inlineStr"/>
+      <c r="DB7" t="inlineStr"/>
+      <c r="DC7" t="inlineStr"/>
+      <c r="DD7" t="inlineStr"/>
+      <c r="DE7" t="inlineStr"/>
+      <c r="DF7" t="inlineStr"/>
+      <c r="DG7" t="inlineStr"/>
+      <c r="DH7" t="inlineStr"/>
+      <c r="DI7" t="inlineStr"/>
+      <c r="DJ7" t="inlineStr"/>
+      <c r="DK7" t="inlineStr"/>
+      <c r="DL7" t="inlineStr"/>
+      <c r="DM7" t="inlineStr"/>
+      <c r="DN7" t="inlineStr"/>
+      <c r="DO7" t="inlineStr"/>
+      <c r="DP7" t="inlineStr"/>
+      <c r="DQ7" t="inlineStr"/>
+      <c r="DR7" t="inlineStr"/>
+      <c r="DS7" t="inlineStr"/>
+      <c r="DT7" t="inlineStr"/>
+      <c r="DU7" t="inlineStr"/>
+      <c r="DV7" t="inlineStr"/>
+      <c r="DW7" t="inlineStr"/>
+      <c r="DX7" t="inlineStr"/>
+      <c r="DY7" t="inlineStr"/>
+      <c r="DZ7" t="inlineStr"/>
+      <c r="EA7" t="inlineStr"/>
+      <c r="EB7" t="inlineStr"/>
+      <c r="EC7" t="inlineStr"/>
+      <c r="ED7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ED7"/>
+  <dimension ref="A1:EO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,868 +836,985 @@
       <c r="ED1" s="1" t="n">
         <v>133</v>
       </c>
+      <c r="EE1" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="EF1" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="EG1" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="EH1" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="EI1" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="EJ1" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="EK1" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="EL1" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="EM1" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="EN1" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="EO1" s="1" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>165</v>
+        <v>14888379000</v>
       </c>
       <c r="B2" t="n">
-        <v>166</v>
+        <v>14888379000</v>
       </c>
       <c r="C2" t="n">
-        <v>166</v>
+        <v>21875704800</v>
       </c>
       <c r="D2" t="n">
-        <v>166</v>
+        <v>21875704800</v>
       </c>
       <c r="E2" t="n">
-        <v>166</v>
+        <v>22085135400</v>
       </c>
       <c r="F2" t="n">
-        <v>168</v>
+        <v>22085135400</v>
       </c>
       <c r="G2" t="n">
-        <v>162</v>
+        <v>22184368000</v>
       </c>
       <c r="H2" t="n">
-        <v>161</v>
+        <v>22184368000</v>
       </c>
       <c r="I2" t="n">
-        <v>164</v>
+        <v>22234310400</v>
       </c>
       <c r="J2" t="n">
-        <v>166</v>
+        <v>22234310400</v>
       </c>
       <c r="K2" t="n">
-        <v>166</v>
+        <v>22260528900</v>
       </c>
       <c r="L2" t="n">
-        <v>170</v>
+        <v>22260528900</v>
       </c>
       <c r="M2" t="n">
-        <v>169</v>
+        <v>22310177100</v>
       </c>
       <c r="N2" t="n">
-        <v>166</v>
+        <v>22310177100</v>
       </c>
       <c r="O2" t="n">
-        <v>169</v>
+        <v>22336151000</v>
       </c>
       <c r="P2" t="n">
-        <v>171</v>
+        <v>22336151000</v>
       </c>
       <c r="Q2" t="n">
-        <v>170</v>
+        <v>22385117400</v>
       </c>
       <c r="R2" t="n">
-        <v>170</v>
+        <v>22385117400</v>
       </c>
       <c r="S2" t="n">
-        <v>170</v>
+        <v>22413173100</v>
       </c>
       <c r="T2" t="n">
-        <v>165</v>
+        <v>22413173100</v>
       </c>
       <c r="U2" t="n">
-        <v>164</v>
+        <v>22459675300</v>
       </c>
       <c r="V2" t="n">
-        <v>171</v>
+        <v>22459675300</v>
       </c>
       <c r="W2" t="n">
-        <v>170</v>
+        <v>22510149000</v>
       </c>
       <c r="X2" t="n">
-        <v>169</v>
+        <v>22510149000</v>
       </c>
       <c r="Y2" t="n">
-        <v>169</v>
+        <v>22536895300</v>
       </c>
       <c r="Z2" t="n">
-        <v>173</v>
+        <v>22536895300</v>
       </c>
       <c r="AA2" t="n">
-        <v>174</v>
+        <v>22584079300</v>
       </c>
       <c r="AB2" t="n">
-        <v>179</v>
+        <v>22584079300</v>
       </c>
       <c r="AC2" t="n">
-        <v>179</v>
+        <v>22611390000</v>
       </c>
       <c r="AD2" t="n">
-        <v>176</v>
+        <v>22611390000</v>
       </c>
       <c r="AE2" t="n">
-        <v>178</v>
+        <v>22659673000</v>
       </c>
       <c r="AF2" t="n">
-        <v>179</v>
+        <v>22659673000</v>
       </c>
       <c r="AG2" t="n">
-        <v>178</v>
+        <v>22709556600</v>
       </c>
       <c r="AH2" t="n">
-        <v>178</v>
+        <v>22709556600</v>
       </c>
       <c r="AI2" t="n">
-        <v>179</v>
+        <v>22734786900</v>
       </c>
       <c r="AJ2" t="n">
-        <v>180</v>
+        <v>22734786900</v>
       </c>
       <c r="AK2" t="n">
-        <v>176</v>
+        <v>22785362600</v>
       </c>
       <c r="AL2" t="n">
-        <v>176</v>
+        <v>22785362600</v>
       </c>
       <c r="AM2" t="n">
-        <v>177</v>
+        <v>22809336700</v>
       </c>
       <c r="AN2" t="n">
-        <v>172</v>
+        <v>22809336700</v>
       </c>
       <c r="AO2" t="n">
-        <v>169</v>
+        <v>22836766500</v>
       </c>
       <c r="AP2" t="n">
-        <v>168</v>
+        <v>22836766500</v>
       </c>
       <c r="AQ2" t="n">
-        <v>168</v>
+        <v>22884157200</v>
       </c>
       <c r="AR2" t="n">
-        <v>168</v>
+        <v>22884157200</v>
       </c>
       <c r="AS2" t="n">
-        <v>163</v>
+        <v>22935425600</v>
       </c>
       <c r="AT2" t="n">
-        <v>164</v>
+        <v>22935425600</v>
       </c>
       <c r="AU2" t="n">
-        <v>165</v>
+        <v>22961601800</v>
       </c>
       <c r="AV2" t="n">
-        <v>162</v>
+        <v>22961601800</v>
       </c>
       <c r="AW2" t="n">
-        <v>162</v>
+        <v>23009292500</v>
       </c>
       <c r="AX2" t="n">
-        <v>164</v>
+        <v>23009292500</v>
       </c>
       <c r="AY2" t="n">
-        <v>164</v>
+        <v>23060526100</v>
       </c>
       <c r="AZ2" t="n">
-        <v>165</v>
+        <v>23060526100</v>
       </c>
       <c r="BA2" t="n">
-        <v>163</v>
+        <v>23084786200</v>
       </c>
       <c r="BB2" t="n">
-        <v>164</v>
+        <v>23084786200</v>
       </c>
       <c r="BC2" t="n">
-        <v>165</v>
+        <v>23135571400</v>
       </c>
       <c r="BD2" t="n">
-        <v>164</v>
+        <v>23135571400</v>
       </c>
       <c r="BE2" t="n">
-        <v>168</v>
+        <v>23184611200</v>
       </c>
       <c r="BF2" t="n">
-        <v>164</v>
+        <v>23184611200</v>
       </c>
       <c r="BG2" t="n">
-        <v>169</v>
+        <v>23235193000</v>
       </c>
       <c r="BH2" t="n">
-        <v>168</v>
+        <v>23235193000</v>
       </c>
       <c r="BI2" t="n">
-        <v>165</v>
+        <v>23262736800</v>
       </c>
       <c r="BJ2" t="n">
-        <v>173</v>
-      </c>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
-      <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="inlineStr"/>
-      <c r="BR2" t="inlineStr"/>
-      <c r="BS2" t="inlineStr"/>
-      <c r="BT2" t="inlineStr"/>
-      <c r="BU2" t="inlineStr"/>
-      <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr"/>
-      <c r="BX2" t="inlineStr"/>
-      <c r="BY2" t="inlineStr"/>
-      <c r="BZ2" t="inlineStr"/>
-      <c r="CA2" t="inlineStr"/>
-      <c r="CB2" t="inlineStr"/>
-      <c r="CC2" t="inlineStr"/>
-      <c r="CD2" t="inlineStr"/>
-      <c r="CE2" t="inlineStr"/>
-      <c r="CF2" t="inlineStr"/>
-      <c r="CG2" t="inlineStr"/>
-      <c r="CH2" t="inlineStr"/>
-      <c r="CI2" t="inlineStr"/>
-      <c r="CJ2" t="inlineStr"/>
-      <c r="CK2" t="inlineStr"/>
-      <c r="CL2" t="inlineStr"/>
-      <c r="CM2" t="inlineStr"/>
-      <c r="CN2" t="inlineStr"/>
-      <c r="CO2" t="inlineStr"/>
-      <c r="CP2" t="inlineStr"/>
-      <c r="CQ2" t="inlineStr"/>
-      <c r="CR2" t="inlineStr"/>
-      <c r="CS2" t="inlineStr"/>
-      <c r="CT2" t="inlineStr"/>
-      <c r="CU2" t="inlineStr"/>
-      <c r="CV2" t="inlineStr"/>
-      <c r="CW2" t="inlineStr"/>
-      <c r="CX2" t="inlineStr"/>
-      <c r="CY2" t="inlineStr"/>
-      <c r="CZ2" t="inlineStr"/>
-      <c r="DA2" t="inlineStr"/>
-      <c r="DB2" t="inlineStr"/>
-      <c r="DC2" t="inlineStr"/>
-      <c r="DD2" t="inlineStr"/>
-      <c r="DE2" t="inlineStr"/>
-      <c r="DF2" t="inlineStr"/>
-      <c r="DG2" t="inlineStr"/>
-      <c r="DH2" t="inlineStr"/>
-      <c r="DI2" t="inlineStr"/>
-      <c r="DJ2" t="inlineStr"/>
-      <c r="DK2" t="inlineStr"/>
-      <c r="DL2" t="inlineStr"/>
-      <c r="DM2" t="inlineStr"/>
-      <c r="DN2" t="inlineStr"/>
-      <c r="DO2" t="inlineStr"/>
-      <c r="DP2" t="inlineStr"/>
-      <c r="DQ2" t="inlineStr"/>
-      <c r="DR2" t="inlineStr"/>
-      <c r="DS2" t="inlineStr"/>
-      <c r="DT2" t="inlineStr"/>
-      <c r="DU2" t="inlineStr"/>
-      <c r="DV2" t="inlineStr"/>
-      <c r="DW2" t="inlineStr"/>
-      <c r="DX2" t="inlineStr"/>
-      <c r="DY2" t="inlineStr"/>
-      <c r="DZ2" t="inlineStr"/>
-      <c r="EA2" t="inlineStr"/>
-      <c r="EB2" t="inlineStr"/>
-      <c r="EC2" t="inlineStr"/>
-      <c r="ED2" t="inlineStr"/>
+        <v>23262736800</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>23309246400</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>23309246400</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>23334912400</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>23334912400</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>23363328500</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>23363328500</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>23411330200</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>23411330200</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>23459970500</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>23459970500</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>23509422900</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>23509422900</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>23559557800</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>23559557800</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>23609222000</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>23609222000</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>23660474600</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>23660474600</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>23710565500</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>23710565500</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>23736554700</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>23736554700</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>23785348900</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>23785348900</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>23812082600</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>23812082600</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>23861005000</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>23861005000</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>23911239900</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>23911239900</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>23933073900</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>23933073900</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>24012724600</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>24012724600</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>24059946900</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>24059946900</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>24109539700</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>24109539700</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>24159881300</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>24159881300</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>24209353500</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>24209353500</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>24260185900</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>24260185900</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>24311141600</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>24311141600</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>24358151100</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>24358151100</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>24409738600</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>24409738600</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>24460213400</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>24460213400</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>24509866000</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>24509866000</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>24559303300</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>24559303300</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>24608685700</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>24608685700</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>24659701800</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>24659701800</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>24709414200</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>24709414200</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>24761239500</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>24761239500</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>24811926400</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>24811926400</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>24861349500</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>24861349500</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>24936602800</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>24936602800</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>25008086400</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>25008086400</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>25060583400</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>25060583400</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>25110954600</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>25110954600</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>25186436100</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>25186436100</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>25235157700</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>25235157700</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>25284034200</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>25284034200</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>33104959800</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15201484300</v>
+        <v>0.3739560842514038</v>
       </c>
       <c r="B3" t="n">
-        <v>15201484300</v>
+        <v>0.3739554882049561</v>
       </c>
       <c r="C3" t="n">
-        <v>22355397500</v>
+        <v>0.3739549517631531</v>
       </c>
       <c r="D3" t="n">
-        <v>22355397500</v>
+        <v>0.3739558458328247</v>
       </c>
       <c r="E3" t="n">
-        <v>22457131500</v>
+        <v>0.3739567995071411</v>
       </c>
       <c r="F3" t="n">
-        <v>22457131500</v>
+        <v>0.3739560842514038</v>
       </c>
       <c r="G3" t="n">
-        <v>22554892300</v>
+        <v>0.3739571273326874</v>
       </c>
       <c r="H3" t="n">
-        <v>22554892300</v>
+        <v>0.3739561438560486</v>
       </c>
       <c r="I3" t="n">
-        <v>22654487300</v>
+        <v>0.3739582300186157</v>
       </c>
       <c r="J3" t="n">
-        <v>22654487300</v>
+        <v>0.3739566802978516</v>
       </c>
       <c r="K3" t="n">
-        <v>22732101400</v>
+        <v>0.3739557862281799</v>
       </c>
       <c r="L3" t="n">
-        <v>22732101400</v>
+        <v>0.3739554286003113</v>
       </c>
       <c r="M3" t="n">
-        <v>22805391500</v>
+        <v>0.373957097530365</v>
       </c>
       <c r="N3" t="n">
-        <v>22805391500</v>
+        <v>0.3739602565765381</v>
       </c>
       <c r="O3" t="n">
-        <v>22883044600</v>
+        <v>0.3739569187164307</v>
       </c>
       <c r="P3" t="n">
-        <v>22883044600</v>
+        <v>0.373957097530365</v>
       </c>
       <c r="Q3" t="n">
-        <v>22956567400</v>
+        <v>0.3739551901817322</v>
       </c>
       <c r="R3" t="n">
-        <v>22956567400</v>
+        <v>0.3739579319953918</v>
       </c>
       <c r="S3" t="n">
-        <v>23035471900</v>
+        <v>0.3739577829837799</v>
       </c>
       <c r="T3" t="n">
-        <v>23035471900</v>
+        <v>0.3739565312862396</v>
       </c>
       <c r="U3" t="n">
-        <v>23109679400</v>
+        <v>0.3739572167396545</v>
       </c>
       <c r="V3" t="n">
-        <v>23109679400</v>
+        <v>0.3739556968212128</v>
       </c>
       <c r="W3" t="n">
-        <v>23185465700</v>
+        <v>0.3739583790302277</v>
       </c>
       <c r="X3" t="n">
-        <v>23185465700</v>
+        <v>0.3739579916000366</v>
       </c>
       <c r="Y3" t="n">
-        <v>23259712300</v>
+        <v>0.3739559650421143</v>
       </c>
       <c r="Z3" t="n">
-        <v>23259712300</v>
+        <v>0.3739562928676605</v>
       </c>
       <c r="AA3" t="n">
-        <v>23333415400</v>
+        <v>0.3739564716815948</v>
       </c>
       <c r="AB3" t="n">
-        <v>23333415400</v>
+        <v>0.3739566802978516</v>
       </c>
       <c r="AC3" t="n">
-        <v>23408569700</v>
+        <v>0.3739559650421143</v>
       </c>
       <c r="AD3" t="n">
-        <v>23408569700</v>
+        <v>0.3739581108093262</v>
       </c>
       <c r="AE3" t="n">
-        <v>23485316800</v>
+        <v>0.3739575743675232</v>
       </c>
       <c r="AF3" t="n">
-        <v>23485316800</v>
+        <v>0.3739556670188904</v>
       </c>
       <c r="AG3" t="n">
-        <v>23561314100</v>
+        <v>0.3739579021930695</v>
       </c>
       <c r="AH3" t="n">
-        <v>23561314100</v>
+        <v>0.3739572167396545</v>
       </c>
       <c r="AI3" t="n">
-        <v>23632049300</v>
+        <v>0.3739551305770874</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23632049300</v>
+        <v>0.3739530444145203</v>
       </c>
       <c r="AK3" t="n">
-        <v>23706744500</v>
+        <v>0.3739563822746277</v>
       </c>
       <c r="AL3" t="n">
-        <v>23706744500</v>
+        <v>0.373957097530365</v>
       </c>
       <c r="AM3" t="n">
-        <v>23783722400</v>
+        <v>0.3739559650421143</v>
       </c>
       <c r="AN3" t="n">
-        <v>23783722400</v>
+        <v>0.3739553689956665</v>
       </c>
       <c r="AO3" t="n">
-        <v>23855151900</v>
+        <v>0.3739571571350098</v>
       </c>
       <c r="AP3" t="n">
-        <v>23855151900</v>
+        <v>0.3739563822746277</v>
       </c>
       <c r="AQ3" t="n">
-        <v>23905829300</v>
+        <v>0.373956561088562</v>
       </c>
       <c r="AR3" t="n">
-        <v>23905829300</v>
+        <v>0.3739570379257202</v>
       </c>
       <c r="AS3" t="n">
-        <v>23978238700</v>
+        <v>0.373955249786377</v>
       </c>
       <c r="AT3" t="n">
-        <v>23978238700</v>
+        <v>0.3739572763442993</v>
       </c>
       <c r="AU3" t="n">
-        <v>24056063900</v>
+        <v>0.3739573061466217</v>
       </c>
       <c r="AV3" t="n">
-        <v>24056063900</v>
+        <v>0.3739566206932068</v>
       </c>
       <c r="AW3" t="n">
-        <v>24129134300</v>
+        <v>0.3739520311355591</v>
       </c>
       <c r="AX3" t="n">
-        <v>24129134300</v>
+        <v>0.3738051354885101</v>
       </c>
       <c r="AY3" t="n">
-        <v>24180954100</v>
+        <v>0.3740088045597076</v>
       </c>
       <c r="AZ3" t="n">
-        <v>24180954100</v>
+        <v>0.3740257322788239</v>
       </c>
       <c r="BA3" t="n">
-        <v>24255932400</v>
+        <v>0.3742126226425171</v>
       </c>
       <c r="BB3" t="n">
-        <v>24255932400</v>
+        <v>0.3741784393787384</v>
       </c>
       <c r="BC3" t="n">
-        <v>24357622200</v>
+        <v>0.3741158843040466</v>
       </c>
       <c r="BD3" t="n">
-        <v>24357622200</v>
+        <v>0.3742736577987671</v>
       </c>
       <c r="BE3" t="n">
-        <v>24407487000</v>
+        <v>0.3742572665214539</v>
       </c>
       <c r="BF3" t="n">
-        <v>24407487000</v>
+        <v>0.3742945492267609</v>
       </c>
       <c r="BG3" t="n">
-        <v>24502632000</v>
+        <v>0.3743612468242645</v>
       </c>
       <c r="BH3" t="n">
-        <v>24502632000</v>
+        <v>0.3744115829467773</v>
       </c>
       <c r="BI3" t="n">
-        <v>24556478700</v>
+        <v>0.3742384910583496</v>
       </c>
       <c r="BJ3" t="n">
-        <v>24556478700</v>
+        <v>0.3739494681358337</v>
       </c>
       <c r="BK3" t="n">
-        <v>24628882900</v>
+        <v>0.3739555478096008</v>
       </c>
       <c r="BL3" t="n">
-        <v>24628882900</v>
+        <v>0.3737942278385162</v>
       </c>
       <c r="BM3" t="n">
-        <v>24680352300</v>
+        <v>0.3735762238502502</v>
       </c>
       <c r="BN3" t="n">
-        <v>24680352300</v>
+        <v>0.3736856877803802</v>
       </c>
       <c r="BO3" t="n">
-        <v>24755318600</v>
+        <v>0.3738178610801697</v>
       </c>
       <c r="BP3" t="n">
-        <v>24755318600</v>
+        <v>0.3737818002700806</v>
       </c>
       <c r="BQ3" t="n">
-        <v>24804598800</v>
+        <v>0.3737791776657104</v>
       </c>
       <c r="BR3" t="n">
-        <v>24804598800</v>
+        <v>0.3737893998622894</v>
       </c>
       <c r="BS3" t="n">
-        <v>24880316200</v>
+        <v>0.3738404810428619</v>
       </c>
       <c r="BT3" t="n">
-        <v>24880316200</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>24957789100</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>24957789100</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>25031452500</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>25031452500</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>25104411400</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>25104411400</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>25182289800</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>25182289800</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>25255247300</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>25279640500</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>25303223100</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>25327628700</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>25327628700</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>25379585000</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>25379585000</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>25456856400</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>25503567900</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>25503567900</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>25559574700</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>25559574700</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>25629025300</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>25629025300</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>25708498900</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>25708498900</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>25780854400</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>25780854400</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>25859257700</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>25903375700</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>25928137600</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>25928137600</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>25979618200</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>25979618200</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>26028316000</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>26028316000</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>26106623400</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>26153732100</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>26153732100</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>26203548100</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>26203548100</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>26280424900</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>26280424900</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>26357225400</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>26357225400</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>26429743000</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>26429743000</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>26503919300</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>26503919300</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>26583835100</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>26583835100</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>26658495400</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>26658495400</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>26729144000</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>26729144000</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>26782674100</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>26782674100</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>26858394400</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>26858394400</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>26929284500</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>26957395900</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>26978471800</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>26978471800</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>45679765400</v>
-      </c>
+        <v>0.3737712800502777</v>
+      </c>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr"/>
+      <c r="DA3" t="inlineStr"/>
+      <c r="DB3" t="inlineStr"/>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr"/>
+      <c r="DE3" t="inlineStr"/>
+      <c r="DF3" t="inlineStr"/>
+      <c r="DG3" t="inlineStr"/>
+      <c r="DH3" t="inlineStr"/>
+      <c r="DI3" t="inlineStr"/>
+      <c r="DJ3" t="inlineStr"/>
+      <c r="DK3" t="inlineStr"/>
+      <c r="DL3" t="inlineStr"/>
+      <c r="DM3" t="inlineStr"/>
+      <c r="DN3" t="inlineStr"/>
+      <c r="DO3" t="inlineStr"/>
+      <c r="DP3" t="inlineStr"/>
+      <c r="DQ3" t="inlineStr"/>
+      <c r="DR3" t="inlineStr"/>
+      <c r="DS3" t="inlineStr"/>
+      <c r="DT3" t="inlineStr"/>
+      <c r="DU3" t="inlineStr"/>
+      <c r="DV3" t="inlineStr"/>
+      <c r="DW3" t="inlineStr"/>
+      <c r="DX3" t="inlineStr"/>
+      <c r="DY3" t="inlineStr"/>
+      <c r="DZ3" t="inlineStr"/>
+      <c r="EA3" t="inlineStr"/>
+      <c r="EB3" t="inlineStr"/>
+      <c r="EC3" t="inlineStr"/>
+      <c r="ED3" t="inlineStr"/>
+      <c r="EE3" t="inlineStr"/>
+      <c r="EF3" t="inlineStr"/>
+      <c r="EG3" t="inlineStr"/>
+      <c r="EH3" t="inlineStr"/>
+      <c r="EI3" t="inlineStr"/>
+      <c r="EJ3" t="inlineStr"/>
+      <c r="EK3" t="inlineStr"/>
+      <c r="EL3" t="inlineStr"/>
+      <c r="EM3" t="inlineStr"/>
+      <c r="EN3" t="inlineStr"/>
+      <c r="EO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.06720110774040222</v>
+        <v>-118.0420227050781</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.06718271970748901</v>
+        <v>-117.9383087158203</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.06497882306575775</v>
+        <v>-117.7619171142578</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.06353011727333069</v>
+        <v>-118.7533874511719</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.06214963644742966</v>
+        <v>-118.1811828613281</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.06048240885138512</v>
+        <v>-117.7810211181641</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.05885873734951019</v>
+        <v>-118.1464080810547</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.05708670988678932</v>
+        <v>-118.0706024169922</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05548758804798126</v>
+        <v>-117.9305267333984</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.05404796078801155</v>
+        <v>-118.4339904785156</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.05267718434333801</v>
+        <v>-117.9783935546875</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.05132760852575302</v>
+        <v>-117.5174865722656</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.04942374303936958</v>
+        <v>-118.2786102294922</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04755027964711189</v>
+        <v>-118.6519317626953</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.04684571176767349</v>
+        <v>-117.9247436523438</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.04501465708017349</v>
+        <v>-117.7604827880859</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.04333491250872612</v>
+        <v>-118.4116821289062</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.04229025915265083</v>
+        <v>-118.2188568115234</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.0404517650604248</v>
+        <v>-118.0125274658203</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.03906914964318275</v>
+        <v>-117.912353515625</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.03877962380647659</v>
+        <v>-117.91064453125</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.03733726590871811</v>
+        <v>-118.5063934326172</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.0359986275434494</v>
+        <v>-118.2225952148438</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.03531033545732498</v>
+        <v>-118.0061950683594</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.03488509729504585</v>
+        <v>-118.4940948486328</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.03433183953166008</v>
+        <v>-117.7047424316406</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.03371895104646683</v>
+        <v>-118.6206970214844</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.03272360563278198</v>
+        <v>-118.0525970458984</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.03175978362560272</v>
+        <v>-118.0111236572266</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.03189410641789436</v>
+        <v>-117.9804077148438</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.03141331672668457</v>
+        <v>-118.1022033691406</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.03142134472727776</v>
+        <v>-117.9738616943359</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.03211979568004608</v>
+        <v>-118.4262237548828</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.03192878887057304</v>
+        <v>-118.1819763183594</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.0327688492834568</v>
+        <v>-117.8724822998047</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.03255334496498108</v>
+        <v>-118.4733276367188</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.03317791596055031</v>
+        <v>-117.9211120605469</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.03331988304853439</v>
+        <v>-118.2200927734375</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.03354266285896301</v>
+        <v>-118.6034240722656</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.03331611305475235</v>
+        <v>-118.3196716308594</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.03304215520620346</v>
+        <v>-118.1240692138672</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.03350671753287315</v>
+        <v>-118.2377014160156</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.03276959806680679</v>
+        <v>-118.178466796875</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.03242017701268196</v>
+        <v>-118.1348571777344</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.03216175734996796</v>
+        <v>-118.1293487548828</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.03183135390281677</v>
+        <v>-118.3609619140625</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.03151310235261917</v>
+        <v>-118.1417388916016</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.03182894736528397</v>
+        <v>-118.2698974609375</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.03162236884236336</v>
+        <v>-118.1005554199219</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.03140698745846748</v>
+        <v>-118.108642578125</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0.03091935068368912</v>
+        <v>-119.37744140625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0.03036525286734104</v>
+        <v>-121.39990234375</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0.03012701496481895</v>
+        <v>-119.1637573242188</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.02985655888915062</v>
+        <v>-115.6352844238281</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0.0296211950480938</v>
+        <v>-113.7953796386719</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.02993934229016304</v>
+        <v>-112.4317626953125</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.02979977056384087</v>
+        <v>-108.7629547119141</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.02992848306894302</v>
+        <v>-106.7124176025391</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.02981439791619778</v>
+        <v>-102.6468658447266</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0.03040638566017151</v>
+        <v>-102.4828491210938</v>
       </c>
       <c r="BI4" t="n">
-        <v>-0.02961792051792145</v>
+        <v>-98.36041259765625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0.02956259064376354</v>
-      </c>
-      <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="inlineStr"/>
-      <c r="BM4" t="inlineStr"/>
-      <c r="BN4" t="inlineStr"/>
-      <c r="BO4" t="inlineStr"/>
-      <c r="BP4" t="inlineStr"/>
-      <c r="BQ4" t="inlineStr"/>
-      <c r="BR4" t="inlineStr"/>
-      <c r="BS4" t="inlineStr"/>
-      <c r="BT4" t="inlineStr"/>
+        <v>-95.93124389648438</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>-91.90304565429688</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>-88.74664306640625</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>-86.73989868164062</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>-82.48130798339844</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>-79.54039001464844</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>-76.46696472167969</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>-72.84999084472656</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>-70.77456665039062</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>-67.66847229003906</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>-64.42625427246094</v>
+      </c>
       <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="inlineStr"/>
       <c r="BW4" t="inlineStr"/>
@@ -1760,204 +1877,235 @@
       <c r="EB4" t="inlineStr"/>
       <c r="EC4" t="inlineStr"/>
       <c r="ED4" t="inlineStr"/>
+      <c r="EE4" t="inlineStr"/>
+      <c r="EF4" t="inlineStr"/>
+      <c r="EG4" t="inlineStr"/>
+      <c r="EH4" t="inlineStr"/>
+      <c r="EI4" t="inlineStr"/>
+      <c r="EJ4" t="inlineStr"/>
+      <c r="EK4" t="inlineStr"/>
+      <c r="EL4" t="inlineStr"/>
+      <c r="EM4" t="inlineStr"/>
+      <c r="EN4" t="inlineStr"/>
+      <c r="EO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-109</v>
+        <v>173.1908874511719</v>
       </c>
       <c r="B5" t="n">
-        <v>-110</v>
+        <v>173.2314605712891</v>
       </c>
       <c r="C5" t="n">
-        <v>-109</v>
+        <v>173.0135345458984</v>
       </c>
       <c r="D5" t="n">
-        <v>-105</v>
+        <v>172.8755950927734</v>
       </c>
       <c r="E5" t="n">
-        <v>-97</v>
+        <v>173.1104431152344</v>
       </c>
       <c r="F5" t="n">
-        <v>-90</v>
+        <v>173.3863983154297</v>
       </c>
       <c r="G5" t="n">
-        <v>-91</v>
+        <v>173.2152099609375</v>
       </c>
       <c r="H5" t="n">
-        <v>-87</v>
+        <v>173.1333618164062</v>
       </c>
       <c r="I5" t="n">
-        <v>-78</v>
+        <v>172.8609924316406</v>
       </c>
       <c r="J5" t="n">
-        <v>-70</v>
+        <v>173.2841186523438</v>
       </c>
       <c r="K5" t="n">
-        <v>-65</v>
+        <v>173.2070007324219</v>
       </c>
       <c r="L5" t="n">
-        <v>-62</v>
+        <v>173.2368621826172</v>
       </c>
       <c r="M5" t="n">
-        <v>-54</v>
+        <v>172.4954223632812</v>
       </c>
       <c r="N5" t="n">
-        <v>-54</v>
+        <v>172.9175720214844</v>
       </c>
       <c r="O5" t="n">
-        <v>-45</v>
+        <v>172.9667053222656</v>
       </c>
       <c r="P5" t="n">
-        <v>-41</v>
+        <v>172.8604278564453</v>
       </c>
       <c r="Q5" t="n">
-        <v>-38</v>
+        <v>172.9366149902344</v>
       </c>
       <c r="R5" t="n">
-        <v>-29</v>
+        <v>173.0781555175781</v>
       </c>
       <c r="S5" t="n">
-        <v>-23</v>
+        <v>173.3955993652344</v>
       </c>
       <c r="T5" t="n">
-        <v>-25</v>
+        <v>172.7271728515625</v>
       </c>
       <c r="U5" t="n">
-        <v>-17</v>
+        <v>173.0863800048828</v>
       </c>
       <c r="V5" t="n">
-        <v>-11</v>
+        <v>173.1551361083984</v>
       </c>
       <c r="W5" t="n">
-        <v>-9</v>
+        <v>173.0951843261719</v>
       </c>
       <c r="X5" t="n">
-        <v>-4</v>
+        <v>173.1092529296875</v>
       </c>
       <c r="Y5" t="n">
-        <v>-1</v>
+        <v>173.0688171386719</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>173.3768005371094</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>173.0953979492188</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>173.3134460449219</v>
       </c>
       <c r="AC5" t="n">
-        <v>2</v>
+        <v>173.2732238769531</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>173.4871215820312</v>
       </c>
       <c r="AE5" t="n">
-        <v>10</v>
+        <v>173.3207092285156</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>173.0242004394531</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>173.0340423583984</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>173.69091796875</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>173.0968780517578</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>173.0535278320312</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>173.5551910400391</v>
       </c>
       <c r="AL5" t="n">
-        <v>-1</v>
+        <v>173.2234497070312</v>
       </c>
       <c r="AM5" t="n">
-        <v>-1</v>
+        <v>173.7457885742188</v>
       </c>
       <c r="AN5" t="n">
-        <v>1</v>
+        <v>172.7533264160156</v>
       </c>
       <c r="AO5" t="n">
-        <v>-4</v>
+        <v>173.1360015869141</v>
       </c>
       <c r="AP5" t="n">
-        <v>-5</v>
+        <v>172.9566650390625</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-4</v>
+        <v>172.7544097900391</v>
       </c>
       <c r="AR5" t="n">
-        <v>-4</v>
+        <v>173.1166687011719</v>
       </c>
       <c r="AS5" t="n">
-        <v>-2</v>
+        <v>173.2887573242188</v>
       </c>
       <c r="AT5" t="n">
-        <v>-2</v>
+        <v>173.3651733398438</v>
       </c>
       <c r="AU5" t="n">
-        <v>-2</v>
+        <v>172.6503601074219</v>
       </c>
       <c r="AV5" t="n">
-        <v>-1</v>
+        <v>173.0514221191406</v>
       </c>
       <c r="AW5" t="n">
-        <v>-2</v>
+        <v>173.1072692871094</v>
       </c>
       <c r="AX5" t="n">
-        <v>0</v>
+        <v>172.9398193359375</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>172.9920959472656</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>173.3935546875</v>
       </c>
       <c r="BA5" t="n">
-        <v>3</v>
+        <v>173.490966796875</v>
       </c>
       <c r="BB5" t="n">
-        <v>3</v>
+        <v>172.7882385253906</v>
       </c>
       <c r="BC5" t="n">
-        <v>3</v>
+        <v>172.2446594238281</v>
       </c>
       <c r="BD5" t="n">
-        <v>4</v>
+        <v>172.4024963378906</v>
       </c>
       <c r="BE5" t="n">
-        <v>4</v>
+        <v>172.1906433105469</v>
       </c>
       <c r="BF5" t="n">
-        <v>2</v>
+        <v>173.2643127441406</v>
       </c>
       <c r="BG5" t="n">
-        <v>3</v>
+        <v>171.9178771972656</v>
       </c>
       <c r="BH5" t="n">
-        <v>2</v>
+        <v>172.6859436035156</v>
       </c>
       <c r="BI5" t="n">
-        <v>2</v>
+        <v>172.6814422607422</v>
       </c>
       <c r="BJ5" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="inlineStr"/>
-      <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="inlineStr"/>
-      <c r="BO5" t="inlineStr"/>
-      <c r="BP5" t="inlineStr"/>
-      <c r="BQ5" t="inlineStr"/>
-      <c r="BR5" t="inlineStr"/>
-      <c r="BS5" t="inlineStr"/>
-      <c r="BT5" t="inlineStr"/>
+        <v>172.7614288330078</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>172.5475158691406</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>172.8457183837891</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>172.5975952148438</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>171.8133544921875</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>171.5038146972656</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>171.0644226074219</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>172.2322998046875</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>172.76220703125</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>172.8571319580078</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>170.3031005859375</v>
+      </c>
       <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr"/>
       <c r="BW5" t="inlineStr"/>
@@ -2020,204 +2168,235 @@
       <c r="EB5" t="inlineStr"/>
       <c r="EC5" t="inlineStr"/>
       <c r="ED5" t="inlineStr"/>
+      <c r="EE5" t="inlineStr"/>
+      <c r="EF5" t="inlineStr"/>
+      <c r="EG5" t="inlineStr"/>
+      <c r="EH5" t="inlineStr"/>
+      <c r="EI5" t="inlineStr"/>
+      <c r="EJ5" t="inlineStr"/>
+      <c r="EK5" t="inlineStr"/>
+      <c r="EL5" t="inlineStr"/>
+      <c r="EM5" t="inlineStr"/>
+      <c r="EN5" t="inlineStr"/>
+      <c r="EO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.3739813268184662</v>
+        <v>-0.06702110171318054</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3739755153656006</v>
+        <v>-0.06701889634132385</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3743130564689636</v>
+        <v>-0.0670178234577179</v>
       </c>
       <c r="D6" t="n">
-        <v>0.374310314655304</v>
+        <v>-0.06702050566673279</v>
       </c>
       <c r="E6" t="n">
-        <v>0.373788595199585</v>
+        <v>-0.06702139228582382</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3738513886928558</v>
+        <v>-0.06701978296041489</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3737967014312744</v>
+        <v>-0.06701675057411194</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3739155530929565</v>
+        <v>-0.06702145934104919</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3738724291324615</v>
+        <v>-0.06701496243476868</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3738689720630646</v>
+        <v>-0.0670185387134552</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3738954663276672</v>
+        <v>-0.06701800227165222</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3738088309764862</v>
+        <v>-0.0670158639550209</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3739687502384186</v>
+        <v>-0.06701979041099548</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3740731477737427</v>
+        <v>-0.06701889634132385</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3737903237342834</v>
+        <v>-0.06702057272195816</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3734771609306335</v>
+        <v>-0.06701710820198059</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3735491037368774</v>
+        <v>-0.06702050566673279</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3732628226280212</v>
+        <v>-0.06701889634132385</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3731488883495331</v>
+        <v>-0.06701710820198059</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3736484050750732</v>
+        <v>-0.06701978296041489</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3752704858779907</v>
+        <v>-0.06701960414648056</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3784445524215698</v>
+        <v>-0.06702157109975815</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3823016881942749</v>
+        <v>-0.06701710820198059</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3859825134277344</v>
+        <v>-0.06701789796352386</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.388710081577301</v>
+        <v>-0.06701979041099548</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3925480842590332</v>
+        <v>-0.06702067703008652</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.3964223861694336</v>
+        <v>-0.06701978296041489</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.4002657532691956</v>
+        <v>-0.0670185387134552</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.4055301249027252</v>
+        <v>-0.06702246516942978</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.4079287648200989</v>
+        <v>-0.06702068448066711</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.4119032025337219</v>
+        <v>-0.06702067703008652</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.4143714606761932</v>
+        <v>-0.06702227890491486</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.4181153774261475</v>
+        <v>-0.06701889634132385</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.4206231832504272</v>
+        <v>-0.06702246516942978</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.4243350028991699</v>
+        <v>-0.06702068448066711</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.4283239245414734</v>
+        <v>-0.06702246516942978</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.4319959282875061</v>
+        <v>-0.06701764464378357</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.4356778264045715</v>
+        <v>-0.06702335178852081</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.4394553899765015</v>
+        <v>-0.06701979041099548</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.4432176351547241</v>
+        <v>-0.06701604276895523</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.449164867401123</v>
+        <v>-0.06701979041099548</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.4510177671909332</v>
+        <v>-0.06702406704425812</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.4539130032062531</v>
+        <v>-0.067014180123806</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.4564604163169861</v>
+        <v>-0.06702324748039246</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.4589914679527283</v>
+        <v>-0.06702067703008652</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.4621025323867798</v>
+        <v>-0.06701353937387466</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.4656412601470947</v>
+        <v>-0.0670185461640358</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.4716031849384308</v>
+        <v>-0.06701960414648056</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.4735667109489441</v>
+        <v>-0.06703096628189087</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.4754316210746765</v>
+        <v>-0.06748556345701218</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.4795267581939697</v>
+        <v>-0.06630329787731171</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.4817052781581879</v>
+        <v>-0.06574175506830215</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.4850673675537109</v>
+        <v>-0.06435324996709824</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.4882178902626038</v>
+        <v>-0.06347983330488205</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.4918638467788696</v>
+        <v>-0.0627177506685257</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.4942744076251984</v>
+        <v>-0.06130779907107353</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.4992163181304932</v>
+        <v>-0.06035756319761276</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.503014862537384</v>
+        <v>-0.05928726121783257</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.505401611328125</v>
+        <v>-0.05833984166383743</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.509161114692688</v>
+        <v>-0.05719275400042534</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.513154923915863</v>
+        <v>-0.05646548047661781</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.5180075764656067</v>
-      </c>
-      <c r="BK6" t="inlineStr"/>
-      <c r="BL6" t="inlineStr"/>
-      <c r="BM6" t="inlineStr"/>
-      <c r="BN6" t="inlineStr"/>
-      <c r="BO6" t="inlineStr"/>
-      <c r="BP6" t="inlineStr"/>
-      <c r="BQ6" t="inlineStr"/>
-      <c r="BR6" t="inlineStr"/>
-      <c r="BS6" t="inlineStr"/>
-      <c r="BT6" t="inlineStr"/>
+        <v>-0.05484701320528984</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>-0.05408306792378426</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>-0.05326640605926514</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>-0.05166589841246605</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>-0.04997777193784714</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>-0.04862266778945923</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>-0.04790258407592773</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>-0.04625827819108963</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>-0.04554461687803268</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>-0.04433856904506683</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>-0.04336309432983398</v>
+      </c>
       <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr"/>
       <c r="BW6" t="inlineStr"/>
@@ -2280,204 +2459,235 @@
       <c r="EB6" t="inlineStr"/>
       <c r="EC6" t="inlineStr"/>
       <c r="ED6" t="inlineStr"/>
+      <c r="EE6" t="inlineStr"/>
+      <c r="EF6" t="inlineStr"/>
+      <c r="EG6" t="inlineStr"/>
+      <c r="EH6" t="inlineStr"/>
+      <c r="EI6" t="inlineStr"/>
+      <c r="EJ6" t="inlineStr"/>
+      <c r="EK6" t="inlineStr"/>
+      <c r="EL6" t="inlineStr"/>
+      <c r="EM6" t="inlineStr"/>
+      <c r="EN6" t="inlineStr"/>
+      <c r="EO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2519175112247467</v>
+        <v>0.2518185973167419</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2519148886203766</v>
+        <v>0.2518130540847778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2519509494304657</v>
+        <v>0.2518132030963898</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2522769570350647</v>
+        <v>0.2518107295036316</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2520036697387695</v>
+        <v>0.2518162727355957</v>
       </c>
       <c r="F7" t="n">
-        <v>0.251908928155899</v>
+        <v>0.2518163323402405</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2525860667228699</v>
+        <v>0.2518153190612793</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2526797354221344</v>
+        <v>0.2518168687820435</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2527430653572083</v>
+        <v>0.2518152892589569</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2531038224697113</v>
+        <v>0.2518138587474823</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2535432875156403</v>
+        <v>0.2518141269683838</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2539354264736176</v>
+        <v>0.2518142759799957</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2540239095687866</v>
+        <v>0.2518145143985748</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2539981305599213</v>
+        <v>0.2518190741539001</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2537488341331482</v>
+        <v>0.2518157660961151</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2542527914047241</v>
+        <v>0.2518190443515778</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2542939782142639</v>
+        <v>0.2518116533756256</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2539733648300171</v>
+        <v>0.251816987991333</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2537637054920197</v>
+        <v>0.2518172264099121</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2538881897926331</v>
+        <v>0.251814603805542</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2543507218360901</v>
+        <v>0.2518149018287659</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2542030513286591</v>
+        <v>0.2518157958984375</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2541262209415436</v>
+        <v>0.2518170475959778</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2539441883563995</v>
+        <v>0.2518156766891479</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2540287673473358</v>
+        <v>0.2518149018287659</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2540146112442017</v>
+        <v>0.2518142461776733</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2544302642345428</v>
+        <v>0.2518152594566345</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2541031241416931</v>
+        <v>0.2518152594566345</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.2542297542095184</v>
+        <v>0.2518119513988495</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.2539677917957306</v>
+        <v>0.2518161237239838</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.2538392841815948</v>
+        <v>0.2518132925033569</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.2536462545394897</v>
+        <v>0.2518149614334106</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.2532103955745697</v>
+        <v>0.251812219619751</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.2533032894134521</v>
+        <v>0.2518161237239838</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.2528544068336487</v>
+        <v>0.2518135607242584</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2525593638420105</v>
+        <v>0.2518095970153809</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.2523325979709625</v>
+        <v>0.2518154382705688</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.252156138420105</v>
+        <v>0.2518135011196136</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.2516412138938904</v>
+        <v>0.2518149018287659</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.2515429258346558</v>
+        <v>0.2518125176429749</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.2509000599384308</v>
+        <v>0.2518189549446106</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.2507681548595428</v>
+        <v>0.2518143653869629</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.2512170672416687</v>
+        <v>0.2518122494220734</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.2509549260139465</v>
+        <v>0.2518161237239838</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.2511062324047089</v>
+        <v>0.2518134117126465</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.2513051331043243</v>
+        <v>0.2518095374107361</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.2508113980293274</v>
+        <v>0.2518150508403778</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.2512947916984558</v>
+        <v>0.251816064119339</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.2513436377048492</v>
+        <v>0.2518141269683838</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.2513790130615234</v>
+        <v>0.2517819106578827</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.2518110871315002</v>
+        <v>0.2517977356910706</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.2519572675228119</v>
+        <v>0.2517851293087006</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.2523297667503357</v>
+        <v>0.2517818212509155</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.2523761093616486</v>
+        <v>0.2516994476318359</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.2524414956569672</v>
+        <v>0.2516185641288757</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.2528014183044434</v>
+        <v>0.2520622313022614</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.2526473701000214</v>
+        <v>0.2521314322948456</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.2531695961952209</v>
+        <v>0.2520463466644287</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.2529886662960052</v>
+        <v>0.2518819868564606</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.2531881034374237</v>
+        <v>0.2517764568328857</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.2539108991622925</v>
+        <v>0.2515005171298981</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.2535675466060638</v>
-      </c>
-      <c r="BK7" t="inlineStr"/>
-      <c r="BL7" t="inlineStr"/>
-      <c r="BM7" t="inlineStr"/>
-      <c r="BN7" t="inlineStr"/>
-      <c r="BO7" t="inlineStr"/>
-      <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="inlineStr"/>
-      <c r="BR7" t="inlineStr"/>
-      <c r="BS7" t="inlineStr"/>
-      <c r="BT7" t="inlineStr"/>
+        <v>0.2510051131248474</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.2514917850494385</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.2512154877185822</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.2506445050239563</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.2505793571472168</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.2509914636611938</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.2508927285671234</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.2507272660732269</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0.250712513923645</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.2506477534770966</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0.2505788803100586</v>
+      </c>
       <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="inlineStr"/>
       <c r="BW7" t="inlineStr"/>
@@ -2540,6 +2750,17 @@
       <c r="EB7" t="inlineStr"/>
       <c r="EC7" t="inlineStr"/>
       <c r="ED7" t="inlineStr"/>
+      <c r="EE7" t="inlineStr"/>
+      <c r="EF7" t="inlineStr"/>
+      <c r="EG7" t="inlineStr"/>
+      <c r="EH7" t="inlineStr"/>
+      <c r="EI7" t="inlineStr"/>
+      <c r="EJ7" t="inlineStr"/>
+      <c r="EK7" t="inlineStr"/>
+      <c r="EL7" t="inlineStr"/>
+      <c r="EM7" t="inlineStr"/>
+      <c r="EN7" t="inlineStr"/>
+      <c r="EO7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
